--- a/CivilWarNarrative/bin/SoldierStory.xlsx
+++ b/CivilWarNarrative/bin/SoldierStory.xlsx
@@ -313,7 +313,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Text that appears in the upper right such as instructions or statistics that are tangential to the story. If left blank, no box appear in that corner.</t>
+Text that appears in the upper right such as instructions or statistics that are tangential to the story. If left blank, no box will appear.</t>
         </r>
       </text>
     </comment>
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="372">
   <si>
     <t>titleslide</t>
   </si>
@@ -1328,9 +1328,6 @@
     <t>hometown-mine</t>
   </si>
   <si>
-    <t>hometown-farm2</t>
-  </si>
-  <si>
     <t>rally</t>
   </si>
   <si>
@@ -1346,87 +1343,24 @@
     <t>lateenlistment</t>
   </si>
   <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>recruitment</t>
-  </si>
-  <si>
     <t>firstday</t>
   </si>
   <si>
-    <t>camp1</t>
-  </si>
-  <si>
-    <t>playingpoker1</t>
-  </si>
-  <si>
-    <t>playingpoker2</t>
-  </si>
-  <si>
-    <t>playingpoker3</t>
-  </si>
-  <si>
-    <t>letterwriting1</t>
-  </si>
-  <si>
     <t>marching1</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>nocoffee</t>
-  </si>
-  <si>
-    <t>camp2</t>
-  </si>
-  <si>
-    <t>noletter</t>
-  </si>
-  <si>
     <t>mailwagon</t>
   </si>
   <si>
-    <t>letter1</t>
-  </si>
-  <si>
-    <t>letter2</t>
-  </si>
-  <si>
-    <t>letter3</t>
-  </si>
-  <si>
     <t>marching2</t>
   </si>
   <si>
-    <t>merchant1</t>
-  </si>
-  <si>
-    <t>battle1</t>
-  </si>
-  <si>
-    <t>battle2</t>
-  </si>
-  <si>
-    <t>battle3</t>
-  </si>
-  <si>
-    <t>battle5</t>
-  </si>
-  <si>
-    <t>battle6</t>
-  </si>
-  <si>
-    <t>marching3</t>
-  </si>
-  <si>
     <t>fieldhospital</t>
   </si>
   <si>
-    <t>fieldhospital2</t>
-  </si>
-  <si>
     <t>amputee-arm</t>
   </si>
   <si>
@@ -1439,194 +1373,45 @@
     <t>death-infection</t>
   </si>
   <si>
-    <t>death-disease</t>
-  </si>
-  <si>
     <t>survival-victory</t>
   </si>
   <si>
     <t>survival-defeat</t>
   </si>
   <si>
-    <t>sampledecision</t>
-  </si>
-  <si>
-    <t>samplerandom</t>
-  </si>
-  <si>
-    <t>patha</t>
-  </si>
-  <si>
-    <t>pathb</t>
-  </si>
-  <si>
-    <t>sampleconditional</t>
-  </si>
-  <si>
     <t>ending</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>A Soldier's story</t>
-  </si>
-  <si>
-    <t>In November of 1860, Abraham Lincoln is elected President of the United States. The next month, the southern states begin to secede. In March of 1861, President Lincoln takes office and delivers his First Inaugural Address (include this address?) which asserts his intention to preserve the union by compromise.&lt;br/&gt;&lt;br/&gt;One month later, however, Fort Sumter is besieged by Confederates, and taken. Lincoln calls for 75,000 men to preserve the Union, but his call to arms galvanizes the Border States. A handful more of them secede and war is begun.</t>
-  </si>
-  <si>
     <t>Choose your loyalty</t>
   </si>
   <si>
     <t>Choose your background</t>
   </si>
   <si>
-    <t>Life for you here in your hometown is not too easy. Living in an apartment within the city limits, you work at a factory on the river's edge. You and your wife, with whom you have been married only around five years, have two children, and another on the way. Feeding your growing family is hard on a laborer's wage.&lt;br/&gt;&lt;br/&gt;Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy some new clothes for your oldest. Of course, going off to war would mean leaving your wife and children alone, but a soldier is paid more than a factory worker...</t>
-  </si>
-  <si>
-    <t>(There of course needs to be a special story dedicated to freemen and slaves that relates the military's inital denial and eventual relenting. this is just a placeholder.)</t>
-  </si>
-  <si>
-    <t>(some union soldiers came from mines in the east or particularly west [see: &lt;a href="http://en.wikipedia.org/wiki/Comstock_Lode"&gt;Comstock Lode&lt;/a&gt;].)</t>
-  </si>
-  <si>
-    <t>(I was thinking of giving the user the option of resisting enlistment, in which case they get a short story about staying at home during the war, meanwhile being subjected to increasing amounts of peer pressure to join the army, and have a chance or two more to continue and enlist.)&lt;br/&gt;&lt;br/&gt;(This also introduces an option to deal with conscription at some point.)</t>
-  </si>
-  <si>
-    <t>(A scene in which you visit a recruitment rally and choose to finally sign up or continue to decline.)</t>
-  </si>
-  <si>
-    <t>(A scene in which you are conscripted.)</t>
-  </si>
-  <si>
-    <t>Having no shortage of patriotism yourself, you find a group of like-minded men and agree to form a company with them.&lt;br/&gt;&lt;br/&gt;(This page should describe the recruitment process, how a man would sign up and be sent off to war)&lt;br/&gt;&lt;br/&gt;(As far as I can tell, there is little or no time spent between enlistment and actually being in the army, but how is this gap bridged? Were there army wagons that came around and picked up the fresh recruits and dropped them off at the front line by the bus-load?)&lt;br/&gt;&lt;br/&gt;(In addition to historical context, it also serves as a transition into the main body of the narrative.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deciding to enlist, you sign the town's elistment roll, and are checked out by the doctor. He has you take off your clothes and do jumping jacks, bend over, and delivers a pair of sound whacks to the stomach and back to make sure you are fit for duty. After that, he sends you off to the </t>
-  </si>
-  <si>
-    <t>(late enlistment scene, doctor checks for unfitness for war.)</t>
-  </si>
-  <si>
-    <t>(A scene in which you are drafted.)</t>
-  </si>
-  <si>
-    <t>(This page should describe the recruitment process, how a man would sign up and be sent off to war)&lt;br/&gt;&lt;br/&gt;(As far as I can tell, there is little or no time spent between enlistment and actually being in the army, but how is this gap bridged? Were there army wagons that came around and picked up the fresh recruits and dropped them off at the front line by the bus-load?)&lt;br/&gt;&lt;br/&gt;(In addition to historical context, it also serves as a transition into the main body of the narrative.)</t>
-  </si>
-  <si>
     <t>Stepping off the wagon at the camp is surreal. Rows upon rows of white canvas tents make it seem like a carnival, all the men in uniform enhance this image. As you arrive, other wagons are being loaded up with uniformed soldiers to head off to the front.&lt;br/&gt;&lt;br/&gt;Here you will train for one month or until there is an urgent need for manpower, which ever comes first.</t>
   </si>
   <si>
-    <t xml:space="preserve">Living in the camps is harder than you expected. Up at dawn, roll call, wash, marching drills, then breakfast. More drilling – and any work that needs to be done before dinner at noon. The afternoon is a brief respite to go into town. Then target practice, more drilling, tent inspection, and finally evening parade at half past five. Then the moon rises, and until ten the camp is aglow with candle- and fire-light. &lt;br/&gt;&lt;br/&gt;Tonight, some of the guys are gathering to play cards by candlelight. The officers say gambling isn’t allowed, but there will probably be stakes anyway. They offer you to join in their poker game. </t>
-  </si>
-  <si>
-    <t>You play a hand. Then another – and another. The stakes are getting higher and higher until The pot is no less than four months pay. You have a decent hand, but you can’t tell if someone else has a better one. You might as well go all in at this point, there’s nothing more to lose.</t>
-  </si>
-  <si>
     <t>You lay down your hand, and the other players scowl and toss their cards on the table. You won!&lt;br/&gt;&lt;br/&gt;You may have won a lot of money from them, but since everyone was betting their future pay, you don’t actually walk away with any currency. It’ll be up to you to remind them how much they owe.</t>
   </si>
   <si>
     <t>You lay down your hand, but with a grin someone on the other side of the table lays down his hand. You lost. Even if you do get paid soon, you won’t be spending money for a while.&lt;br/&gt;&lt;br/&gt;You hope this isn’t a bad omen.</t>
   </si>
   <si>
-    <t>You decide not to play poker. No sense gambling away money you don’t even have yet, only to make enemies of an officer. You head back to your tent and write a letter home instead. &lt;br/&gt;&lt;br/&gt;(What follows is a preliminary attempt at creating a letter; it may need some refinement later)&lt;br/&gt;&lt;br/&gt;“Dear [Wife’s name], -- (could this name be made dynamic? Random or prompted at the beginning?)&lt;br/&gt;&lt;br/&gt;I miss you greatly. The camp here is nothing like home. I often find myself craving a delicious roast like we used to have. Here we only occasionally get fresh meat, usually only salt meat. It makes a fellow quite thirsty.&lt;br/&gt;&lt;br/&gt;How are things on the farm? I’m worried about harvest time. The crops will need to be reaped before too long. I hope managing the livestock hasn’t been too difficult, either.&lt;br/&gt;&lt;br/&gt;Please write me back when you receive this letter, I look forward to hearing from you.&lt;br/&gt;&lt;br/&gt;				Signed, [your name]”</t>
-  </si>
-  <si>
-    <t>The order has come down to march to a new campsite in three hours time. You and your company pack up your possessions and then the tent, and begin marching. &lt;br/&gt;&lt;br/&gt;The marching is hard work, since you are carrying all of your gear. In the middle of the day, there is a break to eat. As the day wears on, what was once strict formation is now merely a ramshackle crowd of soldiers stumbling down the road. &lt;br/&gt;&lt;br/&gt;Many are weary and have stopped to build fires on the side of the road to cook coffee.</t>
-  </si>
-  <si>
     <t>You decide to break off from the march for a bit. You and your friends build a fire on the side of the road and roast some coffee beans, then brew coffee and drink it. By now your place in the march has long since passed, and you have to hurry to catch up. Of course, the other marching soldiers are tired, too, and aren’t too keen to move aside for you.</t>
   </si>
   <si>
-    <t>You decide not to break off for coffee. The walking wears heavily on you, but you manage to keep going. When you finally break camp for the night, your food is already cooked when the rest of your company finally catches up.</t>
-  </si>
-  <si>
     <t>The routine at this new camp is the same as the others, except with no time to go to town, as there is none nearby. Being on the front lines – near the enemy – means the soldiers are on edge.&lt;br/&gt;&lt;br/&gt;One night it finally happens. The long roll sounds, and all is chaos as everyone dashes to grab their weapons and form a defensive line.&lt;br/&gt;&lt;br/&gt;Then, from the darkness, you hear a sergeant’s voice yelling that everything is fine, it was only a pig that got loose in the camp and was mistaken for a rebel. Of course, no one got any more sleep that night.</t>
   </si>
   <si>
-    <t>The letter carrier arrives today. All the men swarm around the back of the mail wagon like pigs to the trough. &lt;br/&gt;&lt;br/&gt;As the mail carrier calls out names one by one, the men whose names are called yelp with excitement and accept their mail as if they were accepting their lottery winnings.&lt;br/&gt;&lt;br/&gt;After waiting pateintly, the letter carrier calls out, "last one!"&lt;br/&gt;&lt;br/&gt;You and the remaining soldiers lean in with anticipation. He calls out the addressee, and it's not you. Dejectedly, you head back to your tent.</t>
-  </si>
-  <si>
-    <t>The letter carrier arrives today. All the men swarm around the back of the mail wagon like pigs to the trough. &lt;br/&gt;&lt;br/&gt;As the mail carrier calls out names one by one, the men whose names are called yelp with excitement and accept their mail as if they were accepting their lottery winnings.&lt;br/&gt;&lt;br/&gt;Finally, he calls out your name, and you take your letter back to your tent to read it.</t>
-  </si>
-  <si>
-    <t>You open your letter from home and read it:&lt;br/&gt;&lt;br/&gt;“My dear Husband,&lt;br/&gt;&lt;br/&gt;It’s not the same here, either. We will not have too much trouble at harvest time, I think. The children and I will all have to work to gather the crops, but I hope we can manage.&lt;br/&gt;&lt;br/&gt;Little Wally found a stray the other day, so for now we have the additional company of Sir Bark the dog. He insists having his own dog is good, and they have become close, but I told him he would have to feed the animal if we kept it. He doesn’t seem to mind now, but I worry he’d forget.&lt;br/&gt;&lt;br/&gt;I miss you and wish you were home,&lt;br/&gt;&lt;br/&gt;[Wife’s name]”</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;(Needs to be changed to reflect factory background)&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;You open your letter from home and read it:&lt;br/&gt;&lt;br/&gt;“My dear Husband,&lt;br/&gt;&lt;br/&gt;It’s not the same here, either. We will not have too much trouble at harvest time, I think. The children and I will all have to work to gather the crops, but I hope we can manage.&lt;br/&gt;&lt;br/&gt;Little Wally found a stray the other day, so for now we have the additional company of Sir Bark the dog. He insists having his own dog is good, and they have become close, but I told him he would have to feed the animal if we kept it. He doesn’t seem to mind now, but I worry he’d forget.&lt;br/&gt;&lt;br/&gt;I miss you and wish you were home,&lt;br/&gt;&lt;br/&gt;[Wife’s name]”</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;(Needs to be changed to reflect mine background)&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;You open your letter from home and read it:&lt;br/&gt;&lt;br/&gt;“My dear Husband,&lt;br/&gt;&lt;br/&gt;It’s not the same here, either. We will not have too much trouble at harvest time, I think. The children and I will all have to work to gather the crops, but I hope we can manage.&lt;br/&gt;&lt;br/&gt;Little Wally found a stray the other day, so for now we have the additional company of Sir Bark the dog. He insists having his own dog is good, and they have become close, but I told him he would have to feed the animal if we kept it. He doesn’t seem to mind now, but I worry he’d forget.&lt;br/&gt;&lt;br/&gt;I miss you and wish you were home,&lt;br/&gt;&lt;br/&gt;[Wife’s name]”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today the orders finally came down to march to the enemy. You are marching in light marching-order, which means you only carry your musket, ammunition, haversack, and canteen. The march is much more strict, and on double-quick time. &lt;br/&gt;&lt;br/&gt;The air is tense and the faces of the soldiers grave as you begin forming a picket. </t>
-  </si>
-  <si>
-    <t>(Scene 51: The traveling merchant)&lt;br/&gt;&lt;br/&gt;(In which the camp is beset by a traveling salesman and his wares, and you decide to invest in one of his fine inventions)</t>
-  </si>
-  <si>
-    <t>The area around here is not what you had pictured as a battlefield before the war. The ground gently slopes forming uneven fields. Lonesome trees and small stands are here there poking up through the grass. The borders of the fields are variously thickets of small shrubs or thick forest.&lt;br/&gt;&lt;br/&gt;The march has been stop-and-go as streams are forded; wagons and caissons get stuck.&lt;br/&gt;&lt;br/&gt;You stop yet again. Many soldiers make themselves comfortable. As the minutes wear on, it becomes obvious that this is no ordinary stop. Soldiers ahead begin to march off sideways to form a battle line. The battery atop the hill can be seen scurrying around their guns, when all of a sudden they leap aside just in time for the cannon to emit a burst of bright smoke and with it a thunderous boom.&lt;br/&gt;&lt;br/&gt;The war music is playing now, and you see the brigade commander talking to your staff officer. The men are already on their feet when the staff officer approaches with the orders.&lt;br/&gt;&lt;br/&gt;You march into position and receive the order to load-at-will… Shortly thereafter is the order to fire.&lt;br/&lt;br/&gt;In the heat of the battle, the formerly organized defensive line is forgotten, and soldiers are crouching behind any cover they can find – trees, ditches, even fence rails. They all still maintain a general grouping around their regimental colors, however.</t>
-  </si>
-  <si>
-    <t>The battling is fierce, minnie balls squealing past overhead and thudding as they embed into trees or softly gasping as they burrow into the ground.&lt;br/&gt;&lt;br/&gt;Suddenly, the order is given to “dress on colors”, and – those men that can – form up on the colors in preparation for a charge. &lt;br/&gt;&lt;br/&gt;The soldiers put on their most intimidating grimace as the charge begins. All semblance of formation is lost as the men are consumed with battle fury – whooping and hollering as they go.&lt;br/&gt;&lt;br/&gt;The yelling serves to lift the heart out of fear, but also to strike the same into the enemy. The helter-skelter crowd races towards the enemy, whose location is evidenced only by the plume of smoke at the opposite end of the field. The whizzing of bullets can still be heard, and every now and then so can a grunt and a thud, as a man is injured and falls.&lt;br/&gt;&lt;br/&gt;Screaming now almost as much with fear as with fury, you raise your bayonet in preparation for plunging into the enemy ranks, but as you crest the ridge, there is no one to be seen. Farther down the line, there is an abandoned battery of six guns being cautiously examined by some other men.&lt;br/&gt;&lt;br/&gt;Some other soldiers are now hollering “we won!” and cheering. Shortly, the general himself appears and compliments you and your company for capturing a battery of artillery.</t>
-  </si>
-  <si>
     <t>Evidently the enemy is very interested in the specific plot of ground which you yourself are occupying, because your company scarcely looses a volley before the enemy’s retort is returned – by cannon-fire.&lt;br/&gt;&lt;br/&gt;The approaching shells are given away by a distinctive and unnerving whistling, but by the time it is apparent those shells are aimed at you, there is but a scant moment to react.&lt;br/&gt;&lt;br/&gt;One round screams into your midst, and makes a deafening rumble as it is embedded into the earth behind you. Turning, you see a pile of what must have been a man a moment ago that is now being dusted by a shower of earth.&lt;br/&gt;&lt;br/&gt;Another shell hits a tree nearby, sending a cloud of splinters towards some of the soldiers.</t>
   </si>
   <si>
     <t>This goes on for what seems to you to be days, although it can’t have been, since the sun never set. Your hands and face are black with powder, your throat hoarse from smoke and yelling, but you realize that you haven’t heard a cannon shot in a while.&lt;br/&gt;&lt;br/&gt;Gradually, the crack of gunpowder from across the field dies down and – cautiously – the men stand up to get a better view. There doesn’t seem to be any sign of the enemy, and one soldier points farther down the field to a group of friendly soldiers on the other side of the field. &lt;br/&gt;&lt;br/&gt;It seems the battle has been won after all.</t>
   </si>
   <si>
-    <t>This seems to go on for a long time, but in truth it couldn’t have lasted more than a single hour before you feel a searing pain in your arm. Clutching at the pain, you feel moist cloth, and withdraw a red-stained hand. &lt;br/&gt;&lt;br/&gt;You try to roll over, and find that neither can you move your left arm, nor is its newfound degree of freedom very pleasant.&lt;br/&gt;&lt;br/&gt;Yelling for help, you are largely ignored or told to be quiet and wait for the stretcher-bearers.&lt;br/&gt;&lt;br/&gt;The shouting, booming, and crackling of musket-fire blend together as you struggle to stay awake, when you become aware of someone talking to you.&lt;br/&gt;&lt;br/&gt;“— you stand up?”&lt;br/&gt;&lt;br/&gt;You confirm. The tourniquet they put around your arm is extremely tight, but at least it’s a distraction. The medics made a sling for you from part of your uniform, and help you on your feet.&lt;br/&gt;&lt;br/&gt;The soldiers are expressionless as they collect the wounded, who shamble or are carried to an ambulance wagon. The stretchers take a lot of space in the wagons, and some of the less wounded must cling to the steps of the wagons while in motion. It’s a bumpy ride, but pain keeps the noise to a low groan.</t>
-  </si>
-  <si>
-    <t>The men are all aglow with pride and flush with relief from surviving the battle on the march back to camp. &lt;br/&gt;&lt;br/&gt;Soldiers all around are boasting of great feats of bravery and grace – making a strongman pose to mimic standing up to taunt the enemy, cartwheels to dodge enemy musket balls at the last moment, and more. &lt;br/&gt;&lt;br/&gt;Whether all of these tales are true can’t be gleaned from the faces of the exuberant men. A more boisterous and chummy crowd could not have been found leaving any party.</t>
-  </si>
-  <si>
-    <t>The ambulance wagon stops in front of the field hospital, back at camp.&lt;br/&gt;&lt;br/&gt;The first thing you notice when stepping inside is the odor: the smell of fresh blood and pus. Here too there hangs in the air a painful absence of screaming. Whether this is due more to pain, fear, or anesthetic is unknowable.&lt;br/&gt;&lt;br/&gt;Before taking a seat, a convalescent hands you a cup of liquor, “to help you calm down,” he says.&lt;br/&gt;&lt;br/&gt;When the surgeon finally reaches you, the prescription is a foregone conclusion: amputation. You are given an inhaler of chloroform, a curious device the size of a deck of cards with two tubes poking out, one for air to go in, one for air to go out. Breathing through the device, you begin to feel drowsy, but still awake.&lt;br/&gt;&lt;br/&gt;After moving you to the operating table, the surgeon begins poking the wound with his fingers to find debris and fragments of bullet, and once satisfied begins the procedure.&lt;br/&gt;&lt;br/&gt;By the end, there is a moist bandage wrapped around your foreshortened limb and a new arm on the pile.</t>
-  </si>
-  <si>
     <t>The assistant surgeon informs you that since you are well enough to stand, it is now your duty to help out around the hospital tent.&lt;br/&gt;&lt;br/&gt;You still have two good legs, unlike some of the others around here, so you can get around without a crutch, and carry food and water to the other patients with your remaining good arm.&lt;br/&gt;&lt;br/&gt;After a few weeks, you are removed from the field hospital and sent by train to a general hospital, where you are found to be fit to leave and discharged. With your disability, the army wants nothing to do with you anymore.</t>
   </si>
   <si>
-    <t>You survived the war, but left your arm behind.&lt;br/&gt;&lt;br/&gt;(Here goes statistics about loss of limb)</t>
-  </si>
-  <si>
-    <t>You survived the war, but left your leg behind.&lt;br/&gt;&lt;br/&gt;(Here goes statistics about loss of limb)</t>
-  </si>
-  <si>
-    <t>You did not survive the war.&lt;br/&gt;&lt;br/&gt;(Here goes statistics)</t>
-  </si>
-  <si>
-    <t>You were wounded and operated on, but complications and infection did you in. You did not survive the war.&lt;br/&gt;&lt;br/&gt;(Here goes statistics)</t>
-  </si>
-  <si>
-    <t>You survived your first battle.&lt;br/&gt;&lt;br/&gt;(a shorter story like this is better, no?)&lt;br/&gt;&lt;br/&gt;(Here can go statistics such as survival rate)</t>
-  </si>
-  <si>
-    <t>This is a sample decision node. Choose your path on the right.</t>
-  </si>
-  <si>
-    <t>This is a sample random node. When branching, a random path is picked, and only a single button is shown to the user.</t>
-  </si>
-  <si>
-    <t>Path A was chosen for you.</t>
-  </si>
-  <si>
-    <t>Path B was chosen for you.</t>
-  </si>
-  <si>
-    <t>This is a sample conditional page. The branches before this slide have merged, but decisions or random outcomes may still have an effect on future branches.
-If the random page picked Path A, the button on this page will take you to the ending. 
-If Path B, it will take you back to the random page.</t>
-  </si>
-  <si>
-    <t>You survived!</t>
-  </si>
-  <si>
-    <t>Something went wrong with the logic of the story.</t>
-  </si>
-  <si>
     <t>titleslide.png</t>
   </si>
   <si>
@@ -1768,45 +1553,27 @@
     <t>Culpeper, Va. Brig. Gen. Henry Prince of the 2d Division, 3d Corps, and staff. 1863 September. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03983 DLC.</t>
   </si>
   <si>
-    <t>(number or percentage, if we can find one.)</t>
-  </si>
-  <si>
     <t>Later in the war, when the need for man power was more dire, doctors checked for &lt;i&gt;unfitness&lt;/i&gt; rather than fitness for duty.</t>
   </si>
   <si>
-    <t>Earlier in the war, when the it was though it could not last this long, doctors were more selective, and checked for &lt;i&gt;fitness&lt;/i&gt; rather than unfitness for duty.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Long Roll&lt;/b&gt; -- a kind of drumming used as an alarm.</t>
   </si>
   <si>
-    <t>This box may contain definitions or instructions. If no text would appear in the box, it becomes invisible.</t>
-  </si>
-  <si>
     <t>random</t>
   </si>
   <si>
     <t>conditional</t>
   </si>
   <si>
-    <t>playpoker</t>
-  </si>
-  <si>
     <t>background</t>
   </si>
   <si>
-    <t>POKEROUTCOME</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>farm</t>
   </si>
   <si>
-    <t>WIN</t>
-  </si>
-  <si>
     <t>Union</t>
   </si>
   <si>
@@ -1816,30 +1583,15 @@
     <t>Enlist</t>
   </si>
   <si>
-    <t>Show up for the draft</t>
-  </si>
-  <si>
     <t>Play a hand</t>
   </si>
   <si>
     <t>Stop for coffee</t>
   </si>
   <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Play cards</t>
-  </si>
-  <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>poker</t>
   </si>
   <si>
-    <t>POKER</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -1849,48 +1601,24 @@
     <t>stopped</t>
   </si>
   <si>
-    <t>PLAYED</t>
-  </si>
-  <si>
     <t>factory</t>
   </si>
   <si>
-    <t>LOSE</t>
-  </si>
-  <si>
     <t>Confederate</t>
   </si>
   <si>
-    <t>Downtown Factory</t>
-  </si>
-  <si>
     <t>Slave</t>
   </si>
   <si>
-    <t>Stay home</t>
-  </si>
-  <si>
-    <t>Resist</t>
-  </si>
-  <si>
     <t>Do Not Enlist</t>
   </si>
   <si>
-    <t>Purchase exemption</t>
-  </si>
-  <si>
     <t>Don't play</t>
   </si>
   <si>
     <t>Keep marching</t>
   </si>
   <si>
-    <t>Don't Purchase</t>
-  </si>
-  <si>
-    <t>Don't play cards</t>
-  </si>
-  <si>
     <t>slave</t>
   </si>
   <si>
@@ -1906,9 +1634,6 @@
     <t>Western Mine</t>
   </si>
   <si>
-    <t>Hire replacement</t>
-  </si>
-  <si>
     <t>Free Black</t>
   </si>
   <si>
@@ -1925,13 +1650,613 @@
   </si>
   <si>
     <t>This file allows editing the Soldier's Story application's content. Each slide is represented by a row in the table below. The table can be sorted and filtered to help find a specific slide using the drop-down menus for each column. For specific instructions pertaining to each column, check the comment box that appears when hovering over the column heading. Typing directly below the table automatically adds a new row. To export, right-click somewhere in the table, then click XML &gt; Export...</t>
+  </si>
+  <si>
+    <t>The two RED columns contain all the text (except button labels) that is a part of the story itself. Certain columns can and should be left blank (particularly the far-right).</t>
+  </si>
+  <si>
+    <t>At the very least, it has been an exciting few years since moving out west to work in the mines. You, your family, and all the other miners and their families live in rough plank sheds down the hill from the mine. You and your wife, who emigrated to America with you six years ago, have three children. It would be hard enough to feed them without the scarcity of food and water out here.&lt;br/&gt;&lt;br/&gt;Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, since you wouldn't earn that much more as a soldier, but everyone else seems so enthused about enlisting, and there has been talk about the mines drying up soon. If you were a soldier, you wouldn't have to deal with cramped tunnels, cave-ins, or pools of scalding hot water, but of course you might be shot. And true, going off to war would mean leaving your wife and children alone, but soldiering could be a steady job... if you survive.</t>
+  </si>
+  <si>
+    <t>At the time of the Civil War, the &lt;a href="http://en.wikipedia.org/wiki/California_Gold_Rush"&gt;California Gold Rush&lt;/a&gt; had already deeply affected American culture, and more recently, the &lt;a href="http://en.wikipedia.org/wiki/Comstock_Lode"&gt;Comstock Lode&lt;/a&gt; was drawing men, women and their families out west again. But the more gold or silver was pulled out of the ground, the deeper they had to dig to find more.</t>
+  </si>
+  <si>
+    <t>In November of 1860, Abraham Lincoln is elected President of the United States. The next month, the southern states begin to secede. In March of 1861, President Lincoln takes office and delivers his &lt;a href="http://www.bartleby.com/124/pres31.html"&gt;First Inaugural Address&lt;/a&gt;, which asserts his intention to preserve the union by compromise.&lt;br/&gt;&lt;br/&gt;One month later, however, Fort Sumter is besieged by Confederates, and taken. Lincoln calls for 75,000 men to preserve the Union, but his call to arms galvanizes the Border States. A handful more of them secede and war is begun.</t>
+  </si>
+  <si>
+    <t>hometown-cfarm</t>
+  </si>
+  <si>
+    <t>hometown-slave</t>
+  </si>
+  <si>
+    <t>Life for you here in your hometown is not too easy. Living in an apartment within the city limits, you work at a mill on the river's edge. You and your wife, with whom you have been married only around five years, have two children, and another on the way. Feeding your growing family is hard on a laborer's wage.&lt;br/&gt;&lt;br/&gt;Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy some new clothes for your oldest. Of course, going off to war would mean leaving your wife and children alone, but a soldier is paid more than a millworker...</t>
+  </si>
+  <si>
+    <t>In the late 19th century, industrial plants were more commonly referred to as "mills" than "factories".</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>never-fought</t>
+  </si>
+  <si>
+    <t>equip-union</t>
+  </si>
+  <si>
+    <t>equip-confederate</t>
+  </si>
+  <si>
+    <t>Earlier in the war, when the it was thought it could not last this long, doctors were more selective, and checked for &lt;i&gt;fitness&lt;/i&gt; rather than unfitness for duty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonight, some of the fellows are gathering to play cards by candlelight. The officers say gambling isn’t allowed, but there will probably be stakes anyway. They offer you to join in their poker game. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living in the camps is harder than you expected. Up at dawn, roll call, wash, marching drills, then breakfast. More drilling – and any work that needs to be done before dinner at noon. The afternoon is a brief respite to go into town. Then target practice, more drilling, tent inspection, and finally evening parade at half past five. Then the moon rises, and until ten the camp is aglow with candle- and fire-light. </t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>dinner-union</t>
+  </si>
+  <si>
+    <t>dinner-confederate</t>
+  </si>
+  <si>
+    <t>buy-vest</t>
+  </si>
+  <si>
+    <t>buy-filter</t>
+  </si>
+  <si>
+    <t>poker-playing</t>
+  </si>
+  <si>
+    <t>poker-win</t>
+  </si>
+  <si>
+    <t>poker-lose</t>
+  </si>
+  <si>
+    <t>writingletter</t>
+  </si>
+  <si>
+    <t>coffee-stopped</t>
+  </si>
+  <si>
+    <t>coffee-walked</t>
+  </si>
+  <si>
+    <t>burdened</t>
+  </si>
+  <si>
+    <t>burden-drop</t>
+  </si>
+  <si>
+    <t>burden-kept</t>
+  </si>
+  <si>
+    <t>earlycamp</t>
+  </si>
+  <si>
+    <t>latecamp</t>
+  </si>
+  <si>
+    <t>marching-water</t>
+  </si>
+  <si>
+    <t>marching-rest</t>
+  </si>
+  <si>
+    <t>marching-stop</t>
+  </si>
+  <si>
+    <t>march-doublequick</t>
+  </si>
+  <si>
+    <t>fire-at-will</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>pinned</t>
+  </si>
+  <si>
+    <t>pinned-survive</t>
+  </si>
+  <si>
+    <t>pinned-injured</t>
+  </si>
+  <si>
+    <t>pinned-retreat</t>
+  </si>
+  <si>
+    <t>march-victory</t>
+  </si>
+  <si>
+    <t>ambulance</t>
+  </si>
+  <si>
+    <t>surgery-arm</t>
+  </si>
+  <si>
+    <t>surgery-leg</t>
+  </si>
+  <si>
+    <t>charge-rout</t>
+  </si>
+  <si>
+    <t>charge-shot</t>
+  </si>
+  <si>
+    <t>kia</t>
+  </si>
+  <si>
+    <t>march-defeat</t>
+  </si>
+  <si>
+    <t>A Soldier's Story</t>
+  </si>
+  <si>
+    <t>It is a misconception that the war was fought by the North to end slavery. The abolitionists called for an end to slavery, but Lincoln did not make ending slavery a condition of ending the war until the &lt;a href="http://www.archives.gov/exhibits/featured_documents/emancipation_proclamation/"&gt;Emancipation Proclamation&lt;/a&gt; of 1863.</t>
+  </si>
+  <si>
+    <t>You play a hand. Then another – and another. The stakes are getting higher and higher until The bet is no less than four months pay. You have a decent hand, but you can’t tell if someone else has a better one. You might as well go all in at this point, there’s nothing more to lose.</t>
+  </si>
+  <si>
+    <t>Today a recruitment rally is being held downtown. Everyone is taking the day off to see the band from the big city play. &lt;br/&gt;&lt;br/&gt;The band plays a selection of pieces so stirring that you can't help but imagine a battalion of troops marching in strict formation towards battle, bayonet-tipped muskets pointed sharply to the heavens, steeling themselves for battle. It almost brings a tear to your eye to think of the bravery and valor of the men in the army now, fighting for the cause. &lt;br/&gt;&lt;br/&gt;Several men have walked up to the stage and are signing the enlistment roll now.</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>Sometime today, a traveling merchant wandered into the camp. The fellows are all gathered around the back of his wagon where his goods are on display. &lt;br/&gt;&lt;br/&gt;When you are closer, you hear him talking about an "amazing water filterer" that, he claims, can filter and make safe even the dirtiest of water. It seems to be a rubber tube with a mouthpiece at one end and a cone-shaped, porous stone at the other end. "Just put the water you want to drink in your canteen," he says, "and put this end in with it, then drink from here!". &lt;br/&gt;&lt;br/&gt;Next he pulls out (with some effort) what appear to be a vest with metal plates stitched into the front of it. "This," he begins, "is no less than a bullet-proof vest!" There is a murmur of mixed excitement and disbelief from the crowd. "Wearing this," he continues, "you cannot be hurt by musket balls!" You wonder about what would happen if it was shot by a musket ball, but he assures the crowd that anyone wearing the vest would be safe. &lt;br/&gt;&lt;br/&gt;It is getting later now and a few soldiers are haggling with the merchant, but others are going off to make use of the little free time left.</t>
+  </si>
+  <si>
+    <t>You approach the merchant and ask to see the bullet-proof vest. Holding it in your hands, it is quite heavy. You tell the merchant you are interested in purchasing the vest. He asks $50 for it.  A steep price -- more than four months worth of pay -- but if it saves your life, it's worth it, right?</t>
+  </si>
+  <si>
+    <t>You approach the merchant and ask to see the water filterer. Holding it in your hands, it is quite a simple device indeed. You tell the merchant you are interested in purchasing the device. He asks $8 for it.  It is quite expensive, at more than a half months pay, but it should more than make up for it when you are thirsty on the road, right?</t>
+  </si>
+  <si>
+    <t>For marches where the soldiers needed to bring all of their possessions, they were given three hours notice. For marches where they would return to the camp later, they were given an hour or even a half-hour notice.</t>
+  </si>
+  <si>
+    <t>The order has come down to march to a new campsite in three hours time. You and your company pack up your possessions and then the tent, and begin marching. &lt;br/&gt;&lt;br/&gt;The marching is hard work, since you are carrying all of your gear. In the middle of the day, there is a break to eat. As the day wears on, what was once strict formation is now merely a ramshackle crowd of soldiers stumbling down the road.</t>
+  </si>
+  <si>
+    <t>During the marching, many soldiers have become weary and are stopping to build fires on the side of the road and cook coffee.</t>
+  </si>
+  <si>
+    <t>The walking tires you out faster than the other soldiers because you are carrying the metal vest you purchased from the merchant. In fact, it wouldn't fit in your sack, so you decided to wear it while walking. The weight and stiffness of the metal makes walking difficult and makes your skin and uniform clammy. You've already dropped a few rows (such as they are) backwards in the march. At this rate, you wonder if you'll even make it to camp.</t>
+  </si>
+  <si>
+    <t>You waddle over to the side of the road with as much dignity as you can muster. Laying down your sack, you unbutton the vest and pull it off. Reluctantly, you drop it on the ground, hoist your sack again, and continue marching, relieved of a heavy burden.</t>
+  </si>
+  <si>
+    <t>It's hard to walk, but you just can't bear to part with the vest you paid so dearly for. It might save your life, after all! &lt;br/&gt;&lt;br/&gt; Walking is very difficult, and the stiffness of the vest makes you gait undignified and not unlike a waddle. Gradually, the rest of the soldiers pull ahead of you until it is only you and a few other stragglers on the road.</t>
+  </si>
+  <si>
+    <t>The new recruits are told to line up to meet the quartermaster. After waiting in line for a while, chatting with the other soldiers, you are finally called in to the warehouse to see the quartermaster. He walks you past stacks of goods, picking up one from each and handing them to you: haversack, canteen, knapsack, blanket, tent fly, Enfield rifled-musket, and catridge box. He makes some marks on a piece of paper, and sends you out.</t>
+  </si>
+  <si>
+    <t>The new recruits are told to line up to meet the quartermaster. After waiting in line for a while, chatting with the other soldiers, you are finally called in to the warehouse to see the quartermaster. He walks you past stacks of goods, picking up one from each and handing them to you: haversack, canteen, knapsack, blanket, tent fly, Springfield rifled-musket, and catridge box. He makes some marks on a piece of paper, and sends you out.</t>
+  </si>
+  <si>
+    <t>Catridges for the Springfield rifle were not the same as they are today. They consisted of a bullet and premeasured power wrapped in cloth, which was opened and poured into the barrel of the musket.</t>
+  </si>
+  <si>
+    <t>Later in the day, the soldiers make their way to the commisary depot, where rations are being handed out. Once everyone has their food, the soldiers begin breaking off into groups to share cooking fires. Within your group, there is a man who everyone agrees is the best cook, so they all let him cook their meals in exchange for small favors here and there. In some other groups, you can see people cooking for themselves. Having never really tried your hand at cooking, you decide to let the group's cook handle your food.</t>
+  </si>
+  <si>
+    <t>Both sides struggled to sustain their troops. Between the lack of refrigeration and lack of nutrion, soldiers' diets were not exactly healthy.</t>
+  </si>
+  <si>
+    <t>Dinner tonight is typical, the other soldiers say: salt beef, rice, and beans. On the side is a biscuit the soldiers call a hardtack, because of the stiffness of the bread. To drink there is tea. It's certainly not as appetizing as a homecooked meal, but you didn't join up for the food, did you?</t>
+  </si>
+  <si>
+    <t>Dinner tonight is typical, the other soldiers say: salt pork, cornmeal, and beans. On the side is a small, soft biscuit. To drink there is tea. It's certainly not as appetizing as a homecooked meal, but you didn't join up for the food, did you?</t>
+  </si>
+  <si>
+    <t>The Confederacy had trouble supplying food to its soldiers. Between the lack of an organized commisary and the trade embargo, soldiers typically had to make do with less.</t>
+  </si>
+  <si>
+    <t>The letter carrier arrives today. All the men swarm around the back of the mail wagon like pigs to the trough. &lt;br/&gt;&lt;br/&gt;As the mail carrier calls out names one by one, the men whose names are called yelp with excitement and accept their mail as if they were accepting their lottery winnings.</t>
+  </si>
+  <si>
+    <t>Finally, he calls out your name, and you take your letter back to your tent to read it.</t>
+  </si>
+  <si>
+    <t>After waiting pateintly, the letter carrier calls out, "last one!"&lt;br/&gt;&lt;br/&gt;You and the remaining soldiers lean in with anticipation. He calls out the addressee, and it's not you. Dejectedly, you head back to your tent.</t>
+  </si>
+  <si>
+    <t>letter-farm</t>
+  </si>
+  <si>
+    <t>letter-mine</t>
+  </si>
+  <si>
+    <t>letter-factory</t>
+  </si>
+  <si>
+    <t>You survived your first battle, and your army was victorious! Despite the enormous death toll, soldiers were still more likely to survive than not, but that fact barely makes up for the harsh quality of life for Civil War soldiers.</t>
+  </si>
+  <si>
+    <t>You survived your first battle, but your army was defeated! Despite the enormous death toll, soldiers were still more likely to survive than not, but that fact barely makes up for the harsh quality of life for Civil War soldiers.</t>
+  </si>
+  <si>
+    <t>The men are sullen and mostly on the march back to camp. &lt;br/&gt;&lt;br/&gt;Every so often, a soldier will let out a long sigh, or curse under their breath. The others around him barely notice. &lt;br/&gt;&lt;br/&gt;Everyone is either ashamed of the defeat, mourning a friend, or simply in shock.</t>
+  </si>
+  <si>
+    <t>The men are all aglow with pride and flush with relief from surviving the battle on the march back to camp. &lt;br/&gt;&lt;br/&gt;Soldiers all around are boasting of great feats of bravery and grace – making a strongman pose to mimic standing up to taunt the enemy, cartwheels to dodge enemy musket balls at the last moment, and more. &lt;br/&gt;&lt;br/&gt;Whether all of these tales are true can’t be gleaned from the faces of the exuberant men. Perhaps it is the shock that makes it easier to ignore the deaths, yet every so often, someone calls out for a friend to listen to their story, only to be met with silence, before another soldier steps in to lighten the mood again.</t>
+  </si>
+  <si>
+    <t>Screaming now almost as much with fear as with fury, you raise your bayonet in preparation for plunging into the enemy ranks, but as you crest the ridge, there is no one to be seen. Farther down the line, there is an abandoned battery of six guns being cautiously examined by some other men.&lt;br/&gt;&lt;br/&gt;Some other soldiers are now hollering “we won!” and cheering. Shortly, the general himself appears and compliments you and your company for capturing a battery of artillery.</t>
+  </si>
+  <si>
+    <t>The battling is fierce, minnie balls squealing past overhead and thudding as they embed into trees or softly gasping as they burrow into the ground.&lt;br/&gt;&lt;br/&gt;Suddenly, the order is given to “dress on colors”, and – those men that can – form up on the colors in preparation for a charge. &lt;br/&gt;&lt;br/&gt;The soldiers put on their most intimidating grimace as the charge begins. All semblance of formation is lost as the men are consumed with battle fury – whooping and hollering as they go.&lt;br/&gt;&lt;br/&gt;The yelling serves to lift the heart out of fear, but also to strike the same into the enemy. The helter-skelter crowd races towards the enemy, whose location is evidenced only by the plume of smoke at the opposite end of the field. The whizzing of bullets can still be heard, and every now and then so can a grunt and a thud, as a man is injured and falls.</t>
+  </si>
+  <si>
+    <t>The shouting, booming, and crackling of musket-fire blend together as you struggle to stay awake, when you become aware of someone talking to you.&lt;br/&gt;&lt;br/&gt;“— you stand up?”&lt;br/&gt;&lt;br/&gt;You confirm. The tourniquet they put around your arm is extremely tight, but at least it’s a distraction. The medics made a sling for you from part of your uniform, and help you on your feet.&lt;br/&gt;&lt;br/&gt;The soldiers are expressionless as they collect the wounded, who shamble or are carried to an ambulance wagon. The stretchers take a lot of space in the wagons, and some of the less wounded must cling to the steps of the wagons while in motion. It’s a bumpy ride, but pain keeps the noise to a low groan.</t>
+  </si>
+  <si>
+    <t>This seems to go on for a long time, but in truth it couldn’t have lasted more than a single hour before you feel a searing pain in your arm. Clutching at the pain, you feel moist cloth, and withdraw a red-stained hand. &lt;br/&gt;&lt;br/&gt;You try to roll over, and find that neither can you move your left arm, nor is its newfound degree of freedom very pleasant.&lt;br/&gt;&lt;br/&gt;Yelling for help, you are largely ignored or told to be quiet and wait for the stretcher-bearers.</t>
+  </si>
+  <si>
+    <t>You did not survive the war, but at least you died honorably, on the field of battle. As a soldier, you were far more likely to die from disease or infection than to die immediately after being shot or stabbed.</t>
+  </si>
+  <si>
+    <t>When the surgeon finally reaches you, the prescription is a foregone conclusion: amputation. You are given an inhaler of chloroform, a curious device the size of a deck of cards with two tubes poking out, one for air to go in, one for air to go out. Breathing through the device, you begin to feel drowsy, but still awake.&lt;br/&gt;&lt;br/&gt;After moving you to the operating table, the surgeon begins poking the wound with his fingers to find debris and fragments of bullet, and once satisfied begins the procedure.&lt;br/&gt;&lt;br/&gt;By the end, there is a moist bandage wrapped around your foreshortened limb and a new arm on the pile.</t>
+  </si>
+  <si>
+    <t>The ambulance wagon stops in front of the field hospital, back at camp.&lt;br/&gt;&lt;br/&gt;The first thing you notice when stepping inside is the odor: the smell of fresh blood and pus. Here too there hangs in the air a painful absence of screaming. Whether this is due more to pain, fear, or anesthetic is unknowable.&lt;br/&gt;&lt;br/&gt;Before taking a seat, a convalescent hands you a cup of liquor, “to help you calm down,” he says.</t>
+  </si>
+  <si>
+    <t>Bayonet charges were common, but hand to hand combat was not. More often, the enemy would retreat rather than engage.</t>
+  </si>
+  <si>
+    <t>Grapeshot -- many small rounds wedged between two metal plates that are loaded into field artillery instead of one large round.</t>
+  </si>
+  <si>
+    <t>Screaming now almost as much with fear as with fury, you raise your bayonet in preparation for plunging into the enemy ranks, but as you crest the ridge, you hear a familiar sound. Your eyes are drawn to its source: an artillery piece's muzzle flash from the left side of the enemies' ranks. &lt;br/&gt;&lt;br/&gt;Less than a second later, your ranks are met with grapeshot as they whiz through the air, burrow through the men, and come to rest in small puffs of dirt. You feel something hit your leg, and you collapse forward. Shocked and in pain, you lay still as the rest of the soldiers charge past.</t>
+  </si>
+  <si>
+    <t>This goes on for what seems to you to be days, although it can’t have been, since the sun never set. Your hands and face are black with powder, your throat hoarse from smoke and yelling. You and the other soldiers are running low on ammunition and morale. &lt;br/&gt;&lt;br/&gt;Abruptly, the crack of gunfire from the enemy ranks ceases. Hesitantly, one of the soldiers peeks out from behind his cover, gasps, and stands up to run away. Peering around the corner, you see why: the enemy has regrouped and has begun to charge, whooping and hollering, bayonets aimed at you.&lt;br/&gt;&lt;br/&gt;Just then, an officer rides up on his horse, yelling "retreat!" The soldiers don't need to be told twice.</t>
+  </si>
+  <si>
+    <t>When the surgeon finally reaches you, the prescription is a foregone conclusion: amputation. You are given an inhaler of chloroform, a curious device the size of a deck of cards with two tubes poking out, one for air to go in, one for air to go out. Breathing through the device, you begin to feel drowsy, but still awake.&lt;br/&gt;&lt;br/&gt;After moving you to the operating table, the surgeon begins poking the wound with his fingers to find debris and fragments of bullet, and once satisfied begins the procedure.&lt;br/&gt;&lt;br/&gt;By the end, there is a moist bandage wrapped around your foreshortened limb and a new leg on the pile.</t>
+  </si>
+  <si>
+    <t>convalescent-arm</t>
+  </si>
+  <si>
+    <t>convalescent-leg</t>
+  </si>
+  <si>
+    <t>The assistant surgeon informs you that since you are still able to carry things, it is now your duty to help out around the hospital tent.&lt;br/&gt;&lt;br/&gt;You still have two good arms, unlike some of the others around here, so eve though you need a crutch, you can carry or hold heavier things.&lt;br/&gt;&lt;br/&gt;After a few weeks, you are removed from the field hospital and sent by train to a general hospital, where you are found to be fit to leave and discharged. With your disability, the army wants nothing to do with you anymore.</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>It was believed that excessive pus was a sign of healing -- we know today it is in fact a sign of infection.</t>
+  </si>
+  <si>
+    <t>After the surgery, you stay in bed for a few days recovering. The stump where your amputated limb used to be begins to bloat and discolor with pus under the skin. The doctor says this is healthy and a sign your body is healing.&lt;br/&gt;&lt;br/&gt;Each day you feel weaker and weaker, until you are so weak you can't feed yourself. Eventually, you can't even eat the food that is fed to you. The doctor can't do anything more for you.</t>
+  </si>
+  <si>
+    <t>You were wounded and operated on, but complications and infection did you in. You did not survive the war.&lt;br/&gt;&lt;br/&gt;This was a common death for soldiers of the Civil War. Their weapons rarely killed outright, but often caused maiming wounds. These wounds almost always became infected because of the lack of sanitation and the primitive healthcare. And these infections often killed the infected, because at that point there were no treatments, if the infection was even recognized.</t>
+  </si>
+  <si>
+    <t>You survived the war, but left your arm behind.&lt;br/&gt;&lt;br/&gt;The weapons used during the Civil War were primitive by today's standards. They did not kill efficiently -- they caused horrible, maiming injuries that often required amuptation.</t>
+  </si>
+  <si>
+    <t>You survived the war, but left your leg behind.&lt;br/&gt;&lt;br/&gt;The weapons used during the Civil War were primitive by today's standards. They did not kill efficiently -- they caused horrible, maiming injuries that often required amuptation.</t>
+  </si>
+  <si>
+    <t>The shouting, booming, and crackling of musket-fire blend together as you struggle to stay awake, fading together into a hazy noise. Your eyes are closed. Your last thought is of home, and the people you left behind, before everything goes dark.</t>
+  </si>
+  <si>
+    <t>Seeing no other option than to enlist, you sign the recruitment roll.&lt;br/&gt;&lt;br/&gt;You are given an appointment with the town doctor, who checks to see if you aren't fit for duty. He has you take off your clothes and performs a thorough examination. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
+  </si>
+  <si>
+    <t>Having no shortage of patriotism yourself, you find a group of like-minded men and agree to form a company with them.&lt;br/&gt;&lt;br/&gt;Meeting at the town hall, you sign the recruitment roll. Then, you are given an appointment with the town doctor, who checks to see if you are fit for duty. He has you take off your clothes and do jumping jacks, bend over, and delivers a pair of sound whacks to the stomach and back. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
+  </si>
+  <si>
+    <t>Today there is a knock at the door. The man on the other side informs you that you have been drafted and must report to the town hall after settling your personal affairs. He hands you a notice, bids you farewell, and walks off, no doubt to deliver his next conscription notice. &lt;br/&gt;&lt;br/&gt;You have heard of others avoiding the draft in the past, but you're not sure how well it worked for them, or even whether they were telling the truth, however.</t>
+  </si>
+  <si>
+    <t>The draft was of course universally disliked. Only the poor or misfortunate could not in some way avoid it.</t>
+  </si>
+  <si>
+    <t>substitute-failed</t>
+  </si>
+  <si>
+    <t>Early in the draft, a commutation fee of $300 could be paid, but this was revoked when the need for manpower became even more dire.</t>
+  </si>
+  <si>
+    <t>As you approach, you annouce that you are looking for a substitute. There are three men, who each say something to the effect of "what's your offer?" &lt;br/&gt;&lt;br/&gt;Having only gathered $500, you hope that one of them will help you. None of them will help you for less than $550.&lt;br/&gt;&lt;br/&gt;You have a sinking feeling as your mind reels, until you remember the old heirloom you keep in the corner. You rush home to sell it, and when you do, have enough to hire the subsititute.</t>
+  </si>
+  <si>
+    <t>As you approach, you annouce that you are looking for a substitute. There are three men, who each say something to the effect of "what's your offer?" &lt;br/&gt;&lt;br/&gt;Having only gathered $500, you hope that one of them will help you. None of them will help you for less than $550.&lt;br/&gt;&lt;br/&gt;You have a sinking feeling as your mind reels, trying to think of some way to get a little more money. You go home, sell more trinkets, but it still doesn't add up to enough.</t>
+  </si>
+  <si>
+    <t>Blacks in the North could be freed slaves, or born free in the North.</t>
+  </si>
+  <si>
+    <t>emancipation</t>
+  </si>
+  <si>
+    <t>Much later, you hear the good news: the president has issued the Emancipation Proclamation, which frees all of the slaves in the Confederacy! As well, this makes the abolition of slavery a goal of the war, in addition to reunification. &lt;br/&gt;&lt;br/&gt;Once again enthusiastic about fighting for such a noble and important cause, you decide to try to enlist again. Sure enough, the recruiters are now accepting black soldiers. It's time to fight for your rights.</t>
+  </si>
+  <si>
+    <t>Deciding to enlist, you sign the recruitment roll.&lt;br/&gt;&lt;br/&gt;You are given an appointment with the town doctor, who checks to see if you are fit for duty. He has you take off your clothes and do jumping jacks, bend over, and delivers a pair of sound whacks to the stomach and back. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
+  </si>
+  <si>
+    <t>You decide not to break off for coffee. The walking wears heavily on you, but you manage to keep going.</t>
+  </si>
+  <si>
+    <t>After diligently marching and keeping pace with the group, the march finally ends. You are tired, but you set up your tent and gather wood for a fire. There is plenty of time to cook food and eat it as the stragglers limp into camp.</t>
+  </si>
+  <si>
+    <t>You never caught up to your place in the march. When you reach the camp site, the fires are already burning and the soldiers that didn’t slow down are already eating a hot meal. Luckily, there seems to be enough time for you to eat as well.</t>
+  </si>
+  <si>
+    <t>verylatecamp</t>
+  </si>
+  <si>
+    <t>After struggling to keep moving and stopping frequently, you have to rely on the light from the camp fires in the distance to find the camp. The fires are dying out and all the wood has already been scavenged, so you'll have to make do with an uncooked meal.</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>The group marches on until finally reaching a shady grove where a stop is ordered to allow stragglers to catch up. &lt;br/&gt;&lt;br/&gt;You've unloaded your things and have sat down to rest when some men come walking through the trees, saying there is a stream just on the other side. &lt;br/&gt;&lt;br/&gt;You weigh your canteen in your hand. It feels less than half full.</t>
+  </si>
+  <si>
+    <t>Heading through the trees and over the ridge, there indeed is the stream the soldiers were talking about. There are many soldiers using their hands to drink and splash their faces.&lt;br/&gt;&lt;br/&gt;There are even a few who have taken the shoes off and are wading, shin-deep, in the water. You make sure to go upstream of them.</t>
+  </si>
+  <si>
+    <t>water-filterer</t>
+  </si>
+  <si>
+    <t>water-canteen</t>
+  </si>
+  <si>
+    <t>Recalling the water filterer you purchased back at the last camp, you pull it out of your sack and ponder it.&lt;br/&gt;&lt;br/&gt;Gingerly, you drop the filter end into the water, and try drinkning through the mouthpiece. Not very much water comes through, and the water still tastes earthy. Tossing the device aside, you take a swig from your canteen, then dip it into the water to fill it.</t>
+  </si>
+  <si>
+    <t>You take a drink from the stream with your hands, and find the water cool and refreshing, if a bit earthy in flavor. You can't resist splashing your face like the other men.&lt;br/&gt;&lt;br/&gt;Feeling much better, you fill your canteen and walk back to the road.</t>
+  </si>
+  <si>
+    <t>march-normal</t>
+  </si>
+  <si>
+    <t>march-drop</t>
+  </si>
+  <si>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>You stop yet again. The area around here is not what you had pictured as a battlefield before the war. The ground gently slopes forming uneven fields. Lonesome trees and small stands are here and there poking up through the grass. The borders of the fields are variously thickets of small shrubs or thick forest.&lt;br/&gt;&lt;br/&gt;Many soldiers make themselves comfortable. As the minutes wear on, it becomes obvious that this is no ordinary stop. Soldiers ahead begin to march off sideways to form a battle line. The battery atop the hill can be seen scurrying around their guns, when all of a sudden they leap aside just in time for the cannon to emit a burst of bright smoke and with it a thunderous boom.</t>
+  </si>
+  <si>
+    <t>The war music is playing now, and you see the brigade commander talking to your staff officer. The men are already on their feet when the staff officer approaches with the orders.&lt;br/&gt;&lt;br/&gt;You march into position and receive the order to load-at-will… Shortly thereafter is the order to fire.&lt;br/&lt;br/&gt;In the heat of the battle, the formerly organized defensive line is forgotten, and soldiers are crouching behind any cover they can find – trees, ditches, even fence rails. They all still maintain a general grouping around their regimental colors, however.</t>
+  </si>
+  <si>
+    <t>Today the orders finally came down to march to the enemy. You are marching in light marching-order, which means you only carry your musket, ammunition, haversack, and canteen. The march is much more strict, and on double-quick time. Soldiers aren't given the oppurtunity to fall out of line.</t>
+  </si>
+  <si>
+    <t>Nevertheless, you do fall out of line, due to the heavy weight of the "bullet-proof vest" you intend to wear into combat.&lt;br/&gt;&lt;br/&gt;The officer doesn't sympathize, however. They order you to take it off and drop on the side of the road. You plead with him to let you keep it, saying you'll keep up, and that may have worked the first time he told you to stay in line, but not now, on the third time.&lt;br/&gt;&lt;br/&gt;With mixed disappointment and apprehension, you take it off, drop it, and run to catch up.</t>
+  </si>
+  <si>
+    <t>The march has been stop-and-go as streams are forded; wagons and caissons get stuck.&lt;br/&gt;&lt;br/&gt;The faces of the men are grim. It would be better for the fighting to start now, while you are ready. Waiting around is wearing thin on the soldiers' nerves.</t>
+  </si>
+  <si>
+    <t>Downtown Mill</t>
+  </si>
+  <si>
+    <t>Life for you here in your hometown is quiet but fairly productive. You own a small farm in the countryside just outside a small town. Although slavery is legal in your state, you are not wealthy enough to own any. You and your wife, with whom you have been married only around five years, grow produce and raise chickens. What you don't eat yourselves you sell to a man in town who himself takes it to the city to peddle. Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy that horse-drawn plow you've been eyeing. Of course, going off to war would mean leaving your wife and children alone on the farm. They say it will be a 30 days war. You'd be back in time for the harvest, anyway, right?</t>
+  </si>
+  <si>
+    <t>Stay Home</t>
+  </si>
+  <si>
+    <t>Hire Substitute</t>
+  </si>
+  <si>
+    <t>substitute-succeeded</t>
+  </si>
+  <si>
+    <t>Lacking any major manufactorers, the South imported Enfields from Britain, when it could.</t>
+  </si>
+  <si>
+    <t>Accept Conscription</t>
+  </si>
+  <si>
+    <t>Purchase Vest</t>
+  </si>
+  <si>
+    <t>Purchase Filterer</t>
+  </si>
+  <si>
+    <t>buy-filterer</t>
+  </si>
+  <si>
+    <t>Do Not Purchase</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>filterer</t>
+  </si>
+  <si>
+    <t>Drop Vest</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>Keep Vest</t>
+  </si>
+  <si>
+    <t>Go to the Stream</t>
+  </si>
+  <si>
+    <t>Stay and Rest</t>
+  </si>
+  <si>
+    <t>You figure there's enough water to last the rest of the day. Better to relax sore muscles before walking again. A few think as you do, but most have gone to the stream.</t>
+  </si>
+  <si>
+    <t>injury</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>leg</t>
+  </si>
+  <si>
+    <t>The president has said the war isn't about slavery, but you know better. All of the states that have seceded are slave states. Defeating the Confederacy can only open great oppurtunities for blacks. So, with great pride and enthusiasm, you appear before the recruiters and volunteer to go to war for the Union.&lt;br/&gt;&lt;br/&gt;Their response surprises you. "We cannot accept your enlistment," they say. Something about a law against blacks in the army. You plead, but they begin to force you out.&lt;br/&gt;&lt;br/&gt;Disappointed, you head home.</t>
+  </si>
+  <si>
+    <t>Life is hard on the plantation where you live. As property, you are not allowed to leave the plantation, own any property yourself, or generally do anything except hard labor. Since you are so isolated from the rest of the world, you only know through rumors and offhand remarks from the master that there even is a war.</t>
+  </si>
+  <si>
+    <t>slave-plantation</t>
+  </si>
+  <si>
+    <t>slave-runaway</t>
+  </si>
+  <si>
+    <t>slave-working</t>
+  </si>
+  <si>
+    <t>slave-army</t>
+  </si>
+  <si>
+    <t>These days the master has gotten anxious. At first, none of the slaves had any idea why, but lately you've heard there's an army approaching to free the slaves. When one of the other slaves asked him about it, he seemed rattled, then retorted that the army was coming to kill all the blacks, because if they couldn't have slaves, they didn't want anyone to have them.&lt;br/&gt;&lt;br/&gt;You can't tell whether he's lying, but you might not find out, anyway, because the master says all the slaves are being shipped out to work for the war effort tomorrow.&lt;br/&gt;&lt;br/&gt;That night, some slaves are gathering what they can in makeshift sacks. They're going to run away and take their chances with the army. After all, it couldn't be worse, right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are brought to a mill, where you are told to pour metal into casts. The casts just make big metal balls; you wonder what they're for, but it isn't your place to ask.&lt;br/&gt;&lt;br/&gt;The masters still seem uneasy until one day a messenger shows up and in a panic, the masters try to get everyone and everything together.&lt;br/&gt;&lt;br/&gt;Frustrated by the sluggishness of the slaves, the masters mount their horses and ride off, abandoning you and the other slaves. </t>
+  </si>
+  <si>
+    <t>Run Away</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>slave-fighting</t>
+  </si>
+  <si>
+    <t>slave-contraband</t>
+  </si>
+  <si>
+    <t>Until the Emancipation Proclamation, military units could not officially enroll blacks as soldiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He seems sympathetic, and genuinely interested in helping you out. He says he can't give you a gun, but you can tend to the wounded or cook food for the soldiers if you really want to help. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You decide to head back to your tent and write a letter home with your free time instead. </t>
+  </si>
+  <si>
+    <t>“My Dear Wife,&lt;br/&gt;&lt;br/&gt;I miss you greatly. The camp here is nothing like home. I often find myself craving a delicious roast like we used to have. Here we only occasionally get fresh meat, usually only salt meat. It makes a fellow quite thirsty.&lt;br/&gt;&lt;br/&gt;How are things on the farm? I’m worried about harvest time. The crops will need to be reaped before too long. I hope managing the livestock hasn’t been too difficult, either.&lt;br/&gt;&lt;br/&gt;Please write me back when you receive this letter, I look forward to hearing from you.&lt;br/&gt;&lt;br/&gt;    Signed, Your Loving Husband”</t>
+  </si>
+  <si>
+    <t>“My Dear Wife,&lt;br/&gt;&lt;br/&gt;The camp here isn't as different from home as I expected. The soldiers have a similar sense of humour as the miners back home.&lt;br/&gt;&lt;br/&gt;Still, I miss you greatly, especially your home cooking. Here we only occasionally get fresh meat, usually only salt meat. It makes a fellow quite thirsty.&lt;br/&gt;&lt;br/&gt;How are things in town? I hope it isn't too much trouble living alone with the children. Stay out of the saloons, they would only be trouble for you.&lt;br/&gt;&lt;br/&gt;Please write me back when you receive this letter, I look forward to hearing from you.&lt;br/&gt;&lt;br/&gt;    Signed, Your Loving Husband”</t>
+  </si>
+  <si>
+    <t>“My Dear Wife,&lt;br/&gt;&lt;br/&gt;I miss you greatly. The camp here is nothing like home. I often find myself craving a delicious roast like we used to have. Here we only occasionally get fresh meat, usually only salt meat. It makes a fellow quite thirsty. And at least in the mill there was a roof over my head.&lt;br/&gt;&lt;br/&gt;How are the children? I'm sorry I won't be there to see them grow up, but I'll be back as soon as I can. Maybe it's been too long, but I almost miss the smell of the alley outside our window. I hope you are doing alright, and the children aren't too much trouble.&lt;br/&gt;&lt;br/&gt;Please write me back when you receive this letter, I look forward to hearing from you.&lt;br/&gt;&lt;br/&gt;    Signed, Your Loving Husband”</t>
+  </si>
+  <si>
+    <t>letter-generic</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>Rletter-farm</t>
+  </si>
+  <si>
+    <t>Rletter-factory</t>
+  </si>
+  <si>
+    <t>Rletter-mine</t>
+  </si>
+  <si>
+    <t>Rletter-received</t>
+  </si>
+  <si>
+    <t>Rletter-none</t>
+  </si>
+  <si>
+    <t>Rletter-generic</t>
+  </si>
+  <si>
+    <t>Contine</t>
+  </si>
+  <si>
+    <t>You open your letter from home and read it:&lt;br/&gt;&lt;br/&gt;“My dear Husband,&lt;br/&gt;&lt;br/&gt;It’s not the same here, either. We will not have too much trouble at harvest time, I think. The children and I will all have to work to gather the crops, but I think we can manage.&lt;br/&gt;&lt;br/&gt;Little Wally found a stray the other day, so for now we have the additional company of Sir Bark the dog. He insists having his own dog is good, and they have become close, but I told him he would have to feed the animal if we kept it. He doesn’t seem to mind now, but I worry he’d forget.&lt;br/&gt;&lt;br/&gt;I miss you and wish you were home,&lt;br/&gt;&lt;br/&gt;Your Loving Wife”</t>
+  </si>
+  <si>
+    <t>You open your letter from home and read it:&lt;br/&gt;&lt;br/&gt;“My dear Husband,&lt;br/&gt;&lt;br/&gt;I'm glad you found something to remind you of home. We have been doing alright, here. The children and I have made ourselves busy stitching and mending clothing for the other townsfolk.&lt;br/&gt;&lt;br/&gt;Little Wally found a stray the other day, so for now we have the additional company of Sir Bark the dog. He insists having his own dog is good, and they have become close, but I told him he would have to feed the animal if we kept it. He doesn’t seem to mind now, but I worry he’d forget.&lt;br/&gt;&lt;br/&gt;I miss you and look forward to your return,&lt;br/&gt;&lt;br/&gt;Your Loving Wife”</t>
+  </si>
+  <si>
+    <t>You open your letter from home and read it:&lt;br/&gt;&lt;br/&gt;“My dear Husband,&lt;br/&gt;&lt;br/&gt;It’s not the same here, either. The money you send home keeps us well fed, but it's disappointing to have an empty chair at the dinner table.&lt;br/&gt;&lt;br/&gt;I think you must have been away too long; you would not miss the smell of that alleyway if you could smell it now. &lt;br/&gt;&lt;br/&gt;Little Wally found a stray the other day, so for now we have the additional company of Sir Bark the dog. He insists having his own dog is good, and they have become close, but I told him he would have to feed the animal if we kept it. He doesn’t seem to mind now, but I worry he’d forget.&lt;br/&gt;&lt;br/&gt;I miss you and wish you were home,&lt;br/&gt;&lt;br/&gt;Your loving Wife”</t>
+  </si>
+  <si>
+    <t>“My Dear Wife,&lt;br/&gt;&lt;br/&gt;I miss you greatly. The camp here is nothing like home. I often find myself craving a delicious roast like we used to have. Here we only occasionally get fresh meat, usually only salt meat. It makes a fellow quite thirsty. And at least at home there was a roof over my head.&lt;br/&gt;&lt;br/&gt;How are the children? I'm sorry I won't be there to see them grow up, but I'll be back as soon as I can. I hope you are doing alright, and the children aren't too much trouble.&lt;br/&gt;&lt;br/&gt;Please write me back when you receive this letter, I look forward to hearing from you.&lt;br/&gt;&lt;br/&gt;    Signed, Your Loving Husband”</t>
+  </si>
+  <si>
+    <t>You open your letter from home and read it:&lt;br/&gt;&lt;br/&gt;“My dear Husband,&lt;br/&gt;&lt;br/&gt;It’s not the same here, either. The money you send home keeps us well fed, but it's disappointing to have an empty chair at the dinner table.&lt;br/&gt;&lt;br/&gt;Little Wally found a stray the other day, so for now we have the additional company of Sir Bark the dog. He insists having his own dog is good, and they have become close, but I told him he would have to feed the animal if we kept it. He doesn’t seem to mind now, but I worry he’d forget.&lt;br/&gt;&lt;br/&gt;I miss you and wish you were home,&lt;br/&gt;&lt;br/&gt;Your loving Wife”</t>
+  </si>
+  <si>
+    <t>ending-refugee</t>
+  </si>
+  <si>
+    <t>You were a runaway slave, denied a position in the army, but unable to settle down anywhere. Many freed slaves ended up in overcrowded refugee camps -- a story in its own right. The government tried to apportion land out to freed slaves, but there were simply too many. For these people, the story of the Reconstruction was just beginning.</t>
+  </si>
+  <si>
+    <t>You, like the other runaways, think the army really is coming to rescue you. In the dead of night, one by one, you slip away. You have to avoid the roads, sticking to the fields and especially trees whenever possible. Eventually, you feel like you are far enough away, and settle down to wait for the army.&lt;br/&gt;&lt;br/&gt;Days go by, and you start to think you made a mistake, when you stop and listen carefully. Off in the distance, a crackling and rumbling like you've never heard before.&lt;br/&gt;&lt;br/&gt;You rush towards the sound, but by the time you reach the battlefield it is already a gruesome scene. The only living soldiers are carrying bodies&lt;br/&gt;&lt;br/&gt;You follow them back to a camp, and are directed to an officer. You plead for him to let you join the army and fight your oppressors.</t>
+  </si>
+  <si>
+    <t>slave-helping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The war drags on. More men die, but you still aren't allowed to fight with the soldiers. Then came news of the Emancipation Proclamation.&lt;br/&gt;&lt;br/&gt;Slightly relieved, the officer issues you and other runaway slaves weapons and organizes you into a unit to fight the war as soldiers. Your unit is given a white officer, however. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marching down the road is a mass of men in blue uniforms. A man riding a horse comes up to you. &lt;br/&gt;&lt;br/&gt;He says you are all "contraband", something about a man named Lincoln, and that you are all free. There is some disbelief among the former slaves, but some cheers as well.&lt;br/&gt;&lt;br/&gt;He instructs you all to follow him, and after a very long walk, there is a camp, where you are told to wait until you can be moved North. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You gather up all your money. Fearing it isn't enough, you gather and sell a few things you can live without. At this point, most of the people willing to go to war already have.&lt;br/&gt;&lt;br/&gt;All that is left are a few unsavory characters who heard about the market for substitutes and -- hoping to cash in -- loiter around outside the town hall. Hopefully, you have enough to hire one of them. </t>
+  </si>
+  <si>
+    <t>You never went to war. Of course, not everyone did, but a large number were recruited, willingly or otherwise. Still, it also happened that some men who by rights should have fought in the war were able to dodge recruitment. Some of these men, like Grover Cleveland and John D. Rockefeller, went on to become important historical figures.&lt;br/&gt;&lt;br/&gt;Because of the loopholes in the conscription acts, it was sometimes said that the Civil War was a "rich man's war, but a poor man's fight."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,8 +2290,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2000,6 +2332,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,7 +2416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2069,17 +2425,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2124,11 +2503,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2145,15 +2542,31 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2222,8 +2635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Table62" displayName="Table62" ref="A4:AM62" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A4:AM62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Table62" displayName="Table62" ref="A4:AM105" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A4:AM105">
     <filterColumn colId="9"/>
     <filterColumn colId="16"/>
     <filterColumn colId="23"/>
@@ -2240,7 +2653,7 @@
     <tableColumn id="2" uniqueName="type" name="Slide Type">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Content" name="Slide Content" dataDxfId="8">
+    <tableColumn id="3" uniqueName="Content" name="Slide Content" dataDxfId="9">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Content" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Image" name="Background Image">
@@ -2249,7 +2662,7 @@
     <tableColumn id="5" uniqueName="Attribution" name="Attribution Text">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Attribution" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Prompt" name="Prompt Text">
+    <tableColumn id="6" uniqueName="Prompt" name="Prompt Text" dataDxfId="8">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Prompt" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="type" name="Branch Type">
@@ -2651,16 +3064,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT62"/>
+  <dimension ref="A1:AT105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="81.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
@@ -2691,64 +3104,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="72" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:46" ht="15" customHeight="1">
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="13" t="s">
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="11" t="s">
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" t="s">
@@ -2757,7 +3174,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -2766,7 +3183,7 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
@@ -2876,22 +3293,22 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>111</v>
+      <c r="C5" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
@@ -2902,14 +3319,14 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="4"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="4"/>
+      <c r="X5" s="16"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -2940,8 +3357,8 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>112</v>
+      <c r="C6" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
@@ -2949,13 +3366,13 @@
       <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2966,14 +3383,14 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="3"/>
+      <c r="X6" s="17"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -3004,44 +3421,52 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>113</v>
+      <c r="C7" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="1" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="1" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="4"/>
+      <c r="X7" s="16"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -3065,44 +3490,40 @@
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>260</v>
+      <c r="C8" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="4"/>
+      <c r="X8" s="16"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -3119,51 +3540,49 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>261</v>
+      <c r="C9" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="4"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -3189,78 +3608,78 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>114</v>
+      <c r="C10" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="1" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="1" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="4"/>
+      <c r="X10" s="16"/>
       <c r="Y10" s="1" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="1" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3274,52 +3693,52 @@
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>114</v>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="1" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="1" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="4"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -3338,40 +3757,40 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>259</v>
+      <c r="C12" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="1" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="1" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>64</v>
@@ -3380,14 +3799,14 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="4"/>
+      <c r="X12" s="16"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="4"/>
+      <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -3397,537 +3816,509 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:46">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:46" s="45" customFormat="1">
+      <c r="A13" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>115</v>
+      <c r="C13" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-    </row>
-    <row r="14" spans="1:46" ht="30">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+    </row>
+    <row r="14" spans="1:46" s="45" customFormat="1">
+      <c r="A14" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-    </row>
-    <row r="15" spans="1:46" ht="30">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="S14" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+    </row>
+    <row r="15" spans="1:46" s="45" customFormat="1">
+      <c r="A15" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>117</v>
+      <c r="C15" s="9" t="s">
+        <v>366</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+    </row>
+    <row r="16" spans="1:46" s="45" customFormat="1" ht="45">
+      <c r="A16" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>118</v>
+      <c r="C16" s="9" t="s">
+        <v>344</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-    </row>
-    <row r="17" spans="1:39" ht="30">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+    </row>
+    <row r="17" spans="1:39" s="45" customFormat="1">
+      <c r="A17" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>119</v>
+      <c r="C17" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-    </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+    </row>
+    <row r="18" spans="1:39" s="45" customFormat="1">
+      <c r="A18" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>120</v>
+      <c r="C18" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+    </row>
+    <row r="19" spans="1:39" s="45" customFormat="1">
+      <c r="A19" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>121</v>
+      <c r="C19" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="1" t="s">
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>122</v>
+      <c r="L19" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+    </row>
+    <row r="20" spans="1:39" s="45" customFormat="1">
+      <c r="A20" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>123</v>
+      <c r="C21" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="4"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
@@ -3946,45 +4337,51 @@
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>124</v>
+      <c r="C22" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="4"/>
+      <c r="X22" s="16"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -4003,45 +4400,51 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>125</v>
+      <c r="C23" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="4"/>
+      <c r="X23" s="16"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -4060,45 +4463,47 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>126</v>
+      <c r="C24" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>284</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="16"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="4"/>
+      <c r="X24" s="16"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
@@ -4116,127 +4521,79 @@
       <c r="AM24" s="1"/>
     </row>
     <row r="25" spans="1:39">
-      <c r="A25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>127</v>
+      <c r="C25" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
+      <c r="J25" s="16"/>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="16"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>128</v>
+      <c r="C26" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="1" t="s">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="4">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="L26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="4">
-        <v>7</v>
-      </c>
-      <c r="R26" s="1"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="S26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="4"/>
+      <c r="X26" s="16"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -4255,45 +4612,51 @@
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>129</v>
+      <c r="C27" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="1" t="s">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="4"/>
+      <c r="X27" s="16"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
@@ -4310,54 +4673,60 @@
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
     </row>
-    <row r="28" spans="1:39" ht="45">
+    <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>130</v>
+      <c r="C28" s="9" t="s">
+        <v>370</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>281</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="16">
+        <v>1</v>
+      </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q28" s="16">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="4"/>
+      <c r="X28" s="16"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="4"/>
+      <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -4369,52 +4738,52 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>131</v>
+      <c r="C29" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F29" s="14"/>
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="4"/>
+      <c r="Q29" s="16"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="4"/>
+      <c r="X29" s="16"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-      <c r="AE29" s="4"/>
+      <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -4426,64 +4795,52 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>132</v>
+      <c r="C30" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F30" s="11"/>
       <c r="G30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="1" t="s">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="4"/>
+      <c r="X30" s="16"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="4"/>
+      <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -4495,52 +4852,48 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>133</v>
+        <v>81</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="F31" s="11"/>
       <c r="G31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="16"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="4"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="4"/>
+      <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -4550,47 +4903,49 @@
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
     </row>
-    <row r="32" spans="1:39" ht="45">
+    <row r="32" spans="1:39">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>134</v>
+      <c r="C32" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="4"/>
+      <c r="X32" s="16"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
@@ -4609,49 +4964,47 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>135</v>
+      <c r="C33" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>213</v>
+        <v>119</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L33" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="4"/>
+      <c r="X33" s="16"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -4664,53 +5017,53 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>136</v>
+      <c r="C34" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
+      <c r="Q34" s="16"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="4"/>
+      <c r="X34" s="16"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
@@ -4729,61 +5082,55 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>137</v>
+      <c r="C35" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F35" s="11"/>
       <c r="G35" s="1" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="J35" s="16"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q35" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="Q35" s="16"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="X35" s="4"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="16"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
@@ -4795,59 +5142,61 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>138</v>
+      <c r="C36" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="4"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="4"/>
+      <c r="X36" s="16"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
-      <c r="AE36" s="4"/>
+      <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
@@ -4859,52 +5208,54 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>139</v>
+      <c r="C37" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="4"/>
+      <c r="Q37" s="16"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="4"/>
+      <c r="X37" s="16"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="4"/>
+      <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -4916,56 +5267,43 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>140</v>
+      <c r="C38" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>226</v>
+      </c>
+      <c r="X38" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
@@ -4973,52 +5311,60 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>141</v>
+      <c r="C39" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F39" s="11"/>
       <c r="G39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="4"/>
+      <c r="O39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="16"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="S39" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="4"/>
+      <c r="X39" s="16"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
-      <c r="AE39" s="4"/>
+      <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
@@ -5028,58 +5374,60 @@
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
     </row>
-    <row r="40" spans="1:39" ht="30">
+    <row r="40" spans="1:39">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>142</v>
+      <c r="C40" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>240</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="J40" s="16">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="Q40" s="16">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1"/>
       <c r="S40" s="1" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="4"/>
+      <c r="X40" s="16"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
-      <c r="AE40" s="4"/>
+      <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
@@ -5089,58 +5437,60 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" ht="45">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>143</v>
+      <c r="C41" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="4">
+      <c r="J41" s="16">
         <v>1</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="4">
+      <c r="Q41" s="16">
         <v>1</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="4"/>
+      <c r="X41" s="16"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
-      <c r="AE41" s="4"/>
+      <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
@@ -5152,49 +5502,69 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>144</v>
+      <c r="C42" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F42" s="11"/>
       <c r="G42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="16"/>
       <c r="K42" s="1" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="4"/>
@@ -5209,56 +5579,56 @@
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>145</v>
+      <c r="C43" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="1" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="4">
+      <c r="J43" s="16">
         <v>1</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="4">
+      <c r="Q43" s="16">
         <v>1</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="4"/>
+      <c r="X43" s="16"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
-      <c r="AE43" s="4"/>
+      <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -5270,52 +5640,56 @@
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>146</v>
+      <c r="C44" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="F44" s="11"/>
       <c r="G44" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J44" s="16">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="4"/>
+      <c r="Q44" s="16">
+        <v>1</v>
+      </c>
       <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="4"/>
+      <c r="X44" s="16"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
-      <c r="AE44" s="4"/>
+      <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
@@ -5325,47 +5699,55 @@
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" ht="45">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>147</v>
+      <c r="C45" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="F45" s="11"/>
       <c r="G45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="1" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="4"/>
+      <c r="X45" s="16"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
@@ -5384,45 +5766,57 @@
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>148</v>
+      <c r="C46" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="F46" s="11"/>
       <c r="G46" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J46" s="16">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="4"/>
+      <c r="Q46" s="16">
+        <v>7</v>
+      </c>
       <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="4"/>
+      <c r="X46" s="16"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -5441,52 +5835,56 @@
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>149</v>
+      <c r="C47" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="F47" s="11"/>
       <c r="G47" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J47" s="16">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="4"/>
+      <c r="Q47" s="16">
+        <v>1</v>
+      </c>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="4"/>
+      <c r="X47" s="16"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
-      <c r="AE47" s="4"/>
+      <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
@@ -5496,54 +5894,58 @@
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" ht="45">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>150</v>
+      <c r="C48" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="F48" s="11"/>
       <c r="G48" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J48" s="16">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="4"/>
+      <c r="Q48" s="16">
+        <v>1</v>
+      </c>
       <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="4"/>
+      <c r="X48" s="16"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
-      <c r="AE48" s="4"/>
+      <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
@@ -5553,103 +5955,131 @@
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
     </row>
-    <row r="49" spans="1:39" ht="30">
-      <c r="A49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
-      <c r="AK49" s="1"/>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-    </row>
-    <row r="50" spans="1:39" ht="30">
-      <c r="A50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="1"/>
+    <row r="49" spans="1:39" s="51" customFormat="1" ht="30">
+      <c r="A49" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="48"/>
+      <c r="G49" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="J49" s="49"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="P49" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="W49" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="X49" s="49"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="46"/>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="11"/>
       <c r="G50" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="16">
+        <v>1</v>
+      </c>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="L50" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="4"/>
+      <c r="Q50" s="16">
+        <v>1</v>
+      </c>
       <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+      <c r="S50" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="4"/>
+      <c r="X50" s="16"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
-      <c r="AE50" s="4"/>
+      <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
@@ -5660,49 +6090,57 @@
       <c r="AM50" s="1"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D51" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="1"/>
+      <c r="E51" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="11"/>
       <c r="G51" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="16">
+        <v>1</v>
+      </c>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="4"/>
+      <c r="Q51" s="16">
+        <v>1</v>
+      </c>
       <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
+      <c r="S51" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="4"/>
+      <c r="X51" s="16"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
-      <c r="AE51" s="4"/>
+      <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
@@ -5712,50 +6150,58 @@
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
     </row>
-    <row r="52" spans="1:39" ht="30">
-      <c r="A52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" s="1"/>
+    <row r="52" spans="1:39">
+      <c r="A52" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="16">
+        <v>1</v>
+      </c>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="4"/>
+      <c r="Q52" s="16">
+        <v>1</v>
+      </c>
       <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
+      <c r="S52" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="4"/>
+      <c r="X52" s="16"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
-      <c r="AE52" s="4"/>
+      <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
@@ -5765,50 +6211,58 @@
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
     </row>
-    <row r="53" spans="1:39" ht="30">
-      <c r="A53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F53" s="1"/>
+    <row r="53" spans="1:39">
+      <c r="A53" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="16">
+        <v>1</v>
+      </c>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="4"/>
+      <c r="Q53" s="16">
+        <v>1</v>
+      </c>
       <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="4"/>
+      <c r="X53" s="16"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
-      <c r="AE53" s="4"/>
+      <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
@@ -5818,103 +6272,108 @@
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
     </row>
-    <row r="54" spans="1:39" ht="30">
+    <row r="54" spans="1:39">
       <c r="A54" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>155</v>
+        <v>41</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" t="s">
+        <v>319</v>
+      </c>
+      <c r="I54" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="L54" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="AE54" s="1"/>
       <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
+      <c r="AK54" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
     </row>
-    <row r="55" spans="1:39" ht="30">
+    <row r="55" spans="1:39">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>155</v>
+        <v>41</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F55" s="11"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="X55" s="4"/>
+      <c r="X55" s="16"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
-      <c r="AE55" s="4"/>
+      <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
@@ -5924,62 +6383,54 @@
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" ht="45">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>156</v>
+      <c r="C56" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F56" s="11"/>
       <c r="G56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="1" t="s">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="4"/>
+      <c r="X56" s="16"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
-      <c r="AE56" s="4"/>
+      <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
@@ -5989,68 +6440,54 @@
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
     </row>
-    <row r="57" spans="1:39" ht="30">
+    <row r="57" spans="1:39">
       <c r="A57" s="1" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>157</v>
+      <c r="C57" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F57" s="11"/>
       <c r="G57" s="1" t="s">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="4">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="4">
-        <v>1</v>
-      </c>
+      <c r="Q57" s="16"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="4"/>
+      <c r="X57" s="16"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
-      <c r="AE57" s="4"/>
+      <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
@@ -6060,47 +6497,59 @@
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" ht="30">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>158</v>
+      <c r="C58" s="9" t="s">
+        <v>232</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F58" s="11"/>
       <c r="G58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="16"/>
       <c r="K58" s="1" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="4"/>
+      <c r="X58" s="16"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6119,45 +6568,45 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="1" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>159</v>
+      <c r="C59" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="F59" s="11"/>
       <c r="G59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="4"/>
+      <c r="J59" s="16"/>
       <c r="K59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>108</v>
+      <c r="L59" t="s">
+        <v>203</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="4"/>
+      <c r="Q59" s="16"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="4"/>
+      <c r="X59" s="16"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6174,55 +6623,47 @@
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" ht="30">
       <c r="A60" s="1" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>160</v>
+      <c r="C60" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F60" s="11"/>
       <c r="G60" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J60" s="4"/>
-      <c r="K60" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L60" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q60" s="4"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="16"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="4"/>
+      <c r="X60" s="16"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6235,56 +6676,58 @@
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
-      <c r="AK60" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" ht="45">
       <c r="A61" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>161</v>
+        <v>41</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F61" s="11"/>
       <c r="G61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="4"/>
+      <c r="Q61" s="16"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="4"/>
+      <c r="X61" s="16"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
-      <c r="AE61" s="4"/>
+      <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
@@ -6294,50 +6737,54 @@
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" ht="45">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>162</v>
+        <v>41</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F62" s="11"/>
       <c r="G62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="4"/>
+      <c r="Q62" s="16"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="4"/>
+      <c r="X62" s="16"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
-      <c r="AE62" s="4"/>
+      <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -6347,14 +6794,2439 @@
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
     </row>
+    <row r="63" spans="1:39">
+      <c r="A63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" t="s">
+        <v>319</v>
+      </c>
+      <c r="I64" t="s">
+        <v>320</v>
+      </c>
+      <c r="J64" s="16"/>
+      <c r="L64" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="AE64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+    </row>
+    <row r="65" spans="1:39">
+      <c r="A65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+    </row>
+    <row r="66" spans="1:39" ht="30">
+      <c r="A66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+    </row>
+    <row r="67" spans="1:39">
+      <c r="A67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+    </row>
+    <row r="68" spans="1:39">
+      <c r="A68" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+    </row>
+    <row r="69" spans="1:39" ht="45">
+      <c r="A69" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+    </row>
+    <row r="70" spans="1:39">
+      <c r="A70" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="16"/>
+      <c r="K70" t="s">
+        <v>3</v>
+      </c>
+      <c r="L70" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="AE70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+    </row>
+    <row r="71" spans="1:39" s="23" customFormat="1">
+      <c r="A71" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="J71" s="21"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="18"/>
+      <c r="AB71" s="18"/>
+      <c r="AC71" s="18"/>
+      <c r="AD71" s="18"/>
+      <c r="AE71" s="22"/>
+      <c r="AF71" s="18"/>
+      <c r="AG71" s="18"/>
+      <c r="AH71" s="18"/>
+      <c r="AI71" s="18"/>
+      <c r="AJ71" s="18"/>
+      <c r="AK71" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL71" s="18"/>
+      <c r="AM71" s="18"/>
+    </row>
+    <row r="72" spans="1:39" s="23" customFormat="1" ht="45">
+      <c r="A72" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
+      <c r="AA72" s="18"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="22"/>
+      <c r="AF72" s="18"/>
+      <c r="AG72" s="18"/>
+      <c r="AH72" s="18"/>
+      <c r="AI72" s="18"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="18"/>
+      <c r="AL72" s="18"/>
+      <c r="AM72" s="18"/>
+    </row>
+    <row r="73" spans="1:39" s="23" customFormat="1">
+      <c r="A73" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P73" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="W73" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA73" s="18"/>
+      <c r="AB73" s="18"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="18"/>
+      <c r="AE73" s="22"/>
+      <c r="AF73" s="18"/>
+      <c r="AG73" s="18"/>
+      <c r="AH73" s="18"/>
+      <c r="AI73" s="18"/>
+      <c r="AJ73" s="18"/>
+      <c r="AK73" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL73" s="18"/>
+      <c r="AM73" s="18"/>
+    </row>
+    <row r="74" spans="1:39" s="23" customFormat="1">
+      <c r="A74" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L74" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="18"/>
+      <c r="AB74" s="18"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="18"/>
+      <c r="AE74" s="22"/>
+      <c r="AF74" s="18"/>
+      <c r="AG74" s="18"/>
+      <c r="AH74" s="18"/>
+      <c r="AI74" s="18"/>
+      <c r="AJ74" s="18"/>
+      <c r="AK74" s="18"/>
+      <c r="AL74" s="18"/>
+      <c r="AM74" s="18"/>
+    </row>
+    <row r="75" spans="1:39" s="23" customFormat="1">
+      <c r="A75" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
+      <c r="AA75" s="18"/>
+      <c r="AB75" s="18"/>
+      <c r="AC75" s="18"/>
+      <c r="AD75" s="18"/>
+      <c r="AE75" s="22"/>
+      <c r="AF75" s="18"/>
+      <c r="AG75" s="18"/>
+      <c r="AH75" s="18"/>
+      <c r="AI75" s="18"/>
+      <c r="AJ75" s="18"/>
+      <c r="AK75" s="18"/>
+      <c r="AL75" s="18"/>
+      <c r="AM75" s="18"/>
+    </row>
+    <row r="76" spans="1:39" s="23" customFormat="1">
+      <c r="A76" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="20"/>
+      <c r="G76" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="18"/>
+      <c r="Z76" s="18"/>
+      <c r="AA76" s="18"/>
+      <c r="AB76" s="18"/>
+      <c r="AC76" s="18"/>
+      <c r="AD76" s="18"/>
+      <c r="AE76" s="22"/>
+      <c r="AF76" s="18"/>
+      <c r="AG76" s="18"/>
+      <c r="AH76" s="18"/>
+      <c r="AI76" s="18"/>
+      <c r="AJ76" s="18"/>
+      <c r="AK76" s="18"/>
+      <c r="AL76" s="18"/>
+      <c r="AM76" s="18"/>
+    </row>
+    <row r="77" spans="1:39">
+      <c r="A77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="G77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L77" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+    </row>
+    <row r="78" spans="1:39">
+      <c r="A78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J78" s="16"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+    </row>
+    <row r="79" spans="1:39" ht="45">
+      <c r="A79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+    </row>
+    <row r="80" spans="1:39">
+      <c r="A80" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+    </row>
+    <row r="81" spans="1:39">
+      <c r="A81" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+    </row>
+    <row r="82" spans="1:39">
+      <c r="A82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="16">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="16">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+    </row>
+    <row r="83" spans="1:39">
+      <c r="A83" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="16">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="16">
+        <v>1</v>
+      </c>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+    </row>
+    <row r="84" spans="1:39">
+      <c r="A84" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+    </row>
+    <row r="85" spans="1:39">
+      <c r="A85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="16">
+        <v>2</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="16">
+        <v>1</v>
+      </c>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="16"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+    </row>
+    <row r="86" spans="1:39">
+      <c r="A86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="16">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="16">
+        <v>1</v>
+      </c>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="4"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+    </row>
+    <row r="87" spans="1:39">
+      <c r="A87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="16"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="4"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+    </row>
+    <row r="88" spans="1:39">
+      <c r="A88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="16">
+        <v>2</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="16">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="16"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="4"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+    </row>
+    <row r="89" spans="1:39">
+      <c r="A89" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="16"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+    </row>
+    <row r="90" spans="1:39">
+      <c r="A90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="16"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+    </row>
+    <row r="91" spans="1:39">
+      <c r="A91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J91" s="16"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="16"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+    </row>
+    <row r="92" spans="1:39">
+      <c r="A92" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="16">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="16">
+        <v>1</v>
+      </c>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="16"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+    </row>
+    <row r="93" spans="1:39">
+      <c r="A93" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="16">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="16">
+        <v>1</v>
+      </c>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="16"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+    </row>
+    <row r="94" spans="1:39">
+      <c r="A94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="16"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="4"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+    </row>
+    <row r="95" spans="1:39">
+      <c r="A95" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="16"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+    </row>
+    <row r="96" spans="1:39">
+      <c r="A96" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="16"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+    </row>
+    <row r="97" spans="1:39">
+      <c r="A97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="16"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="4"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+    </row>
+    <row r="98" spans="1:39" ht="45">
+      <c r="A98" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="16"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="4"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+    </row>
+    <row r="99" spans="1:39" ht="45">
+      <c r="A99" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="16"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="4"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+    </row>
+    <row r="100" spans="1:39">
+      <c r="A100" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="16"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="4"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+    </row>
+    <row r="101" spans="1:39" ht="45">
+      <c r="A101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F101" s="11"/>
+      <c r="G101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="16"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="4"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+    </row>
+    <row r="102" spans="1:39">
+      <c r="A102" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" s="16"/>
+      <c r="K102" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="16"/>
+      <c r="X102" s="16"/>
+    </row>
+    <row r="103" spans="1:39" ht="45">
+      <c r="A103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="11"/>
+      <c r="G103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="16"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="4"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+    </row>
+    <row r="104" spans="1:39" ht="45">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" s="16"/>
+      <c r="K104" t="s">
+        <v>3</v>
+      </c>
+      <c r="L104" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q104" s="16"/>
+      <c r="X104" s="16"/>
+    </row>
+    <row r="105" spans="1:39" ht="45">
+      <c r="A105" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" s="11"/>
+      <c r="G105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="16"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="4"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="AC3:AI3"/>
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="O3:U3"/>
     <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CivilWarNarrative/bin/SoldierStory.xlsx
+++ b/CivilWarNarrative/bin/SoldierStory.xlsx
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="407">
   <si>
     <t>titleslide</t>
   </si>
@@ -1262,15 +1262,6 @@
     <t>body</t>
   </si>
   <si>
-    <t>Moore House, Yorktown, Virginia. --Gardner's Photographic Sketchbook of the War--, Vol. I, 1866. Courtesy of George Eastman House, International Museum of Photography and Film.</t>
-  </si>
-  <si>
-    <t>slide2.png</t>
-  </si>
-  <si>
-    <t>Mathews' House, Battle-Field of Bull Run. --Gardner's Photographic Sketchbook of the War--, Vol. I, 1866. Courtesy of George Eastman House, International Museum of Photography and Film.</t>
-  </si>
-  <si>
     <t>Begin</t>
   </si>
   <si>
@@ -1412,147 +1403,6 @@
     <t>The assistant surgeon informs you that since you are well enough to stand, it is now your duty to help out around the hospital tent.&lt;br/&gt;&lt;br/&gt;You still have two good legs, unlike some of the others around here, so you can get around without a crutch, and carry food and water to the other patients with your remaining good arm.&lt;br/&gt;&lt;br/&gt;After a few weeks, you are removed from the field hospital and sent by train to a general hospital, where you are found to be fit to leave and discharged. With your disability, the army wants nothing to do with you anymore.</t>
   </si>
   <si>
-    <t>titleslide.png</t>
-  </si>
-  <si>
-    <t>slide3.png</t>
-  </si>
-  <si>
-    <t>slide22.png</t>
-  </si>
-  <si>
-    <t>01933r.jpg</t>
-  </si>
-  <si>
-    <t>slide5.png</t>
-  </si>
-  <si>
-    <t>slide4.png</t>
-  </si>
-  <si>
-    <t>slide6.png</t>
-  </si>
-  <si>
-    <t>slide8.png</t>
-  </si>
-  <si>
-    <t>slide9.png</t>
-  </si>
-  <si>
-    <t>slide12.png</t>
-  </si>
-  <si>
-    <t>slide13.png</t>
-  </si>
-  <si>
-    <t>slide7.png</t>
-  </si>
-  <si>
-    <t>00098v.jpg</t>
-  </si>
-  <si>
-    <t>slide14.png</t>
-  </si>
-  <si>
-    <t>slide10.png</t>
-  </si>
-  <si>
-    <t>22479v.jpg</t>
-  </si>
-  <si>
-    <t>slide16.png</t>
-  </si>
-  <si>
-    <t>slide17.png</t>
-  </si>
-  <si>
-    <t>slide18.png</t>
-  </si>
-  <si>
-    <t>slide15.png</t>
-  </si>
-  <si>
-    <t>slide19.png</t>
-  </si>
-  <si>
-    <t>slide21.png</t>
-  </si>
-  <si>
-    <t>02107r.jpg</t>
-  </si>
-  <si>
-    <t>slide20.png</t>
-  </si>
-  <si>
-    <t>Marshall House, Alexandria, Virginia. Gardner's Photographic Sketchbook of the War--, Vol. I, 1866. Courtesy of George Eastman House, International Museum of Photography and Film.</t>
-  </si>
-  <si>
-    <t>Emmitsburg, Maryland. Farmer's Inn and Hotel where our special artist was captured, July 5 1863. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00835 DLC.</t>
-  </si>
-  <si>
-    <t>http://www.loc.gov/pictures/item/cwp2003004890/PP/</t>
-  </si>
-  <si>
-    <t>Atlanta, Georgia. Federal army wagons railroad depot. Barnard, George N. 1864. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-02232 DLC.</t>
-  </si>
-  <si>
-    <t>Inspection of Troops at Cumberlanding, Pamunkey, Virginia. Gardner's Photographic Sketchbook of the War--, Vol. I, 1866. Courtesy of George Eastman House, International Museum of Photography and Film.</t>
-  </si>
-  <si>
-    <t>Petersburg, Va. Officers of the 114th Pennsylvania Infantry playing cards in front of tents. 1862 May. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03882 DLC.</t>
-  </si>
-  <si>
-    <t>Washington, District of Columbia. Camp of 31st Penn. Inf. (later, 82d Penn. Inf.) at Queen's farm, vicinity of Fort Slocum. 1861.Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01670 DLC.</t>
-  </si>
-  <si>
-    <t>Germanna Ford, Rapidan River, Virginia. Grant's troops crossing Germannia Ford. 1864 May 4.Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01175 DLC.</t>
-  </si>
-  <si>
-    <t>Port Royal Island, South Carolina. Road through woods. 1865.Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03294 DLC.</t>
-  </si>
-  <si>
-    <t>Gettysburg, Pennsylvania. Camp of Captain John J. Hoff. Commissory of Subsistance. 1865 July. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03913 DLC.</t>
-  </si>
-  <si>
-    <t>Bull Run, Virginia. Federal encampment at Blackburn's Ford. 1862 July 4. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01154 DLC.</t>
-  </si>
-  <si>
-    <t>Falmouth, Virginia. Mail wagon for headquarters, Army of the Potomac. 1863. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00098 DLC</t>
-  </si>
-  <si>
-    <t>Belle Plain, Virginia. Camp of 150th Pennsylvania Infantry. 1863 Mar. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00935 DLC.</t>
-  </si>
-  <si>
-    <t>Cedar Mountain, Va. View of battlefield with the mountain in the distance. O'Sullivan, Timothy H., 1862 August. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00206 DLC.</t>
-  </si>
-  <si>
-    <t>Gallant Charge of Humphrey's Division at the Battle of Fredericksburg. [1862] December 13. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsca-22479.</t>
-  </si>
-  <si>
-    <t>Gettysburg, Pennsylvania. Confederate soldiers who had evidently been shelled by our batteries on Round Top. 1863 July. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00068 DLC.</t>
-  </si>
-  <si>
-    <t>Antietam, Maryland. Bodies of dead, Louisiana Regiment. 1862 Sept. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01104 DLC.</t>
-  </si>
-  <si>
-    <t>Ambulance Corps. Method of removing wounded from the field. Between 1861 and 1869. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01328 DLC.</t>
-  </si>
-  <si>
-    <t>Falmouth, Va. Drum corps of 61st New York Infantry. 1863 March. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04019 DLC.</t>
-  </si>
-  <si>
-    <t>Savage Station, Virginia. Union field hospital after the battle of June 27. 1862 June [30]. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00202 DLC .</t>
-  </si>
-  <si>
-    <t>Washington, D.C. Convalescent soldiers and others outside quarters of the Sanitary Commission Home Lodge. 1865 April. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04163 DLC.</t>
-  </si>
-  <si>
-    <t>http://www.loc.gov/pictures/resource/cwpb.02107/</t>
-  </si>
-  <si>
-    <t>Culpeper, Va. Brig. Gen. Henry Prince of the 2d Division, 3d Corps, and staff. 1863 September. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03983 DLC.</t>
-  </si>
-  <si>
     <t>Later in the war, when the need for man power was more dire, doctors checked for &lt;i&gt;unfitness&lt;/i&gt; rather than fitness for duty.</t>
   </si>
   <si>
@@ -2144,9 +1994,6 @@
     <t>slave-working</t>
   </si>
   <si>
-    <t>slave-army</t>
-  </si>
-  <si>
     <t>These days the master has gotten anxious. At first, none of the slaves had any idea why, but lately you've heard there's an army approaching to free the slaves. When one of the other slaves asked him about it, he seemed rattled, then retorted that the army was coming to kill all the blacks, because if they couldn't have slaves, they didn't want anyone to have them.&lt;br/&gt;&lt;br/&gt;You can't tell whether he's lying, but you might not find out, anyway, because the master says all the slaves are being shipped out to work for the war effort tomorrow.&lt;br/&gt;&lt;br/&gt;That night, some slaves are gathering what they can in makeshift sacks. They're going to run away and take their chances with the army. After all, it couldn't be worse, right?</t>
   </si>
   <si>
@@ -2250,13 +2097,271 @@
   </si>
   <si>
     <t>You never went to war. Of course, not everyone did, but a large number were recruited, willingly or otherwise. Still, it also happened that some men who by rights should have fought in the war were able to dodge recruitment. Some of these men, like Grover Cleveland and John D. Rockefeller, went on to become important historical figures.&lt;br/&gt;&lt;br/&gt;Because of the loopholes in the conscription acts, it was sometimes said that the Civil War was a "rich man's war, but a poor man's fight."</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003004890/PP/"&gt;Dutch Gap, Virginia (vicinity). Deserted farm house near Dutch Gap canal. 1864 Nov. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01933.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2004661593/"&gt;Stragglers on the march to headquarters. Under guard. By Edwin Forbes.  February 10, 1863. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsca-20526.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003006457/PP/"&gt;Gettysburg, Pennsylvania. Camp of Captain John J. Hoff. Commissory of Subsistance. 1865 July. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03913.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005565/PP/"&gt;Bull Run, Virginia. Federal encampment at Blackburn's Ford. By TimothyH. O'Sullivan. 1862 July 4. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01154.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005898/PP/"&gt;Falmouth, Virginia. Mail wagon for headquarters, Army of the Potomac. 1863. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00098.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005022/PP/"&gt;Belle Plain, Virginia. Camp of 150th Pennsylvania Infantry. 1863 Mar. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00935.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/collection/cwp/item/cwp2003004703/PP/"&gt;Alexandria, Virginia. Slave pen. Interior view. Between 1861 and 1869. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01470.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003004579/PP/"&gt;Ambulance Corps. Method of removing wounded from the field. By William Frank Browne. Between 1861 and 1869. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01328.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005816/PP/"&gt;Savage Station, Virginia. Union field hospital after the battle of June 27. By James F. Gibson. 1862 June. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00202.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href=""&gt;Murfreesboro, Tennessee (vicinity). Monument erected on the battlefield at Stones River. Between 1863 and 1869. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-02106.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000989/PP/"&gt;Washington, D.C. Convalescent soldiers and others outside quarters of the Sanitary Commission Home Lodge. 1865 April. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04163.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000177/PP/"&gt;Falmouth, Va. Drum corps of 61st New York Infantry. By Timothy H. O'Sullivan. 1863 March. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04019.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000224/PP/"&gt;Culpeper, Va. Brig. Gen. Henry Prince of the 2d Division, 3d Corps, and staff. By Timothy H. O'Sullivan. 1863 September. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03983.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2004661366/"&gt;Gallant Charge of Humphrey's Division at the Battle of Fredericksburg. By Alfred R. Waud. [1862] December 13. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsca-22479.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005579/PP/"&gt;Germanna Ford, Rapidan River, Virginia. Grant's troops crossing Germannia Ford. By Timothy H. O'Sullivan. May 4, 1864. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01175.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003004786/PP/"&gt;Washington, District of Columbia. Camp of 31st Penn. Inf. (later, 82d Penn. Inf.) at Queen's farm, vicinity of Fort Slocum. 1861. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01670.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003004680/PP/"&gt;Port Royal, South Carolina. Slaves quarters. By Timothy H. O'Sullivan. 1862 Apr. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00806.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005005/PP/"&gt;Atlanta, Georgia. Federal army wagons railroad depot. By George N. Barnard. 1864. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-02232.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000565/PP/"&gt;Petersburg, Va. Officers of the 114th Pennsylvania Infantry playing cards in front of tents. 1862 May. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03882.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005396/PP/"&gt;Port Royal Island, South Carolina. Road through woods. 1865. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03294.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003006184/PP/"&gt;Gettysburg, Pennsylvania. Confederate soldiers who had evidently been shelled by our batteries on Round Top. By Timothy H. O'Sullivan. 1863 July. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00068.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005540/PP/"&gt;Antietam, Maryland. Bodies of dead, Louisiana Regiment. By Alexander Gardner. 1862 Sept. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01104.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000103/PP/"&gt;Cedar Mountain, Va. View of battlefield with the mountain in the distance. By Timothy H. O'Sullivan. 1862 August. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00206.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000169/PP/"&gt;Aquia Creek Landing, Va. Personnel in front of Quartermaster's Office. By Alexander Gardner. 1863 February. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03709.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000452/PP/"&gt;Brandy Station, Va., vicinity. Camp of 18th Pennsylvania Cavalry, 3d Division, Cavalry Corps. 1864 March. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04084.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/91787341/"&gt;The soldier's dream of home. By Currier &amp; Ives. Between 1861 and 1865. Library of Congress, Prints &amp; Photographs Division, LC-USZC2-3014.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/00652743/"&gt;Drilling troops near Washington, D.C. Between 1861 and 1865. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsc-03310.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2006683287/"&gt;Ellsworth's campaign &amp; barrack or dress uniforms. Plate 1. By Edward Mendel. Sept. 28, 1861. Library of Congress, Prints &amp; Photographs Division, LC-USZC4-1557.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2012649000/"&gt;Headquarters Army of Potomac - Brandy Station, April 1864. Commissary storehouse. By Timothy H. O'Sullivan. 1864. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsca-33073.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>33073u.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2007678161/"&gt;U.S. Army camp scenes, 1862: Camp of 153d N.Y. Inf. Man cooking at stove. Circa 1862. Library of Congress, Prints &amp; Photographs Division, LC-USZ62-45934.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>3a46113u.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2008000004/PP/"&gt;Abraham Lincoln, three-quarter length portrait, seated and holding his spectacles and a pencil. By Alexander Gardner. Feb. 5, 1865. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsca-19469.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>19469a.jpg</t>
+  </si>
+  <si>
+    <t>20648u.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2004661845/"&gt;News from home. By Edwin Forbes. September 30, 1863. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsca-20648.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>3b53061u.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000974/PP/"&gt;Washington, D.C. Signal Corps officers lowering flag at their camp near Georgetown; Gen Albert J. Myer, in civilian dress, at right of pole. 1865 August. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04174.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>04174a.jpg</t>
+  </si>
+  <si>
+    <t>3a10813u.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2012646445/"&gt;Gold miners, El Dorado, California. Between circa 1848 and 1853. Library of Congress, Prints &amp; Photographs Division, LC-USZ62-8197.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>03310u.jpg</t>
+  </si>
+  <si>
+    <t>3b50888u.jpg</t>
+  </si>
+  <si>
+    <t>04084a.jpg</t>
+  </si>
+  <si>
+    <t>03709a.jpg</t>
+  </si>
+  <si>
+    <t>03882a.jpg</t>
+  </si>
+  <si>
+    <t>01671a.jpg</t>
+  </si>
+  <si>
+    <t>01175a.jpg</t>
+  </si>
+  <si>
+    <t>03294a.jpg</t>
+  </si>
+  <si>
+    <t>03913a.jpg</t>
+  </si>
+  <si>
+    <t>20526u.jpg</t>
+  </si>
+  <si>
+    <t>01153a.jpg</t>
+  </si>
+  <si>
+    <t>00098a.jpg</t>
+  </si>
+  <si>
+    <t>00935a.jpg</t>
+  </si>
+  <si>
+    <t>00206a.jpg</t>
+  </si>
+  <si>
+    <t>22479u.jpg</t>
+  </si>
+  <si>
+    <t>00068a.jpg</t>
+  </si>
+  <si>
+    <t>01104a.jpg</t>
+  </si>
+  <si>
+    <t>01327a.jpg</t>
+  </si>
+  <si>
+    <t>00202a.jpg</t>
+  </si>
+  <si>
+    <t>02106a.jpg</t>
+  </si>
+  <si>
+    <t>04163a.jpg</t>
+  </si>
+  <si>
+    <t>04019a.jpg</t>
+  </si>
+  <si>
+    <t>03983a.jpg</t>
+  </si>
+  <si>
+    <t>01933a.jpg</t>
+  </si>
+  <si>
+    <t>00806a.jpg</t>
+  </si>
+  <si>
+    <t>01470a.jpg</t>
+  </si>
+  <si>
+    <t>02233a.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000684/PP/"&gt;Richmond, Va. Front view of Capitol. 1865. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-02891.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>02891a.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000975/PP/"&gt;Washington, D.C. Chapel and other buildings of Armory Square Hospital, 6th and B Sts. SW; completed U.S. Capitol in distance. 1865 August. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04314.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>04314a.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003004688/PP/"&gt;Emmitsburg, Maryland. Farmer's Inn and Hotel where our special artist was captured, July 5 1863. By James F. Gibson. 1863. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00834.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>00834a.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/2010647778/"&gt;Full-length portrait of an unidentified civil war soldier. By Ball &amp; Thomas. Between 1860 and 1870. Library of Congress, Prints &amp; Photographs Division, LC-DIG-ppmsca-10942.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>10942u.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000809/PP/"&gt;Charleston, S.C. City Hall (80 Broad Street). By George N. Barnard. 1865 April. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03018.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>03018a.jpg</t>
+  </si>
+  <si>
+    <t>04239a.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003006296/PP/"&gt;Washington, District of Columbia. Hancock's Veteran Corps on F Street, N.W. Washington, D.C. 1st U.S. Volunteer Infantry. 1865 Mar. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04239&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000879/PP/"&gt;Atlanta, Ga. Boxcars with refugees at railroad depot. By George N. Barnard. 1864. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-03471.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>03471a.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005207/PP/"&gt;Petersburg, Virginia (vicinity). South Side Railroad trestle (west of Petersburg) across Indian Town creek. 1865 Apr. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-02780.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>02780a.jpg</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000069/PP/"&gt;Seven Pines, Va. Twin houses on battlefield, with 32-pdr. field howitzer in foreground. By George N. Barnard. 1862 June. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-01045.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>01045a.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2297,8 +2402,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2343,19 +2461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2413,10 +2519,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2432,29 +2542,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2506,26 +2602,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2549,25 +2660,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2653,7 +2745,7 @@
     <tableColumn id="2" uniqueName="type" name="Slide Type">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Content" name="Slide Content" dataDxfId="9">
+    <tableColumn id="3" uniqueName="Content" name="Slide Content" dataDxfId="1">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Content" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Image" name="Background Image">
@@ -2662,7 +2754,7 @@
     <tableColumn id="5" uniqueName="Attribution" name="Attribution Text">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Attribution" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Prompt" name="Prompt Text" dataDxfId="8">
+    <tableColumn id="6" uniqueName="Prompt" name="Prompt Text" dataDxfId="0">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Prompt" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="type" name="Branch Type">
@@ -2674,7 +2766,7 @@
     <tableColumn id="9" uniqueName="value" name="Path 1 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path1/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="52" uniqueName="weight" name="Path 1 Weight" dataDxfId="7">
+    <tableColumn id="52" uniqueName="weight" name="Path 1 Weight" dataDxfId="9">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path1/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="Text" name="Path 1 Label">
@@ -2695,7 +2787,7 @@
     <tableColumn id="15" uniqueName="value" name="Path 2 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path2/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="53" uniqueName="weight" name="Path 2 Weight" dataDxfId="6">
+    <tableColumn id="53" uniqueName="weight" name="Path 2 Weight" dataDxfId="8">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path2/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="Text" name="Path 2 Label">
@@ -2716,7 +2808,7 @@
     <tableColumn id="21" uniqueName="value" name="Path 3 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path3/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="54" uniqueName="weight" name="Path 3 Weight" dataDxfId="5">
+    <tableColumn id="54" uniqueName="weight" name="Path 3 Weight" dataDxfId="7">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path3/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="22" uniqueName="Text" name="Path 3 Label">
@@ -2737,7 +2829,7 @@
     <tableColumn id="27" uniqueName="value" name="Path 4 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path4/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="55" uniqueName="weight" name="Path 4 Weight" dataDxfId="4">
+    <tableColumn id="55" uniqueName="weight" name="Path 4 Weight" dataDxfId="6">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path4/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="28" uniqueName="Text" name="Path 4 Label">
@@ -2752,16 +2844,16 @@
     <tableColumn id="31" uniqueName="value" name="Path 4 Store Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path4/Store/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="Text" name="Default Label" dataDxfId="3">
+    <tableColumn id="38" uniqueName="Text" name="Default Label" dataDxfId="5">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Text" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="Reference" name="Default Slide" dataDxfId="2">
+    <tableColumn id="39" uniqueName="Reference" name="Default Slide" dataDxfId="4">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Reference" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="key" name="Default Store Key" dataDxfId="1">
+    <tableColumn id="40" uniqueName="key" name="Default Store Key" dataDxfId="3">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Store/@key" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="41" uniqueName="value" name="Default Store Value" dataDxfId="0">
+    <tableColumn id="41" uniqueName="value" name="Default Store Value" dataDxfId="2">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Store/@value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3066,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3104,15 +3196,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="72" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
       <c r="A2" t="s">
@@ -3124,48 +3216,48 @@
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:46" ht="15" customHeight="1">
-      <c r="H3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="28" t="s">
+      <c r="H3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" t="s">
@@ -3196,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -3217,7 +3309,7 @@
         <v>18</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
         <v>21</v>
@@ -3238,7 +3330,7 @@
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="s">
         <v>27</v>
@@ -3259,7 +3351,7 @@
         <v>32</v>
       </c>
       <c r="AE4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AF4" t="s">
         <v>33</v>
@@ -3293,24 +3385,24 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>222</v>
+      <c r="C5" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>346</v>
+      </c>
+      <c r="F5" s="37"/>
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
@@ -3319,14 +3411,14 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="16"/>
+      <c r="X5" s="9"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -3357,40 +3449,40 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>175</v>
+      <c r="C6" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12"/>
+        <v>353</v>
+      </c>
+      <c r="F6" s="38"/>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="17"/>
+      <c r="X6" s="10"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -3416,57 +3508,57 @@
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>82</v>
+      <c r="C7" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>359</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>358</v>
+      </c>
+      <c r="F7" s="37"/>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="1" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="1" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="16"/>
+      <c r="X7" s="9"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -3485,45 +3577,45 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>169</v>
+      <c r="C8" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>389</v>
+      </c>
+      <c r="F8" s="37"/>
       <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="9"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -3542,47 +3634,47 @@
     </row>
     <row r="9" spans="1:46" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>170</v>
+      <c r="C9" s="35" t="s">
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>392</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>223</v>
+        <v>391</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="16"/>
+      <c r="X9" s="9"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
@@ -3603,83 +3695,83 @@
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>83</v>
+      <c r="C10" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>396</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>395</v>
+      </c>
+      <c r="F10" s="37"/>
       <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="1" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="9"/>
       <c r="Y10" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3688,57 +3780,57 @@
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>83</v>
+      <c r="C11" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>396</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>395</v>
+      </c>
+      <c r="F11" s="37"/>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="1" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="16"/>
+      <c r="X11" s="9"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -3757,49 +3849,49 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>309</v>
+      <c r="C12" s="35" t="s">
+        <v>259</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>394</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F12" s="37"/>
       <c r="G12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="1" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="9"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -3815,510 +3907,511 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-    </row>
-    <row r="13" spans="1:46" s="45" customFormat="1">
-      <c r="A13" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="AN12" s="16"/>
+    </row>
+    <row r="13" spans="1:46" s="15" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="41" t="s">
+      <c r="C13" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="41" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-    </row>
-    <row r="14" spans="1:46" s="45" customFormat="1">
-      <c r="A14" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="41" t="s">
+      <c r="L13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+    </row>
+    <row r="14" spans="1:46" s="15" customFormat="1">
+      <c r="A14" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="41" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+    </row>
+    <row r="15" spans="1:46" s="15" customFormat="1">
+      <c r="A15" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="S14" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-    </row>
-    <row r="15" spans="1:46" s="45" customFormat="1">
-      <c r="A15" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+    </row>
+    <row r="16" spans="1:46" s="15" customFormat="1" ht="45">
+      <c r="A16" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="41" t="s">
+      <c r="C16" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="41" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-    </row>
-    <row r="16" spans="1:46" s="45" customFormat="1" ht="45">
-      <c r="A16" s="41" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="41" t="s">
+      <c r="L16" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+    </row>
+    <row r="17" spans="1:39" s="15" customFormat="1">
+      <c r="A17" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="G16" s="41" t="s">
+      <c r="C17" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="41" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-    </row>
-    <row r="17" spans="1:39" s="45" customFormat="1">
-      <c r="A17" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="B17" s="41" t="s">
+      <c r="L17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+    </row>
+    <row r="18" spans="1:39" s="15" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="48" t="s">
+      <c r="C18" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="41" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-    </row>
-    <row r="18" spans="1:39" s="45" customFormat="1">
-      <c r="A18" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" s="41" t="s">
+      <c r="L18" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+    </row>
+    <row r="19" spans="1:39" s="15" customFormat="1">
+      <c r="A19" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="41" t="s">
+      <c r="C19" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="41" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-    </row>
-    <row r="19" spans="1:39" s="45" customFormat="1">
-      <c r="A19" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="41" t="s">
+      <c r="L19" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+    </row>
+    <row r="20" spans="1:39" s="15" customFormat="1">
+      <c r="A20" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-    </row>
-    <row r="20" spans="1:39" s="45" customFormat="1">
-      <c r="A20" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>168</v>
+      <c r="C21" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" s="37"/>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="1" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="16"/>
+      <c r="X21" s="9"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
@@ -4337,51 +4430,51 @@
     </row>
     <row r="22" spans="1:39">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>178</v>
+      <c r="C22" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>179</v>
+        <v>399</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="1" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="16"/>
+      <c r="X22" s="9"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -4400,51 +4493,51 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>173</v>
+      <c r="C23" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>174</v>
+        <v>360</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="1" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="16"/>
+      <c r="X23" s="9"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
@@ -4463,47 +4556,47 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>331</v>
+      <c r="C24" s="35" t="s">
+        <v>281</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>284</v>
+        <v>399</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>234</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="16"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="16"/>
+      <c r="X24" s="9"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
@@ -4522,78 +4615,79 @@
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>286</v>
+      <c r="C25" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="40"/>
       <c r="G25" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="9"/>
       <c r="K25" t="s">
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="16"/>
-      <c r="X25" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="Q25" s="9"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>225</v>
+      <c r="C26" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>397</v>
+      </c>
+      <c r="F26" s="37"/>
       <c r="G26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="1" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="16"/>
+      <c r="X26" s="9"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
@@ -4612,51 +4706,51 @@
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>278</v>
+      <c r="C27" s="35" t="s">
+        <v>228</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>279</v>
+        <v>385</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="16"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="1" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="1" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="16"/>
+      <c r="X27" s="9"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
@@ -4675,51 +4769,51 @@
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>370</v>
+      <c r="C28" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>281</v>
+        <v>385</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>231</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="16">
+      <c r="J28" s="9">
         <v>1</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="16">
+      <c r="Q28" s="9">
         <v>1</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="16"/>
+      <c r="X28" s="9"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
@@ -4738,45 +4832,45 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>282</v>
+      <c r="C29" s="35" t="s">
+        <v>232</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="14"/>
+        <v>385</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" s="39"/>
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="16"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="16"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="16"/>
+      <c r="X29" s="9"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
@@ -4795,45 +4889,45 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>283</v>
+      <c r="C30" s="35" t="s">
+        <v>233</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F30" s="37"/>
       <c r="G30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="16"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="16"/>
+      <c r="X30" s="9"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
@@ -4852,41 +4946,41 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>371</v>
+        <v>78</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>320</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>385</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="37"/>
       <c r="G31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="16"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="16"/>
+      <c r="X31" s="9"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -4905,47 +4999,47 @@
     </row>
     <row r="32" spans="1:39">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>277</v>
+      <c r="C32" s="35" t="s">
+        <v>227</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>139</v>
+        <v>338</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="16"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="16"/>
+      <c r="X32" s="9"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
@@ -4964,47 +5058,47 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>287</v>
+      <c r="C33" s="35" t="s">
+        <v>237</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>139</v>
+        <v>338</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="16"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="16"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="16"/>
+      <c r="X33" s="9"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -5023,47 +5117,47 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>276</v>
+      <c r="C34" s="35" t="s">
+        <v>226</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>184</v>
+        <v>338</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="16"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="16"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="16"/>
+      <c r="X34" s="9"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
@@ -5082,53 +5176,53 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>84</v>
+      <c r="C35" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>364</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>345</v>
+      </c>
+      <c r="F35" s="37"/>
       <c r="G35" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="J35" s="9"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q35" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="Q35" s="9"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="16"/>
+      <c r="X35" s="9"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
@@ -5142,54 +5236,54 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>97</v>
+      <c r="C36" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" t="s">
+        <v>365</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>238</v>
+        <v>344</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="16"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="16"/>
+      <c r="X36" s="9"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
@@ -5208,47 +5302,47 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>97</v>
+      <c r="C37" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>365</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>313</v>
+        <v>344</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>263</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="16"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="16"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="16"/>
+      <c r="X37" s="9"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
@@ -5267,41 +5361,41 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>186</v>
+      <c r="C38" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="11"/>
+        <v>347</v>
+      </c>
+      <c r="F38" s="37"/>
       <c r="G38" t="s">
-        <v>141</v>
-      </c>
-      <c r="J38" s="16">
+        <v>91</v>
+      </c>
+      <c r="J38" s="9">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q38" s="16">
+        <v>138</v>
+      </c>
+      <c r="Q38" s="9">
         <v>1</v>
       </c>
       <c r="S38" t="s">
-        <v>226</v>
-      </c>
-      <c r="X38" s="16">
+        <v>176</v>
+      </c>
+      <c r="X38" s="9">
         <v>1</v>
       </c>
       <c r="Z38" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -5311,53 +5405,53 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>239</v>
+      <c r="C39" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>349</v>
+      </c>
+      <c r="F39" s="37"/>
       <c r="G39" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q39" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="Q39" s="9"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="16"/>
+      <c r="X39" s="9"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -5376,51 +5470,51 @@
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>241</v>
+      <c r="C40" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>240</v>
+        <v>351</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>190</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="16">
+      <c r="J40" s="9">
         <v>1</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="16">
+      <c r="Q40" s="9">
         <v>1</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="16"/>
+      <c r="X40" s="9"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
@@ -5439,51 +5533,51 @@
     </row>
     <row r="41" spans="1:39" ht="45">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>242</v>
+      <c r="C41" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>243</v>
+        <v>351</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="16">
+      <c r="J41" s="9">
         <v>1</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="16">
+      <c r="Q41" s="9">
         <v>1</v>
       </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="16"/>
+      <c r="X41" s="9"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
@@ -5502,68 +5596,68 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>227</v>
+      <c r="C42" s="35" t="s">
+        <v>177</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>348</v>
+      </c>
+      <c r="F42" s="37"/>
       <c r="G42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="16"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="1" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="16"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="1" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="16"/>
+      <c r="X42" s="9"/>
       <c r="Y42" s="1" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -5579,49 +5673,49 @@
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="1" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>228</v>
+      <c r="C43" s="35" t="s">
+        <v>178</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>348</v>
+      </c>
+      <c r="F43" s="37"/>
       <c r="G43" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="16">
+      <c r="J43" s="9">
         <v>1</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="16">
+      <c r="Q43" s="9">
         <v>1</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="16"/>
+      <c r="X43" s="9"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
@@ -5640,49 +5734,49 @@
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="1" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>229</v>
+      <c r="C44" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="11"/>
+        <v>348</v>
+      </c>
+      <c r="F44" s="37"/>
       <c r="G44" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="16">
+      <c r="J44" s="9">
         <v>1</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="16">
+      <c r="Q44" s="9">
         <v>1</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="16"/>
+      <c r="X44" s="9"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
@@ -5701,53 +5795,53 @@
     </row>
     <row r="45" spans="1:39" ht="45">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>185</v>
+      <c r="C45" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="11"/>
+        <v>339</v>
+      </c>
+      <c r="F45" s="37"/>
       <c r="G45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="16"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="16"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="1" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="16"/>
+      <c r="X45" s="9"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
@@ -5766,57 +5860,57 @@
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>224</v>
+      <c r="C46" s="35" t="s">
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="11"/>
+        <v>339</v>
+      </c>
+      <c r="F46" s="37"/>
       <c r="G46" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="16">
+      <c r="J46" s="9">
         <v>4</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="16">
+      <c r="Q46" s="9">
         <v>7</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="16"/>
+      <c r="X46" s="9"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -5835,49 +5929,49 @@
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="1" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>85</v>
+      <c r="C47" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="11"/>
+        <v>339</v>
+      </c>
+      <c r="F47" s="37"/>
       <c r="G47" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="16">
+      <c r="J47" s="9">
         <v>1</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="16">
+      <c r="Q47" s="9">
         <v>1</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="16"/>
+      <c r="X47" s="9"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
@@ -5896,49 +5990,49 @@
     </row>
     <row r="48" spans="1:39" ht="45">
       <c r="A48" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>86</v>
+      <c r="C48" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>98</v>
+        <v>366</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="11"/>
+        <v>339</v>
+      </c>
+      <c r="F48" s="37"/>
       <c r="G48" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="16">
+      <c r="J48" s="9">
         <v>1</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="16">
+      <c r="Q48" s="9">
         <v>1</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="16"/>
+      <c r="X48" s="9"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
@@ -5955,418 +6049,418 @@
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
     </row>
-    <row r="49" spans="1:39" s="51" customFormat="1" ht="30">
-      <c r="A49" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="B49" s="46" t="s">
+    <row r="49" spans="1:39" s="15" customFormat="1" ht="30">
+      <c r="A49" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="48"/>
-      <c r="G49" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="I49" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="J49" s="49"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="P49" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="W49" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="46"/>
-      <c r="AJ49" s="46"/>
-      <c r="AK49" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="AL49" s="46"/>
-      <c r="AM49" s="46"/>
-    </row>
-    <row r="50" spans="1:39">
-      <c r="A50" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" s="41" t="s">
+      <c r="C49" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49" s="37"/>
+      <c r="G49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="W49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+    </row>
+    <row r="50" spans="1:39" s="15" customFormat="1">
+      <c r="A50" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="16">
+      <c r="C50" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="37"/>
+      <c r="G50" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="13">
         <v>1</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="13">
+        <v>1</v>
+      </c>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="16">
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+    </row>
+    <row r="51" spans="1:39" s="15" customFormat="1">
+      <c r="A51" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F51" s="37"/>
+      <c r="G51" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="13">
         <v>1</v>
       </c>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
-      <c r="AK50" s="1"/>
-      <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-    </row>
-    <row r="51" spans="1:39">
-      <c r="A51" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" s="41" t="s">
+      <c r="K51" s="11"/>
+      <c r="L51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="13">
+        <v>1</v>
+      </c>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+    </row>
+    <row r="52" spans="1:39" s="15" customFormat="1">
+      <c r="A52" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="16">
+      <c r="C52" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" s="37"/>
+      <c r="G52" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="13">
         <v>1</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1" t="s">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="13">
+        <v>1</v>
+      </c>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="16">
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+    </row>
+    <row r="53" spans="1:39" s="15" customFormat="1">
+      <c r="A53" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-    </row>
-    <row r="52" spans="1:39">
-      <c r="A52" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="16">
+      <c r="K53" s="11"/>
+      <c r="L53" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="13">
         <v>1</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1" t="s">
+      <c r="R53" s="11"/>
+      <c r="S53" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="16">
-        <v>1</v>
-      </c>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="16"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-    </row>
-    <row r="53" spans="1:39">
-      <c r="A53" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="16">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="16">
-        <v>1</v>
-      </c>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-      <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>231</v>
+      <c r="C54" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>230</v>
+        <v>335</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="G54" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="I54" t="s">
-        <v>320</v>
-      </c>
-      <c r="J54" s="16"/>
+        <v>270</v>
+      </c>
+      <c r="J54" s="9"/>
       <c r="L54" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q54" s="16"/>
-      <c r="X54" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="Q54" s="9"/>
+      <c r="X54" s="9"/>
       <c r="AE54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="1" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>233</v>
+      <c r="C55" s="35" t="s">
+        <v>183</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="F55" s="37"/>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="16"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="1" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="16"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="1" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-      <c r="X55" s="16"/>
+      <c r="X55" s="9"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
@@ -6385,45 +6479,45 @@
     </row>
     <row r="56" spans="1:39" ht="45">
       <c r="A56" s="1" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>234</v>
+      <c r="C56" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="F56" s="37"/>
       <c r="G56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="16"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="16"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-      <c r="X56" s="16"/>
+      <c r="X56" s="9"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
@@ -6442,45 +6536,45 @@
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>235</v>
+      <c r="C57" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="F57" s="37"/>
       <c r="G57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="16"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="16"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-      <c r="X57" s="16"/>
+      <c r="X57" s="9"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
@@ -6499,57 +6593,57 @@
     </row>
     <row r="58" spans="1:39" ht="30">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>232</v>
+      <c r="C58" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="F58" s="37"/>
       <c r="G58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="16"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="1" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="16"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="1" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="16"/>
+      <c r="X58" s="9"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6568,45 +6662,45 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>87</v>
+      <c r="C59" s="35" t="s">
+        <v>84</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>101</v>
+        <v>369</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="11"/>
+        <v>340</v>
+      </c>
+      <c r="F59" s="37"/>
       <c r="G59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="16"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="16"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-      <c r="X59" s="16"/>
+      <c r="X59" s="9"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6625,45 +6719,45 @@
     </row>
     <row r="60" spans="1:39" ht="30">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>288</v>
+      <c r="C60" s="35" t="s">
+        <v>238</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="11"/>
+        <v>323</v>
+      </c>
+      <c r="F60" s="37"/>
       <c r="G60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="16"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="16"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-      <c r="X60" s="16"/>
+      <c r="X60" s="9"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6682,45 +6776,45 @@
     </row>
     <row r="61" spans="1:39" ht="45">
       <c r="A61" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>289</v>
+      <c r="C61" s="35" t="s">
+        <v>239</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="11"/>
+        <v>323</v>
+      </c>
+      <c r="F61" s="37"/>
       <c r="G61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="16"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="16"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-      <c r="X61" s="16"/>
+      <c r="X61" s="9"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -6739,45 +6833,45 @@
     </row>
     <row r="62" spans="1:39" ht="45">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>290</v>
+      <c r="C62" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>102</v>
+        <v>371</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="11"/>
+        <v>322</v>
+      </c>
+      <c r="F62" s="37"/>
       <c r="G62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="16"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="16"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="16"/>
+      <c r="X62" s="9"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -6796,45 +6890,45 @@
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="1" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>292</v>
+      <c r="C63" s="35" t="s">
+        <v>242</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>102</v>
+        <v>371</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="11"/>
+        <v>322</v>
+      </c>
+      <c r="F63" s="37"/>
       <c r="G63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="16"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="16"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="16"/>
+      <c r="X63" s="9"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -6853,91 +6947,91 @@
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>231</v>
+      <c r="C64" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>230</v>
+        <v>323</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="G64" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="I64" t="s">
-        <v>320</v>
-      </c>
-      <c r="J64" s="16"/>
+        <v>270</v>
+      </c>
+      <c r="J64" s="9"/>
       <c r="L64" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q64" s="16"/>
-      <c r="X64" s="16"/>
+        <v>149</v>
+      </c>
+      <c r="Q64" s="9"/>
+      <c r="X64" s="9"/>
       <c r="AE64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>294</v>
+      <c r="C65" s="35" t="s">
+        <v>244</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="11"/>
+        <v>323</v>
+      </c>
+      <c r="F65" s="37"/>
       <c r="G65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="16"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="1" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="16"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="1" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-      <c r="X65" s="16"/>
+      <c r="X65" s="9"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -6956,45 +7050,45 @@
     </row>
     <row r="66" spans="1:39" ht="30">
       <c r="A66" s="1" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>327</v>
+      <c r="C66" s="35" t="s">
+        <v>277</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="11"/>
+        <v>323</v>
+      </c>
+      <c r="F66" s="37"/>
       <c r="G66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="16"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="16"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-      <c r="X66" s="16"/>
+      <c r="X66" s="9"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -7013,47 +7107,47 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>295</v>
+      <c r="C67" s="35" t="s">
+        <v>245</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="11"/>
+        <v>403</v>
+      </c>
+      <c r="F67" s="37"/>
       <c r="G67" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J67" s="16"/>
+        <v>271</v>
+      </c>
+      <c r="J67" s="9"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="16"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="16"/>
+      <c r="X67" s="9"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -7067,52 +7161,52 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="1" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>298</v>
+      <c r="C68" s="35" t="s">
+        <v>248</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="11"/>
+        <v>403</v>
+      </c>
+      <c r="F68" s="37"/>
       <c r="G68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="16"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="16"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="16"/>
+      <c r="X68" s="9"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -7131,45 +7225,45 @@
     </row>
     <row r="69" spans="1:39" ht="45">
       <c r="A69" s="1" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>299</v>
+      <c r="C69" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>102</v>
+        <v>404</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="11"/>
+        <v>403</v>
+      </c>
+      <c r="F69" s="37"/>
       <c r="G69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="16"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="16"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
-      <c r="X69" s="16"/>
+      <c r="X69" s="9"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7188,737 +7282,737 @@
     </row>
     <row r="70" spans="1:39">
       <c r="A70" s="1" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>88</v>
+      <c r="C70" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>140</v>
+        <v>324</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="G70" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="16"/>
+      <c r="J70" s="9"/>
       <c r="K70" t="s">
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q70" s="16"/>
-      <c r="X70" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="Q70" s="9"/>
+      <c r="X70" s="9"/>
       <c r="AE70" s="1"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
     </row>
-    <row r="71" spans="1:39" s="23" customFormat="1">
-      <c r="A71" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="18" t="s">
+    <row r="71" spans="1:39" s="15" customFormat="1">
+      <c r="A71" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="J71" s="21"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18" t="s">
+      <c r="C71" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" s="37"/>
+      <c r="G71" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="J71" s="13"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+    </row>
+    <row r="72" spans="1:39" s="15" customFormat="1" ht="45">
+      <c r="A72" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
+      <c r="AL72" s="11"/>
+      <c r="AM72" s="11"/>
+    </row>
+    <row r="73" spans="1:39" s="15" customFormat="1">
+      <c r="A73" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="W73" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+    </row>
+    <row r="74" spans="1:39" s="15" customFormat="1">
+      <c r="A74" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="21"/>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="18"/>
-      <c r="AA71" s="18"/>
-      <c r="AB71" s="18"/>
-      <c r="AC71" s="18"/>
-      <c r="AD71" s="18"/>
-      <c r="AE71" s="22"/>
-      <c r="AF71" s="18"/>
-      <c r="AG71" s="18"/>
-      <c r="AH71" s="18"/>
-      <c r="AI71" s="18"/>
-      <c r="AJ71" s="18"/>
-      <c r="AK71" s="18" t="s">
+      <c r="E74" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AL71" s="18"/>
-      <c r="AM71" s="18"/>
-    </row>
-    <row r="72" spans="1:39" s="23" customFormat="1" ht="45">
-      <c r="A72" s="18" t="s">
+      <c r="F74" s="37"/>
+      <c r="G74" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+    </row>
+    <row r="75" spans="1:39" s="15" customFormat="1">
+      <c r="A75" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="F75" s="37"/>
+      <c r="G75" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="11"/>
+      <c r="AJ75" s="11"/>
+      <c r="AK75" s="11"/>
+      <c r="AL75" s="11"/>
+      <c r="AM75" s="11"/>
+    </row>
+    <row r="76" spans="1:39" s="15" customFormat="1">
+      <c r="A76" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="18" t="s">
+      <c r="C76" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="37"/>
+      <c r="G76" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="18" t="s">
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="18"/>
-      <c r="AA72" s="18"/>
-      <c r="AB72" s="18"/>
-      <c r="AC72" s="18"/>
-      <c r="AD72" s="18"/>
-      <c r="AE72" s="22"/>
-      <c r="AF72" s="18"/>
-      <c r="AG72" s="18"/>
-      <c r="AH72" s="18"/>
-      <c r="AI72" s="18"/>
-      <c r="AJ72" s="18"/>
-      <c r="AK72" s="18"/>
-      <c r="AL72" s="18"/>
-      <c r="AM72" s="18"/>
-    </row>
-    <row r="73" spans="1:39" s="23" customFormat="1">
-      <c r="A73" s="18" t="s">
+      <c r="L76" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
+      <c r="AC76" s="11"/>
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="11"/>
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="11"/>
+      <c r="AJ76" s="11"/>
+      <c r="AK76" s="11"/>
+      <c r="AL76" s="11"/>
+      <c r="AM76" s="11"/>
+    </row>
+    <row r="77" spans="1:39" s="15" customFormat="1">
+      <c r="A77" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="E77" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" s="37"/>
+      <c r="G77" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="11"/>
+      <c r="AF77" s="11"/>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="11"/>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
+    </row>
+    <row r="78" spans="1:39" s="15" customFormat="1">
+      <c r="A78" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="P73" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="W73" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA73" s="18"/>
-      <c r="AB73" s="18"/>
-      <c r="AC73" s="18"/>
-      <c r="AD73" s="18"/>
-      <c r="AE73" s="22"/>
-      <c r="AF73" s="18"/>
-      <c r="AG73" s="18"/>
-      <c r="AH73" s="18"/>
-      <c r="AI73" s="18"/>
-      <c r="AJ73" s="18"/>
-      <c r="AK73" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="AL73" s="18"/>
-      <c r="AM73" s="18"/>
-    </row>
-    <row r="74" spans="1:39" s="23" customFormat="1">
-      <c r="A74" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B74" s="18" t="s">
+      <c r="C78" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F78" s="37"/>
+      <c r="G78" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J78" s="13"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+      <c r="AA78" s="11"/>
+      <c r="AB78" s="11"/>
+      <c r="AC78" s="11"/>
+      <c r="AD78" s="11"/>
+      <c r="AE78" s="14"/>
+      <c r="AF78" s="11"/>
+      <c r="AG78" s="11"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" s="11"/>
+      <c r="AJ78" s="11"/>
+      <c r="AK78" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL78" s="11"/>
+      <c r="AM78" s="11"/>
+    </row>
+    <row r="79" spans="1:39" s="15" customFormat="1" ht="45">
+      <c r="A79" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="18" t="s">
+      <c r="C79" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" s="37"/>
+      <c r="G79" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="18" t="s">
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L74" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="18"/>
-      <c r="AA74" s="18"/>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="18"/>
-      <c r="AD74" s="18"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="18"/>
-      <c r="AG74" s="18"/>
-      <c r="AH74" s="18"/>
-      <c r="AI74" s="18"/>
-      <c r="AJ74" s="18"/>
-      <c r="AK74" s="18"/>
-      <c r="AL74" s="18"/>
-      <c r="AM74" s="18"/>
-    </row>
-    <row r="75" spans="1:39" s="23" customFormat="1">
-      <c r="A75" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="B75" s="18" t="s">
+      <c r="L79" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="11"/>
+      <c r="AJ79" s="11"/>
+      <c r="AK79" s="11"/>
+      <c r="AL79" s="11"/>
+      <c r="AM79" s="11"/>
+    </row>
+    <row r="80" spans="1:39" s="15" customFormat="1">
+      <c r="A80" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="18" t="s">
+      <c r="C80" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="37"/>
+      <c r="G80" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="18" t="s">
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L75" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="18"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
-      <c r="AC75" s="18"/>
-      <c r="AD75" s="18"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="18"/>
-      <c r="AG75" s="18"/>
-      <c r="AH75" s="18"/>
-      <c r="AI75" s="18"/>
-      <c r="AJ75" s="18"/>
-      <c r="AK75" s="18"/>
-      <c r="AL75" s="18"/>
-      <c r="AM75" s="18"/>
-    </row>
-    <row r="76" spans="1:39" s="23" customFormat="1">
-      <c r="A76" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="B76" s="18" t="s">
+      <c r="L80" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="11"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+    </row>
+    <row r="81" spans="1:39" s="15" customFormat="1">
+      <c r="A81" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="18" t="s">
+      <c r="C81" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="F81" s="37"/>
+      <c r="G81" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="18" t="s">
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
-      <c r="X76" s="21"/>
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="18"/>
-      <c r="AA76" s="18"/>
-      <c r="AB76" s="18"/>
-      <c r="AC76" s="18"/>
-      <c r="AD76" s="18"/>
-      <c r="AE76" s="22"/>
-      <c r="AF76" s="18"/>
-      <c r="AG76" s="18"/>
-      <c r="AH76" s="18"/>
-      <c r="AI76" s="18"/>
-      <c r="AJ76" s="18"/>
-      <c r="AK76" s="18"/>
-      <c r="AL76" s="18"/>
-      <c r="AM76" s="18"/>
-    </row>
-    <row r="77" spans="1:39">
-      <c r="A77" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L77" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="16"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
-      <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-    </row>
-    <row r="78" spans="1:39">
-      <c r="A78" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J78" s="16"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="16"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
-      <c r="AK78" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-    </row>
-    <row r="79" spans="1:39" ht="45">
-      <c r="A79" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-    </row>
-    <row r="80" spans="1:39">
-      <c r="A80" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B80" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="1"/>
-      <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
-      <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-    </row>
-    <row r="81" spans="1:39">
-      <c r="A81" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B81" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1"/>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
-      <c r="AK81" s="1"/>
-      <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
+      <c r="L81" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+      <c r="AA81" s="11"/>
+      <c r="AB81" s="11"/>
+      <c r="AC81" s="11"/>
+      <c r="AD81" s="11"/>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+      <c r="AG81" s="11"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="11"/>
+      <c r="AJ81" s="11"/>
+      <c r="AK81" s="11"/>
+      <c r="AL81" s="11"/>
+      <c r="AM81" s="11"/>
     </row>
     <row r="82" spans="1:39">
       <c r="A82" s="1" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>304</v>
+      <c r="C82" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="11"/>
+        <v>343</v>
+      </c>
+      <c r="F82" s="37"/>
       <c r="G82" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="16">
+      <c r="J82" s="9">
         <v>1</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="Q82" s="16">
+      <c r="Q82" s="9">
         <v>1</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
-      <c r="X82" s="16"/>
+      <c r="X82" s="9"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
@@ -7937,49 +8031,49 @@
     </row>
     <row r="83" spans="1:39">
       <c r="A83" s="1" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>255</v>
+      <c r="C83" s="35" t="s">
+        <v>205</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F83" s="11"/>
+        <v>334</v>
+      </c>
+      <c r="F83" s="37"/>
       <c r="G83" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="16">
+      <c r="J83" s="9">
         <v>1</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-      <c r="Q83" s="16">
+      <c r="Q83" s="9">
         <v>1</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
-      <c r="X83" s="16"/>
+      <c r="X83" s="9"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
@@ -7998,47 +8092,47 @@
     </row>
     <row r="84" spans="1:39">
       <c r="A84" s="1" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>254</v>
+      <c r="C84" s="35" t="s">
+        <v>204</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>261</v>
+        <v>334</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>211</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="16"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="Q84" s="16"/>
+      <c r="Q84" s="9"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
-      <c r="X84" s="16"/>
+      <c r="X84" s="9"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
@@ -8057,55 +8151,55 @@
     </row>
     <row r="85" spans="1:39">
       <c r="A85" s="1" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>263</v>
+      <c r="C85" s="35" t="s">
+        <v>213</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>262</v>
+        <v>334</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>212</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="16">
+      <c r="J85" s="9">
         <v>2</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="16">
+      <c r="Q85" s="9">
         <v>1</v>
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
-      <c r="X85" s="16"/>
+      <c r="X85" s="9"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
@@ -8124,54 +8218,54 @@
     </row>
     <row r="86" spans="1:39">
       <c r="A86" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>89</v>
+      <c r="C86" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>377</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="11"/>
+        <v>341</v>
+      </c>
+      <c r="F86" s="37"/>
       <c r="G86" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="16">
+      <c r="J86" s="9">
         <v>1</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-      <c r="Q86" s="16">
+      <c r="Q86" s="9">
         <v>1</v>
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
-      <c r="X86" s="16">
+      <c r="X86" s="9">
         <v>1</v>
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
@@ -8189,45 +8283,45 @@
     </row>
     <row r="87" spans="1:39">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>90</v>
+      <c r="C87" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>109</v>
+        <v>378</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F87" s="11"/>
+        <v>342</v>
+      </c>
+      <c r="F87" s="37"/>
       <c r="G87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="16"/>
+      <c r="J87" s="9"/>
       <c r="K87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="Q87" s="16"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
-      <c r="X87" s="16"/>
+      <c r="X87" s="9"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
@@ -8246,53 +8340,53 @@
     </row>
     <row r="88" spans="1:39">
       <c r="A88" s="1" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>257</v>
+      <c r="C88" s="35" t="s">
+        <v>207</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F88" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="F88" s="37"/>
       <c r="G88" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="16">
+      <c r="J88" s="9">
         <v>2</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-      <c r="Q88" s="16">
+      <c r="Q88" s="9">
         <v>1</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
-      <c r="X88" s="16"/>
+      <c r="X88" s="9"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
@@ -8311,45 +8405,45 @@
     </row>
     <row r="89" spans="1:39">
       <c r="A89" s="1" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>264</v>
+      <c r="C89" s="35" t="s">
+        <v>214</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F89" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="F89" s="37"/>
       <c r="G89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="16"/>
+      <c r="J89" s="9"/>
       <c r="K89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="16"/>
+      <c r="Q89" s="9"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
-      <c r="X89" s="16"/>
+      <c r="X89" s="9"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
@@ -8368,45 +8462,45 @@
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="1" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>256</v>
+      <c r="C90" s="35" t="s">
+        <v>206</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F90" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="F90" s="37"/>
       <c r="G90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="16"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="16"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
-      <c r="X90" s="16"/>
+      <c r="X90" s="9"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
@@ -8425,53 +8519,53 @@
     </row>
     <row r="91" spans="1:39">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>260</v>
+      <c r="C91" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F91" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="F91" s="37"/>
       <c r="G91" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J91" s="16"/>
+        <v>279</v>
+      </c>
+      <c r="J91" s="9"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q91" s="16"/>
+        <v>280</v>
+      </c>
+      <c r="Q91" s="9"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
-      <c r="X91" s="16"/>
+      <c r="X91" s="9"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
@@ -8490,49 +8584,49 @@
     </row>
     <row r="92" spans="1:39">
       <c r="A92" s="1" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>259</v>
+      <c r="C92" s="35" t="s">
+        <v>209</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F92" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="F92" s="37"/>
       <c r="G92" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="16">
+      <c r="J92" s="9">
         <v>1</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="16">
+      <c r="Q92" s="9">
         <v>1</v>
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
-      <c r="X92" s="16"/>
+      <c r="X92" s="9"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
@@ -8551,49 +8645,49 @@
     </row>
     <row r="93" spans="1:39">
       <c r="A93" s="1" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>265</v>
+      <c r="C93" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="F93" s="37"/>
       <c r="G93" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="16">
+      <c r="J93" s="9">
         <v>1</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="16">
+      <c r="Q93" s="9">
         <v>1</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
-      <c r="X93" s="16"/>
+      <c r="X93" s="9"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
@@ -8612,45 +8706,45 @@
     </row>
     <row r="94" spans="1:39">
       <c r="A94" s="1" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>91</v>
+      <c r="C94" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="F94" s="37"/>
       <c r="G94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="16"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="16"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
-      <c r="X94" s="16"/>
+      <c r="X94" s="9"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
@@ -8669,45 +8763,45 @@
     </row>
     <row r="95" spans="1:39">
       <c r="A95" s="1" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>268</v>
+      <c r="C95" s="35" t="s">
+        <v>218</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="F95" s="37"/>
       <c r="G95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="16"/>
+      <c r="J95" s="9"/>
       <c r="K95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="16"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
-      <c r="X95" s="16"/>
+      <c r="X95" s="9"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
@@ -8726,47 +8820,47 @@
     </row>
     <row r="96" spans="1:39">
       <c r="A96" s="1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>271</v>
+      <c r="C96" s="35" t="s">
+        <v>221</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>270</v>
+        <v>329</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="16"/>
+      <c r="J96" s="9"/>
       <c r="K96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="Q96" s="16"/>
+      <c r="Q96" s="9"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
-      <c r="X96" s="16"/>
+      <c r="X96" s="9"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
@@ -8785,41 +8879,41 @@
     </row>
     <row r="97" spans="1:39">
       <c r="A97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>272</v>
+      <c r="C97" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>114</v>
+        <v>381</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F97" s="11"/>
+        <v>330</v>
+      </c>
+      <c r="F97" s="37"/>
       <c r="G97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="16"/>
+      <c r="J97" s="9"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="16"/>
+      <c r="Q97" s="9"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
-      <c r="X97" s="16"/>
+      <c r="X97" s="9"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
@@ -8838,41 +8932,41 @@
     </row>
     <row r="98" spans="1:39" ht="45">
       <c r="A98" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>273</v>
+        <v>78</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>223</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>113</v>
+        <v>382</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F98" s="11"/>
+        <v>331</v>
+      </c>
+      <c r="F98" s="37"/>
       <c r="G98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="16"/>
+      <c r="J98" s="9"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="16"/>
+      <c r="Q98" s="9"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
-      <c r="X98" s="16"/>
+      <c r="X98" s="9"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
@@ -8891,41 +8985,41 @@
     </row>
     <row r="99" spans="1:39" ht="45">
       <c r="A99" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>274</v>
+        <v>78</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>224</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>113</v>
+        <v>382</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="11"/>
+        <v>331</v>
+      </c>
+      <c r="F99" s="37"/>
       <c r="G99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="16"/>
+      <c r="J99" s="9"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="16"/>
+      <c r="Q99" s="9"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
-      <c r="X99" s="16"/>
+      <c r="X99" s="9"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
@@ -8944,45 +9038,45 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100" s="1" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>253</v>
+      <c r="C100" s="35" t="s">
+        <v>203</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F100" s="11"/>
+        <v>332</v>
+      </c>
+      <c r="F100" s="37"/>
       <c r="G100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="16"/>
+      <c r="J100" s="9"/>
       <c r="K100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="Q100" s="16"/>
+      <c r="Q100" s="9"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
-      <c r="X100" s="16"/>
+      <c r="X100" s="9"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
@@ -9001,41 +9095,41 @@
     </row>
     <row r="101" spans="1:39" ht="45">
       <c r="A101" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>250</v>
+        <v>78</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F101" s="11"/>
+        <v>333</v>
+      </c>
+      <c r="F101" s="37"/>
       <c r="G101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="16"/>
+      <c r="J101" s="9"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="Q101" s="16"/>
+      <c r="Q101" s="9"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
-      <c r="X101" s="16"/>
+      <c r="X101" s="9"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
@@ -9054,71 +9148,71 @@
     </row>
     <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>221</v>
-      </c>
-      <c r="B102" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>252</v>
+      <c r="C102" s="35" t="s">
+        <v>202</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F102" s="13"/>
+        <v>332</v>
+      </c>
+      <c r="F102" s="39"/>
       <c r="G102" t="s">
         <v>2</v>
       </c>
-      <c r="J102" s="16"/>
+      <c r="J102" s="9"/>
       <c r="K102" t="s">
         <v>3</v>
       </c>
       <c r="L102" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q102" s="16"/>
-      <c r="X102" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="Q102" s="9"/>
+      <c r="X102" s="9"/>
     </row>
     <row r="103" spans="1:39" ht="45">
       <c r="A103" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>251</v>
+        <v>78</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F103" s="11"/>
+        <v>333</v>
+      </c>
+      <c r="F103" s="37"/>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="16"/>
+      <c r="J103" s="9"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
-      <c r="Q103" s="16"/>
+      <c r="Q103" s="9"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
-      <c r="X103" s="16"/>
+      <c r="X103" s="9"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
@@ -9137,71 +9231,71 @@
     </row>
     <row r="104" spans="1:39" ht="45">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>275</v>
+      <c r="C104" s="35" t="s">
+        <v>225</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>114</v>
+        <v>381</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F104" s="13"/>
+        <v>330</v>
+      </c>
+      <c r="F104" s="39"/>
       <c r="G104" t="s">
         <v>2</v>
       </c>
-      <c r="J104" s="16"/>
+      <c r="J104" s="9"/>
       <c r="K104" t="s">
         <v>3</v>
       </c>
       <c r="L104" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q104" s="16"/>
-      <c r="X104" s="16"/>
+        <v>74</v>
+      </c>
+      <c r="Q104" s="9"/>
+      <c r="X104" s="9"/>
     </row>
     <row r="105" spans="1:39" ht="45">
       <c r="A105" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>258</v>
+        <v>78</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>208</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>114</v>
+        <v>384</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F105" s="11"/>
+        <v>333</v>
+      </c>
+      <c r="F105" s="37"/>
       <c r="G105" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="16"/>
+      <c r="J105" s="9"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
-      <c r="Q105" s="16"/>
+      <c r="Q105" s="9"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
-      <c r="X105" s="16"/>
+      <c r="X105" s="9"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>

--- a/CivilWarNarrative/bin/SoldierStory.xlsx
+++ b/CivilWarNarrative/bin/SoldierStory.xlsx
@@ -253,7 +253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Robert Cigna:</t>
         </r>
@@ -262,10 +262,12 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The filename (or path) to the image to use as a background. The image ideally should be modified to match the dimensions of the application, as it will look terrible if Flash scales it. It need not be recolored, however, as a color filter is automatically applied by the application.</t>
+The prompt text appears in a small box to the upper right. 
+It is used to convey tengential information or define terms. 
+If not specified, the box does not appear.</t>
         </r>
       </text>
     </comment>
@@ -289,7 +291,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Text that appears in the lower right and gives the source for the background image.</t>
+The filename (or path) to the image to use as a background. The image ideally should be modified to match the dimensions of the application, as it will look terrible if Flash scales it. It need not be recolored, however, as a color filter is automatically applied by the application.</t>
         </r>
       </text>
     </comment>
@@ -313,7 +315,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Text that appears in the upper right such as instructions or statistics that are tangential to the story. If left blank, no box will appear.</t>
+Text that appears in the lower right and gives the source for the background image.</t>
         </r>
       </text>
     </comment>
@@ -1128,13 +1130,13 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="testfile" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\Users\Rob\Desktop\nbtbsoldierstory\CivilWarNarrative\bin\converteddata.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="C:\Users\Rob\Desktop\nbtbsoldierstory\CivilWarNarrative\bin\narrativedata.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="411">
   <si>
     <t>titleslide</t>
   </si>
@@ -1385,21 +1387,12 @@
     <t>You lay down your hand, and the other players scowl and toss their cards on the table. You won!&lt;br/&gt;&lt;br/&gt;You may have won a lot of money from them, but since everyone was betting their future pay, you don’t actually walk away with any currency. It’ll be up to you to remind them how much they owe.</t>
   </si>
   <si>
-    <t>You lay down your hand, but with a grin someone on the other side of the table lays down his hand. You lost. Even if you do get paid soon, you won’t be spending money for a while.&lt;br/&gt;&lt;br/&gt;You hope this isn’t a bad omen.</t>
-  </si>
-  <si>
     <t>You decide to break off from the march for a bit. You and your friends build a fire on the side of the road and roast some coffee beans, then brew coffee and drink it. By now your place in the march has long since passed, and you have to hurry to catch up. Of course, the other marching soldiers are tired, too, and aren’t too keen to move aside for you.</t>
   </si>
   <si>
     <t>The routine at this new camp is the same as the others, except with no time to go to town, as there is none nearby. Being on the front lines – near the enemy – means the soldiers are on edge.&lt;br/&gt;&lt;br/&gt;One night it finally happens. The long roll sounds, and all is chaos as everyone dashes to grab their weapons and form a defensive line.&lt;br/&gt;&lt;br/&gt;Then, from the darkness, you hear a sergeant’s voice yelling that everything is fine, it was only a pig that got loose in the camp and was mistaken for a rebel. Of course, no one got any more sleep that night.</t>
   </si>
   <si>
-    <t>Evidently the enemy is very interested in the specific plot of ground which you yourself are occupying, because your company scarcely looses a volley before the enemy’s retort is returned – by cannon-fire.&lt;br/&gt;&lt;br/&gt;The approaching shells are given away by a distinctive and unnerving whistling, but by the time it is apparent those shells are aimed at you, there is but a scant moment to react.&lt;br/&gt;&lt;br/&gt;One round screams into your midst, and makes a deafening rumble as it is embedded into the earth behind you. Turning, you see a pile of what must have been a man a moment ago that is now being dusted by a shower of earth.&lt;br/&gt;&lt;br/&gt;Another shell hits a tree nearby, sending a cloud of splinters towards some of the soldiers.</t>
-  </si>
-  <si>
-    <t>This goes on for what seems to you to be days, although it can’t have been, since the sun never set. Your hands and face are black with powder, your throat hoarse from smoke and yelling, but you realize that you haven’t heard a cannon shot in a while.&lt;br/&gt;&lt;br/&gt;Gradually, the crack of gunpowder from across the field dies down and – cautiously – the men stand up to get a better view. There doesn’t seem to be any sign of the enemy, and one soldier points farther down the field to a group of friendly soldiers on the other side of the field. &lt;br/&gt;&lt;br/&gt;It seems the battle has been won after all.</t>
-  </si>
-  <si>
     <t>The assistant surgeon informs you that since you are well enough to stand, it is now your duty to help out around the hospital tent.&lt;br/&gt;&lt;br/&gt;You still have two good legs, unlike some of the others around here, so you can get around without a crutch, and carry food and water to the other patients with your remaining good arm.&lt;br/&gt;&lt;br/&gt;After a few weeks, you are removed from the field hospital and sent by train to a general hospital, where you are found to be fit to leave and discharged. With your disability, the army wants nothing to do with you anymore.</t>
   </si>
   <si>
@@ -1490,12 +1483,6 @@
     <t>freeman</t>
   </si>
   <si>
-    <t>Life for you here in your hometown is quiet but fairly productive. You own a small farm in the countryside just outside a small town. You and your wife, with whom you have been married only around five years, grow produce and raise chickens. What you don't eat yourselves you sell to a man in town who himself takes it to the city to peddle. Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy that horse-drawn plow you've been eyeing. Of course, going off to war would mean leaving your wife and children alone on the farm. They say it will be a 30 days war. You'd be back in time for the harvest, anyway, right?</t>
-  </si>
-  <si>
-    <t>The Confederate States: South Carolina, Mississippi, Florida, Alabama, Georgia, Louisiana, Texas, Virginia, Arkansas, Tennessee, and North Carolina. &lt;br/&gt;&lt;br/&gt;The Confederate States have a population of , including  slaves. But less than 10% of the free population, only 316,632 people, own any slaves at all. Except for the black slaves (and few free blacks), there is very little ethnic diversity, and except for New Orleans, no big cities. &lt;br/&gt;&lt;br/&gt;Everyone you know curses those Yankees for not letting the Southerners be as they are. Many have done the honorable thing and enlisted to fight for home and freedom by driving the Yankees out. Why would any self-respecting man not join them?</t>
-  </si>
-  <si>
     <t>The loyal states: New York, Vermont, New Hampshire, Maine, Pennsylvania, Connecticut, Massachusetts, Rhode Island, New Jersey, Ohio, Indiana, Illinois, Michigan, Wisconsin, Minnesota, Iowa, Kansas, California, Oregon, Missouri, Maryland, Delaware, Kentucky, and later West Virginia and Nevada. &lt;br/&gt;&lt;br/&gt;The North is a diverse place, with around 23 million free population, and several large cities. The landscape varies from farmland to mines to factories in the cities. &lt;br/&gt;&lt;br/&gt;Though Lincoln wants only to preserve the Union, there are many who want more. You, however, just want to see the country, fight some rebels, and earn a decent wage.</t>
   </si>
   <si>
@@ -1505,27 +1492,12 @@
     <t>The two RED columns contain all the text (except button labels) that is a part of the story itself. Certain columns can and should be left blank (particularly the far-right).</t>
   </si>
   <si>
-    <t>At the very least, it has been an exciting few years since moving out west to work in the mines. You, your family, and all the other miners and their families live in rough plank sheds down the hill from the mine. You and your wife, who emigrated to America with you six years ago, have three children. It would be hard enough to feed them without the scarcity of food and water out here.&lt;br/&gt;&lt;br/&gt;Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, since you wouldn't earn that much more as a soldier, but everyone else seems so enthused about enlisting, and there has been talk about the mines drying up soon. If you were a soldier, you wouldn't have to deal with cramped tunnels, cave-ins, or pools of scalding hot water, but of course you might be shot. And true, going off to war would mean leaving your wife and children alone, but soldiering could be a steady job... if you survive.</t>
-  </si>
-  <si>
-    <t>At the time of the Civil War, the &lt;a href="http://en.wikipedia.org/wiki/California_Gold_Rush"&gt;California Gold Rush&lt;/a&gt; had already deeply affected American culture, and more recently, the &lt;a href="http://en.wikipedia.org/wiki/Comstock_Lode"&gt;Comstock Lode&lt;/a&gt; was drawing men, women and their families out west again. But the more gold or silver was pulled out of the ground, the deeper they had to dig to find more.</t>
-  </si>
-  <si>
-    <t>In November of 1860, Abraham Lincoln is elected President of the United States. The next month, the southern states begin to secede. In March of 1861, President Lincoln takes office and delivers his &lt;a href="http://www.bartleby.com/124/pres31.html"&gt;First Inaugural Address&lt;/a&gt;, which asserts his intention to preserve the union by compromise.&lt;br/&gt;&lt;br/&gt;One month later, however, Fort Sumter is besieged by Confederates, and taken. Lincoln calls for 75,000 men to preserve the Union, but his call to arms galvanizes the Border States. A handful more of them secede and war is begun.</t>
-  </si>
-  <si>
     <t>hometown-cfarm</t>
   </si>
   <si>
     <t>hometown-slave</t>
   </si>
   <si>
-    <t>Life for you here in your hometown is not too easy. Living in an apartment within the city limits, you work at a mill on the river's edge. You and your wife, with whom you have been married only around five years, have two children, and another on the way. Feeding your growing family is hard on a laborer's wage.&lt;br/&gt;&lt;br/&gt;Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy some new clothes for your oldest. Of course, going off to war would mean leaving your wife and children alone, but a soldier is paid more than a millworker...</t>
-  </si>
-  <si>
-    <t>In the late 19th century, industrial plants were more commonly referred to as "mills" than "factories".</t>
-  </si>
-  <si>
     <t>substitute</t>
   </si>
   <si>
@@ -1541,12 +1513,6 @@
     <t>Earlier in the war, when the it was thought it could not last this long, doctors were more selective, and checked for &lt;i&gt;fitness&lt;/i&gt; rather than unfitness for duty.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tonight, some of the fellows are gathering to play cards by candlelight. The officers say gambling isn’t allowed, but there will probably be stakes anyway. They offer you to join in their poker game. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Living in the camps is harder than you expected. Up at dawn, roll call, wash, marching drills, then breakfast. More drilling – and any work that needs to be done before dinner at noon. The afternoon is a brief respite to go into town. Then target practice, more drilling, tent inspection, and finally evening parade at half past five. Then the moon rises, and until ten the camp is aglow with candle- and fire-light. </t>
-  </si>
-  <si>
     <t>training</t>
   </si>
   <si>
@@ -1631,9 +1597,6 @@
     <t>march-victory</t>
   </si>
   <si>
-    <t>ambulance</t>
-  </si>
-  <si>
     <t>surgery-arm</t>
   </si>
   <si>
@@ -1655,30 +1618,12 @@
     <t>A Soldier's Story</t>
   </si>
   <si>
-    <t>It is a misconception that the war was fought by the North to end slavery. The abolitionists called for an end to slavery, but Lincoln did not make ending slavery a condition of ending the war until the &lt;a href="http://www.archives.gov/exhibits/featured_documents/emancipation_proclamation/"&gt;Emancipation Proclamation&lt;/a&gt; of 1863.</t>
-  </si>
-  <si>
-    <t>You play a hand. Then another – and another. The stakes are getting higher and higher until The bet is no less than four months pay. You have a decent hand, but you can’t tell if someone else has a better one. You might as well go all in at this point, there’s nothing more to lose.</t>
-  </si>
-  <si>
-    <t>Today a recruitment rally is being held downtown. Everyone is taking the day off to see the band from the big city play. &lt;br/&gt;&lt;br/&gt;The band plays a selection of pieces so stirring that you can't help but imagine a battalion of troops marching in strict formation towards battle, bayonet-tipped muskets pointed sharply to the heavens, steeling themselves for battle. It almost brings a tear to your eye to think of the bravery and valor of the men in the army now, fighting for the cause. &lt;br/&gt;&lt;br/&gt;Several men have walked up to the stage and are signing the enlistment roll now.</t>
-  </si>
-  <si>
     <t>merchant</t>
   </si>
   <si>
-    <t>Sometime today, a traveling merchant wandered into the camp. The fellows are all gathered around the back of his wagon where his goods are on display. &lt;br/&gt;&lt;br/&gt;When you are closer, you hear him talking about an "amazing water filterer" that, he claims, can filter and make safe even the dirtiest of water. It seems to be a rubber tube with a mouthpiece at one end and a cone-shaped, porous stone at the other end. "Just put the water you want to drink in your canteen," he says, "and put this end in with it, then drink from here!". &lt;br/&gt;&lt;br/&gt;Next he pulls out (with some effort) what appear to be a vest with metal plates stitched into the front of it. "This," he begins, "is no less than a bullet-proof vest!" There is a murmur of mixed excitement and disbelief from the crowd. "Wearing this," he continues, "you cannot be hurt by musket balls!" You wonder about what would happen if it was shot by a musket ball, but he assures the crowd that anyone wearing the vest would be safe. &lt;br/&gt;&lt;br/&gt;It is getting later now and a few soldiers are haggling with the merchant, but others are going off to make use of the little free time left.</t>
-  </si>
-  <si>
     <t>You approach the merchant and ask to see the bullet-proof vest. Holding it in your hands, it is quite heavy. You tell the merchant you are interested in purchasing the vest. He asks $50 for it.  A steep price -- more than four months worth of pay -- but if it saves your life, it's worth it, right?</t>
   </si>
   <si>
-    <t>You approach the merchant and ask to see the water filterer. Holding it in your hands, it is quite a simple device indeed. You tell the merchant you are interested in purchasing the device. He asks $8 for it.  It is quite expensive, at more than a half months pay, but it should more than make up for it when you are thirsty on the road, right?</t>
-  </si>
-  <si>
-    <t>For marches where the soldiers needed to bring all of their possessions, they were given three hours notice. For marches where they would return to the camp later, they were given an hour or even a half-hour notice.</t>
-  </si>
-  <si>
     <t>The order has come down to march to a new campsite in three hours time. You and your company pack up your possessions and then the tent, and begin marching. &lt;br/&gt;&lt;br/&gt;The marching is hard work, since you are carrying all of your gear. In the middle of the day, there is a break to eat. As the day wears on, what was once strict formation is now merely a ramshackle crowd of soldiers stumbling down the road.</t>
   </si>
   <si>
@@ -1694,39 +1639,12 @@
     <t>It's hard to walk, but you just can't bear to part with the vest you paid so dearly for. It might save your life, after all! &lt;br/&gt;&lt;br/&gt; Walking is very difficult, and the stiffness of the vest makes you gait undignified and not unlike a waddle. Gradually, the rest of the soldiers pull ahead of you until it is only you and a few other stragglers on the road.</t>
   </si>
   <si>
-    <t>The new recruits are told to line up to meet the quartermaster. After waiting in line for a while, chatting with the other soldiers, you are finally called in to the warehouse to see the quartermaster. He walks you past stacks of goods, picking up one from each and handing them to you: haversack, canteen, knapsack, blanket, tent fly, Enfield rifled-musket, and catridge box. He makes some marks on a piece of paper, and sends you out.</t>
-  </si>
-  <si>
-    <t>The new recruits are told to line up to meet the quartermaster. After waiting in line for a while, chatting with the other soldiers, you are finally called in to the warehouse to see the quartermaster. He walks you past stacks of goods, picking up one from each and handing them to you: haversack, canteen, knapsack, blanket, tent fly, Springfield rifled-musket, and catridge box. He makes some marks on a piece of paper, and sends you out.</t>
-  </si>
-  <si>
-    <t>Catridges for the Springfield rifle were not the same as they are today. They consisted of a bullet and premeasured power wrapped in cloth, which was opened and poured into the barrel of the musket.</t>
-  </si>
-  <si>
-    <t>Later in the day, the soldiers make their way to the commisary depot, where rations are being handed out. Once everyone has their food, the soldiers begin breaking off into groups to share cooking fires. Within your group, there is a man who everyone agrees is the best cook, so they all let him cook their meals in exchange for small favors here and there. In some other groups, you can see people cooking for themselves. Having never really tried your hand at cooking, you decide to let the group's cook handle your food.</t>
-  </si>
-  <si>
     <t>Both sides struggled to sustain their troops. Between the lack of refrigeration and lack of nutrion, soldiers' diets were not exactly healthy.</t>
   </si>
   <si>
-    <t>Dinner tonight is typical, the other soldiers say: salt beef, rice, and beans. On the side is a biscuit the soldiers call a hardtack, because of the stiffness of the bread. To drink there is tea. It's certainly not as appetizing as a homecooked meal, but you didn't join up for the food, did you?</t>
-  </si>
-  <si>
-    <t>Dinner tonight is typical, the other soldiers say: salt pork, cornmeal, and beans. On the side is a small, soft biscuit. To drink there is tea. It's certainly not as appetizing as a homecooked meal, but you didn't join up for the food, did you?</t>
-  </si>
-  <si>
-    <t>The Confederacy had trouble supplying food to its soldiers. Between the lack of an organized commisary and the trade embargo, soldiers typically had to make do with less.</t>
-  </si>
-  <si>
-    <t>The letter carrier arrives today. All the men swarm around the back of the mail wagon like pigs to the trough. &lt;br/&gt;&lt;br/&gt;As the mail carrier calls out names one by one, the men whose names are called yelp with excitement and accept their mail as if they were accepting their lottery winnings.</t>
-  </si>
-  <si>
     <t>Finally, he calls out your name, and you take your letter back to your tent to read it.</t>
   </si>
   <si>
-    <t>After waiting pateintly, the letter carrier calls out, "last one!"&lt;br/&gt;&lt;br/&gt;You and the remaining soldiers lean in with anticipation. He calls out the addressee, and it's not you. Dejectedly, you head back to your tent.</t>
-  </si>
-  <si>
     <t>letter-farm</t>
   </si>
   <si>
@@ -1742,48 +1660,18 @@
     <t>You survived your first battle, but your army was defeated! Despite the enormous death toll, soldiers were still more likely to survive than not, but that fact barely makes up for the harsh quality of life for Civil War soldiers.</t>
   </si>
   <si>
-    <t>The men are sullen and mostly on the march back to camp. &lt;br/&gt;&lt;br/&gt;Every so often, a soldier will let out a long sigh, or curse under their breath. The others around him barely notice. &lt;br/&gt;&lt;br/&gt;Everyone is either ashamed of the defeat, mourning a friend, or simply in shock.</t>
-  </si>
-  <si>
     <t>The men are all aglow with pride and flush with relief from surviving the battle on the march back to camp. &lt;br/&gt;&lt;br/&gt;Soldiers all around are boasting of great feats of bravery and grace – making a strongman pose to mimic standing up to taunt the enemy, cartwheels to dodge enemy musket balls at the last moment, and more. &lt;br/&gt;&lt;br/&gt;Whether all of these tales are true can’t be gleaned from the faces of the exuberant men. Perhaps it is the shock that makes it easier to ignore the deaths, yet every so often, someone calls out for a friend to listen to their story, only to be met with silence, before another soldier steps in to lighten the mood again.</t>
   </si>
   <si>
     <t>Screaming now almost as much with fear as with fury, you raise your bayonet in preparation for plunging into the enemy ranks, but as you crest the ridge, there is no one to be seen. Farther down the line, there is an abandoned battery of six guns being cautiously examined by some other men.&lt;br/&gt;&lt;br/&gt;Some other soldiers are now hollering “we won!” and cheering. Shortly, the general himself appears and compliments you and your company for capturing a battery of artillery.</t>
   </si>
   <si>
-    <t>The battling is fierce, minnie balls squealing past overhead and thudding as they embed into trees or softly gasping as they burrow into the ground.&lt;br/&gt;&lt;br/&gt;Suddenly, the order is given to “dress on colors”, and – those men that can – form up on the colors in preparation for a charge. &lt;br/&gt;&lt;br/&gt;The soldiers put on their most intimidating grimace as the charge begins. All semblance of formation is lost as the men are consumed with battle fury – whooping and hollering as they go.&lt;br/&gt;&lt;br/&gt;The yelling serves to lift the heart out of fear, but also to strike the same into the enemy. The helter-skelter crowd races towards the enemy, whose location is evidenced only by the plume of smoke at the opposite end of the field. The whizzing of bullets can still be heard, and every now and then so can a grunt and a thud, as a man is injured and falls.</t>
-  </si>
-  <si>
-    <t>The shouting, booming, and crackling of musket-fire blend together as you struggle to stay awake, when you become aware of someone talking to you.&lt;br/&gt;&lt;br/&gt;“— you stand up?”&lt;br/&gt;&lt;br/&gt;You confirm. The tourniquet they put around your arm is extremely tight, but at least it’s a distraction. The medics made a sling for you from part of your uniform, and help you on your feet.&lt;br/&gt;&lt;br/&gt;The soldiers are expressionless as they collect the wounded, who shamble or are carried to an ambulance wagon. The stretchers take a lot of space in the wagons, and some of the less wounded must cling to the steps of the wagons while in motion. It’s a bumpy ride, but pain keeps the noise to a low groan.</t>
-  </si>
-  <si>
-    <t>This seems to go on for a long time, but in truth it couldn’t have lasted more than a single hour before you feel a searing pain in your arm. Clutching at the pain, you feel moist cloth, and withdraw a red-stained hand. &lt;br/&gt;&lt;br/&gt;You try to roll over, and find that neither can you move your left arm, nor is its newfound degree of freedom very pleasant.&lt;br/&gt;&lt;br/&gt;Yelling for help, you are largely ignored or told to be quiet and wait for the stretcher-bearers.</t>
-  </si>
-  <si>
     <t>You did not survive the war, but at least you died honorably, on the field of battle. As a soldier, you were far more likely to die from disease or infection than to die immediately after being shot or stabbed.</t>
   </si>
   <si>
-    <t>When the surgeon finally reaches you, the prescription is a foregone conclusion: amputation. You are given an inhaler of chloroform, a curious device the size of a deck of cards with two tubes poking out, one for air to go in, one for air to go out. Breathing through the device, you begin to feel drowsy, but still awake.&lt;br/&gt;&lt;br/&gt;After moving you to the operating table, the surgeon begins poking the wound with his fingers to find debris and fragments of bullet, and once satisfied begins the procedure.&lt;br/&gt;&lt;br/&gt;By the end, there is a moist bandage wrapped around your foreshortened limb and a new arm on the pile.</t>
-  </si>
-  <si>
-    <t>The ambulance wagon stops in front of the field hospital, back at camp.&lt;br/&gt;&lt;br/&gt;The first thing you notice when stepping inside is the odor: the smell of fresh blood and pus. Here too there hangs in the air a painful absence of screaming. Whether this is due more to pain, fear, or anesthetic is unknowable.&lt;br/&gt;&lt;br/&gt;Before taking a seat, a convalescent hands you a cup of liquor, “to help you calm down,” he says.</t>
-  </si>
-  <si>
     <t>Bayonet charges were common, but hand to hand combat was not. More often, the enemy would retreat rather than engage.</t>
   </si>
   <si>
-    <t>Grapeshot -- many small rounds wedged between two metal plates that are loaded into field artillery instead of one large round.</t>
-  </si>
-  <si>
-    <t>Screaming now almost as much with fear as with fury, you raise your bayonet in preparation for plunging into the enemy ranks, but as you crest the ridge, you hear a familiar sound. Your eyes are drawn to its source: an artillery piece's muzzle flash from the left side of the enemies' ranks. &lt;br/&gt;&lt;br/&gt;Less than a second later, your ranks are met with grapeshot as they whiz through the air, burrow through the men, and come to rest in small puffs of dirt. You feel something hit your leg, and you collapse forward. Shocked and in pain, you lay still as the rest of the soldiers charge past.</t>
-  </si>
-  <si>
-    <t>This goes on for what seems to you to be days, although it can’t have been, since the sun never set. Your hands and face are black with powder, your throat hoarse from smoke and yelling. You and the other soldiers are running low on ammunition and morale. &lt;br/&gt;&lt;br/&gt;Abruptly, the crack of gunfire from the enemy ranks ceases. Hesitantly, one of the soldiers peeks out from behind his cover, gasps, and stands up to run away. Peering around the corner, you see why: the enemy has regrouped and has begun to charge, whooping and hollering, bayonets aimed at you.&lt;br/&gt;&lt;br/&gt;Just then, an officer rides up on his horse, yelling "retreat!" The soldiers don't need to be told twice.</t>
-  </si>
-  <si>
-    <t>When the surgeon finally reaches you, the prescription is a foregone conclusion: amputation. You are given an inhaler of chloroform, a curious device the size of a deck of cards with two tubes poking out, one for air to go in, one for air to go out. Breathing through the device, you begin to feel drowsy, but still awake.&lt;br/&gt;&lt;br/&gt;After moving you to the operating table, the surgeon begins poking the wound with his fingers to find debris and fragments of bullet, and once satisfied begins the procedure.&lt;br/&gt;&lt;br/&gt;By the end, there is a moist bandage wrapped around your foreshortened limb and a new leg on the pile.</t>
-  </si>
-  <si>
     <t>convalescent-arm</t>
   </si>
   <si>
@@ -1796,9 +1684,6 @@
     <t>infection</t>
   </si>
   <si>
-    <t>It was believed that excessive pus was a sign of healing -- we know today it is in fact a sign of infection.</t>
-  </si>
-  <si>
     <t>After the surgery, you stay in bed for a few days recovering. The stump where your amputated limb used to be begins to bloat and discolor with pus under the skin. The doctor says this is healthy and a sign your body is healing.&lt;br/&gt;&lt;br/&gt;Each day you feel weaker and weaker, until you are so weak you can't feed yourself. Eventually, you can't even eat the food that is fed to you. The doctor can't do anything more for you.</t>
   </si>
   <si>
@@ -1811,18 +1696,9 @@
     <t>You survived the war, but left your leg behind.&lt;br/&gt;&lt;br/&gt;The weapons used during the Civil War were primitive by today's standards. They did not kill efficiently -- they caused horrible, maiming injuries that often required amuptation.</t>
   </si>
   <si>
-    <t>The shouting, booming, and crackling of musket-fire blend together as you struggle to stay awake, fading together into a hazy noise. Your eyes are closed. Your last thought is of home, and the people you left behind, before everything goes dark.</t>
-  </si>
-  <si>
     <t>Seeing no other option than to enlist, you sign the recruitment roll.&lt;br/&gt;&lt;br/&gt;You are given an appointment with the town doctor, who checks to see if you aren't fit for duty. He has you take off your clothes and performs a thorough examination. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
   </si>
   <si>
-    <t>Having no shortage of patriotism yourself, you find a group of like-minded men and agree to form a company with them.&lt;br/&gt;&lt;br/&gt;Meeting at the town hall, you sign the recruitment roll. Then, you are given an appointment with the town doctor, who checks to see if you are fit for duty. He has you take off your clothes and do jumping jacks, bend over, and delivers a pair of sound whacks to the stomach and back. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
-  </si>
-  <si>
-    <t>Today there is a knock at the door. The man on the other side informs you that you have been drafted and must report to the town hall after settling your personal affairs. He hands you a notice, bids you farewell, and walks off, no doubt to deliver his next conscription notice. &lt;br/&gt;&lt;br/&gt;You have heard of others avoiding the draft in the past, but you're not sure how well it worked for them, or even whether they were telling the truth, however.</t>
-  </si>
-  <si>
     <t>The draft was of course universally disliked. Only the poor or misfortunate could not in some way avoid it.</t>
   </si>
   <si>
@@ -1832,9 +1708,6 @@
     <t>Early in the draft, a commutation fee of $300 could be paid, but this was revoked when the need for manpower became even more dire.</t>
   </si>
   <si>
-    <t>As you approach, you annouce that you are looking for a substitute. There are three men, who each say something to the effect of "what's your offer?" &lt;br/&gt;&lt;br/&gt;Having only gathered $500, you hope that one of them will help you. None of them will help you for less than $550.&lt;br/&gt;&lt;br/&gt;You have a sinking feeling as your mind reels, until you remember the old heirloom you keep in the corner. You rush home to sell it, and when you do, have enough to hire the subsititute.</t>
-  </si>
-  <si>
     <t>As you approach, you annouce that you are looking for a substitute. There are three men, who each say something to the effect of "what's your offer?" &lt;br/&gt;&lt;br/&gt;Having only gathered $500, you hope that one of them will help you. None of them will help you for less than $550.&lt;br/&gt;&lt;br/&gt;You have a sinking feeling as your mind reels, trying to think of some way to get a little more money. You go home, sell more trinkets, but it still doesn't add up to enough.</t>
   </si>
   <si>
@@ -1844,12 +1717,6 @@
     <t>emancipation</t>
   </si>
   <si>
-    <t>Much later, you hear the good news: the president has issued the Emancipation Proclamation, which frees all of the slaves in the Confederacy! As well, this makes the abolition of slavery a goal of the war, in addition to reunification. &lt;br/&gt;&lt;br/&gt;Once again enthusiastic about fighting for such a noble and important cause, you decide to try to enlist again. Sure enough, the recruiters are now accepting black soldiers. It's time to fight for your rights.</t>
-  </si>
-  <si>
-    <t>Deciding to enlist, you sign the recruitment roll.&lt;br/&gt;&lt;br/&gt;You are given an appointment with the town doctor, who checks to see if you are fit for duty. He has you take off your clothes and do jumping jacks, bend over, and delivers a pair of sound whacks to the stomach and back. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
-  </si>
-  <si>
     <t>You decide not to break off for coffee. The walking wears heavily on you, but you manage to keep going.</t>
   </si>
   <si>
@@ -1904,18 +1771,12 @@
     <t>Today the orders finally came down to march to the enemy. You are marching in light marching-order, which means you only carry your musket, ammunition, haversack, and canteen. The march is much more strict, and on double-quick time. Soldiers aren't given the oppurtunity to fall out of line.</t>
   </si>
   <si>
-    <t>Nevertheless, you do fall out of line, due to the heavy weight of the "bullet-proof vest" you intend to wear into combat.&lt;br/&gt;&lt;br/&gt;The officer doesn't sympathize, however. They order you to take it off and drop on the side of the road. You plead with him to let you keep it, saying you'll keep up, and that may have worked the first time he told you to stay in line, but not now, on the third time.&lt;br/&gt;&lt;br/&gt;With mixed disappointment and apprehension, you take it off, drop it, and run to catch up.</t>
-  </si>
-  <si>
     <t>The march has been stop-and-go as streams are forded; wagons and caissons get stuck.&lt;br/&gt;&lt;br/&gt;The faces of the men are grim. It would be better for the fighting to start now, while you are ready. Waiting around is wearing thin on the soldiers' nerves.</t>
   </si>
   <si>
     <t>Downtown Mill</t>
   </si>
   <si>
-    <t>Life for you here in your hometown is quiet but fairly productive. You own a small farm in the countryside just outside a small town. Although slavery is legal in your state, you are not wealthy enough to own any. You and your wife, with whom you have been married only around five years, grow produce and raise chickens. What you don't eat yourselves you sell to a man in town who himself takes it to the city to peddle. Today, you heard the news that the president is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy that horse-drawn plow you've been eyeing. Of course, going off to war would mean leaving your wife and children alone on the farm. They say it will be a 30 days war. You'd be back in time for the harvest, anyway, right?</t>
-  </si>
-  <si>
     <t>Stay Home</t>
   </si>
   <si>
@@ -1925,9 +1786,6 @@
     <t>substitute-succeeded</t>
   </si>
   <si>
-    <t>Lacking any major manufactorers, the South imported Enfields from Britain, when it could.</t>
-  </si>
-  <si>
     <t>Accept Conscription</t>
   </si>
   <si>
@@ -1979,12 +1837,6 @@
     <t>leg</t>
   </si>
   <si>
-    <t>The president has said the war isn't about slavery, but you know better. All of the states that have seceded are slave states. Defeating the Confederacy can only open great oppurtunities for blacks. So, with great pride and enthusiasm, you appear before the recruiters and volunteer to go to war for the Union.&lt;br/&gt;&lt;br/&gt;Their response surprises you. "We cannot accept your enlistment," they say. Something about a law against blacks in the army. You plead, but they begin to force you out.&lt;br/&gt;&lt;br/&gt;Disappointed, you head home.</t>
-  </si>
-  <si>
-    <t>Life is hard on the plantation where you live. As property, you are not allowed to leave the plantation, own any property yourself, or generally do anything except hard labor. Since you are so isolated from the rest of the world, you only know through rumors and offhand remarks from the master that there even is a war.</t>
-  </si>
-  <si>
     <t>slave-plantation</t>
   </si>
   <si>
@@ -1994,12 +1846,6 @@
     <t>slave-working</t>
   </si>
   <si>
-    <t>These days the master has gotten anxious. At first, none of the slaves had any idea why, but lately you've heard there's an army approaching to free the slaves. When one of the other slaves asked him about it, he seemed rattled, then retorted that the army was coming to kill all the blacks, because if they couldn't have slaves, they didn't want anyone to have them.&lt;br/&gt;&lt;br/&gt;You can't tell whether he's lying, but you might not find out, anyway, because the master says all the slaves are being shipped out to work for the war effort tomorrow.&lt;br/&gt;&lt;br/&gt;That night, some slaves are gathering what they can in makeshift sacks. They're going to run away and take their chances with the army. After all, it couldn't be worse, right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are brought to a mill, where you are told to pour metal into casts. The casts just make big metal balls; you wonder what they're for, but it isn't your place to ask.&lt;br/&gt;&lt;br/&gt;The masters still seem uneasy until one day a messenger shows up and in a panic, the masters try to get everyone and everything together.&lt;br/&gt;&lt;br/&gt;Frustrated by the sluggishness of the slaves, the masters mount their horses and ride off, abandoning you and the other slaves. </t>
-  </si>
-  <si>
     <t>Run Away</t>
   </si>
   <si>
@@ -2012,15 +1858,6 @@
     <t>slave-contraband</t>
   </si>
   <si>
-    <t>Until the Emancipation Proclamation, military units could not officially enroll blacks as soldiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He seems sympathetic, and genuinely interested in helping you out. He says he can't give you a gun, but you can tend to the wounded or cook food for the soldiers if you really want to help. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You decide to head back to your tent and write a letter home with your free time instead. </t>
-  </si>
-  <si>
     <t>“My Dear Wife,&lt;br/&gt;&lt;br/&gt;I miss you greatly. The camp here is nothing like home. I often find myself craving a delicious roast like we used to have. Here we only occasionally get fresh meat, usually only salt meat. It makes a fellow quite thirsty.&lt;br/&gt;&lt;br/&gt;How are things on the farm? I’m worried about harvest time. The crops will need to be reaped before too long. I hope managing the livestock hasn’t been too difficult, either.&lt;br/&gt;&lt;br/&gt;Please write me back when you receive this letter, I look forward to hearing from you.&lt;br/&gt;&lt;br/&gt;    Signed, Your Loving Husband”</t>
   </si>
   <si>
@@ -2081,21 +1918,9 @@
     <t>You were a runaway slave, denied a position in the army, but unable to settle down anywhere. Many freed slaves ended up in overcrowded refugee camps -- a story in its own right. The government tried to apportion land out to freed slaves, but there were simply too many. For these people, the story of the Reconstruction was just beginning.</t>
   </si>
   <si>
-    <t>You, like the other runaways, think the army really is coming to rescue you. In the dead of night, one by one, you slip away. You have to avoid the roads, sticking to the fields and especially trees whenever possible. Eventually, you feel like you are far enough away, and settle down to wait for the army.&lt;br/&gt;&lt;br/&gt;Days go by, and you start to think you made a mistake, when you stop and listen carefully. Off in the distance, a crackling and rumbling like you've never heard before.&lt;br/&gt;&lt;br/&gt;You rush towards the sound, but by the time you reach the battlefield it is already a gruesome scene. The only living soldiers are carrying bodies&lt;br/&gt;&lt;br/&gt;You follow them back to a camp, and are directed to an officer. You plead for him to let you join the army and fight your oppressors.</t>
-  </si>
-  <si>
     <t>slave-helping</t>
   </si>
   <si>
-    <t xml:space="preserve">The war drags on. More men die, but you still aren't allowed to fight with the soldiers. Then came news of the Emancipation Proclamation.&lt;br/&gt;&lt;br/&gt;Slightly relieved, the officer issues you and other runaway slaves weapons and organizes you into a unit to fight the war as soldiers. Your unit is given a white officer, however. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marching down the road is a mass of men in blue uniforms. A man riding a horse comes up to you. &lt;br/&gt;&lt;br/&gt;He says you are all "contraband", something about a man named Lincoln, and that you are all free. There is some disbelief among the former slaves, but some cheers as well.&lt;br/&gt;&lt;br/&gt;He instructs you all to follow him, and after a very long walk, there is a camp, where you are told to wait until you can be moved North. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You gather up all your money. Fearing it isn't enough, you gather and sell a few things you can live without. At this point, most of the people willing to go to war already have.&lt;br/&gt;&lt;br/&gt;All that is left are a few unsavory characters who heard about the market for substitutes and -- hoping to cash in -- loiter around outside the town hall. Hopefully, you have enough to hire one of them. </t>
-  </si>
-  <si>
     <t>You never went to war. Of course, not everyone did, but a large number were recruited, willingly or otherwise. Still, it also happened that some men who by rights should have fought in the war were able to dodge recruitment. Some of these men, like Grover Cleveland and John D. Rockefeller, went on to become important historical figures.&lt;br/&gt;&lt;br/&gt;Because of the loopholes in the conscription acts, it was sometimes said that the Civil War was a "rich man's war, but a poor man's fight."</t>
   </si>
   <si>
@@ -2126,9 +1951,6 @@
     <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003005816/PP/"&gt;Savage Station, Virginia. Union field hospital after the battle of June 27. By James F. Gibson. 1862 June. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-00202.&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href=""&gt;Murfreesboro, Tennessee (vicinity). Monument erected on the battlefield at Stones River. Between 1863 and 1869. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-02106.&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003000989/PP/"&gt;Washington, D.C. Convalescent soldiers and others outside quarters of the Sanitary Commission Home Lodge. 1865 April. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-04163.&lt;/a&gt;</t>
   </si>
   <si>
@@ -2355,6 +2177,198 @@
   </si>
   <si>
     <t>01045a.jpg</t>
+  </si>
+  <si>
+    <t>In November of 1860, Abraham Lincoln is elected President of the United States. The next month, the Southern states begin to secede. In March of 1861, President Lincoln takes office and delivers his &lt;a href="http://www.bartleby.com/124/pres31.html"&gt;First Inaugural Address&lt;/a&gt;, which asserts his intention to preserve the Union by compromise.&lt;br/&gt;&lt;br/&gt;One month later, however, Fort Sumter is besieged and taken by Confederates. Lincoln calls for 75,000 men to preserve the Union, but his call to arms galvanizes the Border States. A handful more of them secede and war is begun.</t>
+  </si>
+  <si>
+    <t>Life for you here in your hometown is quiet but fairly productive. You own a small farm in the countryside just outside a small town. Although slavery is legal in your state, you are not wealthy enough to own any. You and your wife, with whom you have been married only around five years, grow produce and raise chickens. What you don't eat yourselves you sell to a man in town who himself takes it to the city to peddle. Today, you heard the news that the President is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy that horse-drawn plow you've been eyeing. Of course, going off to war would mean leaving your wife and children alone on the farm. They say it will be a 30 days war. You'd be back in time for the harvest, anyway, right?</t>
+  </si>
+  <si>
+    <t>Life is hard on the plantation where you live. As you are considered your master's property, you are not allowed to leave the plantation, own any property yourself, or generally do anything except hard labor. Since you are so isolated from the rest of the world, you only know through rumors and offhand remarks from the master that there even is a war.</t>
+  </si>
+  <si>
+    <t>These days the master has gotten anxious. At first, none of the slaves had any idea why, but lately you've heard there's an army approaching to free the slaves. When one of the other slaves asked the master about it, he seemed rattled, then retorted that the army was coming to kill all the blacks, because if they couldn't have slaves, they didn't want anyone to have them.&lt;br/&gt;&lt;br/&gt;You can't tell whether he's lying, but you might not find out, anyway, because the master says all the slaves are being shipped out to work for the war effort tomorrow.&lt;br/&gt;&lt;br/&gt;That night, some slaves are gathering what they can in makeshift sacks. They're going to run away and take their chances with the army. After all, it couldn't be worse, right?</t>
+  </si>
+  <si>
+    <t>You, like the other runaways, think the army really is coming to rescue you. In the dead of night, one by one, you slip away. You have to avoid the roads, sticking to the fields and especially trees whenever possible. Eventually, you feel like you are far enough away, and settle down to wait for the army.&lt;br/&gt;&lt;br/&gt;Days go by, and you start to think you made a mistake, when you stop and listen carefully. Off in the distance, a crackling and rumbling like you've never heard before.&lt;br/&gt;&lt;br/&gt;You rush towards the sound, but by the time you reach the battlefield it is already a gruesome scene. The only living soldiers are carrying bodies.&lt;br/&gt;&lt;br/&gt;You follow them back to a camp, and are directed to an officer. You plead for him to let you join the army and fight your oppressors.</t>
+  </si>
+  <si>
+    <t>Life for you here in your hometown is quiet but fairly productive. You own a small farm in the countryside just outside a small town. You and your wife, with whom you have been married only around five years, grow produce and raise chickens. What you don't eat yourselves you sell to a man in town who himself takes it to the city to peddle. Today, you heard the news that the President is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy that horse-drawn plow you've been eyeing. Of course, going off to war would mean leaving your wife and children alone on the farm. They say it will be a 30 days war. You'd be back in time for the harvest, anyway, right?</t>
+  </si>
+  <si>
+    <t>The President has said the war isn't about slavery, but you know better. All of the states that have seceded are slave states. Defeating the Confederacy can only open great oppurtunities for blacks. So, with great pride and enthusiasm, you appear before the recruiters and volunteer to go to war for the Union.&lt;br/&gt;&lt;br/&gt;Their response surprises you. "We cannot accept your enlistment," they say. Something about a law against blacks in the army. You plead, but they begin to force you out.&lt;br/&gt;&lt;br/&gt;Disappointed, you head home.</t>
+  </si>
+  <si>
+    <t>Much later, you hear the good news: the President has issued the Emancipation Proclamation, which frees all of the slaves in the Confederacy! As well, this makes the abolition of slavery a goal of the war, in addition to reunification. &lt;br/&gt;&lt;br/&gt;Once again enthusiastic about fighting for such a noble and important cause, you decide to try to enlist again. Sure enough, the recruiters are now accepting black soldiers. It's time to fight for your rights.</t>
+  </si>
+  <si>
+    <t>Today, a recruitment rally is being held downtown. Everyone is taking the day off to see the band from the big city play. &lt;br/&gt;&lt;br/&gt;The band plays a selection of pieces so stirring that you can't help but imagine a battalion of troops marching in strict formation towards battle, bayonet-tipped muskets pointed sharply to the heavens, steeling themselves for battle. It almost brings a tear to your eye to think of the bravery and valor of the men in the army now, fighting for the cause. &lt;br/&gt;&lt;br/&gt;Several men have walked up to the stage and are signing the enlistment roll now.</t>
+  </si>
+  <si>
+    <t>Today, there is a knock at the door. The man on the other side informs you that you have been drafted and must report to the town hall after settling your personal affairs. He hands you a notice, bids you farewell, and walks off, no doubt to deliver his next conscription notice. &lt;br/&gt;&lt;br/&gt;You have heard of others avoiding the draft in the past, but you're not sure how well it worked for them, or even whether they were telling the truth, however.</t>
+  </si>
+  <si>
+    <t>As you approach, you annouce that you are looking for a substitute. There are three men, who each say, "What's your offer?" &lt;br/&gt;&lt;br/&gt;Having only gathered $500, you hope that one of them will help you. None of them will help you for less than $550.&lt;br/&gt;&lt;br/&gt;You have a sinking feeling as your mind reels, until you remember the old heirloom you keep in the corner. You rush home to sell it, and when you do, you have enough to hire the subsititute.</t>
+  </si>
+  <si>
+    <t>Having no shortage of patriotism yourself, you find a group of like-minded men and agree to form a company with them.&lt;br/&gt;&lt;br/&gt;Meeting at the town hall, you sign the recruitment roll. Then, you are given an appointment with the town doctor, who checks to see if you are fit for duty. He has you remove your clothes, do jumping jacks, bend over, and then delivers a pair of sound whacks to your stomach and back. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
+  </si>
+  <si>
+    <t>Deciding to enlist, you sign the recruitment roll.&lt;br/&gt;&lt;br/&gt;You are given an appointment with the town doctor, who checks to see if you are fit for duty. He has you remove your clothes, do jumping jacks, bend over, and then delivers a pair of sound whacks to the stomach and back. Satisfied, he signs the papers and sends you off.&lt;br/&gt;&lt;br/&gt;You get a ride on the next wagon headed to the big city, where you will be redirected to the army camp.</t>
+  </si>
+  <si>
+    <t>The new recruits are told to line up to meet the quartermaster. After waiting in line for a while, chatting with the other soldiers, you are finally called in to the warehouse to see the quartermaster. He walks you past stacks of goods, picks up one from each pile and hands you a haversack, canteen, knapsack, blanket, tent fly, Springfield rifled-musket, and catridge box. He makes some marks on a piece of paper, and sends you out.</t>
+  </si>
+  <si>
+    <t>Dinner tonight is typical, the other soldiers say: salt beef, rice, and beans. On the side is a biscuit the soldiers call a hardtack, because of the stiffness of the bread. To drink there is tea. It's certainly not as appetizing as a home-cooked meal, but you didn't join up for the food, did you?</t>
+  </si>
+  <si>
+    <t>Dinner tonight is typical, the other soldiers say: salt pork, cornmeal, and beans. On the side is a small, soft biscuit. To drink there is tea. It's certainly not as appetizing as a home-cooked meal, but you didn't join up for the food, did you?</t>
+  </si>
+  <si>
+    <t>Sometime today, a traveling merchant wandered into the camp. The fellows are all gathered around the back of his wagon where his goods are on display. &lt;br/&gt;&lt;br/&gt;When you are closer, you hear him talking about an "amazing water filterer" that, he claims, can filter and make safe even the dirtiest of water. It seems to be a rubber tube with a mouthpiece at one end and a cone-shaped, porous stone at the other end. "Just put the water you want to drink in your canteen," he says, "and put this end in with it, then drink from here!" &lt;br/&gt;&lt;br/&gt;Next he pulls out (with some effort) what appear to be a vest with metal plates stitched into the front of it. "This," he begins, "is no less than a bullet-proof vest!" There is a murmur of mixed excitement and disbelief from the crowd. "Wearing this," he continues, "you cannot be hurt by musket balls!" You wonder about what would happen if it was shot by a musket ball, but he assures the crowd that anyone wearing the vest would be safe. &lt;br/&gt;&lt;br/&gt;It is getting later now and a few soldiers are haggling with the merchant, but others are going off to make use of the little free time left.</t>
+  </si>
+  <si>
+    <t>You approach the merchant and ask to see the water filterer. Holding it in your hands, it is quite a simple device indeed. You tell the merchant you are interested in purchasing the device. He asks $8 for it.  It is quite expensive, at more than a half a months pay, but it should more than make up for it when you are thirsty on the road, right?</t>
+  </si>
+  <si>
+    <t>You play a hand. Then another – and another. The stakes are getting higher and higher until... The bet is no less than four months pay. You have a decent hand, but you can’t tell if someone else has a better one. You might as well go all in at this point, there’s nothing more to lose.</t>
+  </si>
+  <si>
+    <t>You lay down your hand, but with a grin someone on the other side of the table lays down his hand. You lose. Even if you do get paid soon, you won’t be spending money for a while.&lt;br/&gt;&lt;br/&gt;You hope this isn’t a bad omen.</t>
+  </si>
+  <si>
+    <t>After waiting patiently  the letter carrier calls out, "last one!"&lt;br/&gt;&lt;br/&gt;You and the remaining soldiers lean in with anticipation. He calls out the addressee, and it's not you. Dejectedly, you head back to your tent.</t>
+  </si>
+  <si>
+    <t>Nevertheless, you do fall out of line, due to the heavy weight of the "bullet-proof vest" you intend to wear into combat.&lt;br/&gt;&lt;br/&gt;The officer doesn't sympathize, however. They order you to take it off and drop it on the side of the road. You plead with him to let you keep it, saying you'll keep up, and that may have worked the first time he told you to stay in line, but not now, on the third time.&lt;br/&gt;&lt;br/&gt;With mixed disappointment and apprehension, you take it off, drop it, and run to catch up.</t>
+  </si>
+  <si>
+    <t>The battling is fierce, minnie balls squealing past overhead and thudding as they embed into trees or softly gasping as they burrow into the ground.&lt;br/&gt;&lt;br/&gt;Suddenly, the order is given to “dress on colors”, and those men that can form up on the colors in preparation for a charge. &lt;br/&gt;&lt;br/&gt;The soldiers put on their most intimidating grimace as the charge begins. All semblance of formation is lost as the men are consumed with battle fury – whooping and hollering as they go.&lt;br/&gt;&lt;br/&gt;The yelling serves to lift the heart out of fear, but also to strike the same into the enemy. The helter-skelter crowd races towards the enemy, whose location is evidenced only by the plume of smoke at the opposite end of the field. The whizzing of bullets can still be heard, and every now and then so can a grunt and a thud, as a man is injured and falls.</t>
+  </si>
+  <si>
+    <t>This goes on for what seems  to be days, although it can’t have been, since the sun never set. Your hands and face are black with powder, your throat hoarse from smoke and yelling, but you realize that you haven’t heard a cannon shot in a while.&lt;br/&gt;&lt;br/&gt;Gradually, the crack of gunpowder from across the field dies down and – cautiously – the men stand up to get a better view. There doesn’t seem to be any sign of the enemy, and one soldier points  to a group of friendly soldiers on the other side of the field. &lt;br/&gt;&lt;br/&gt;It seems the battle has been won after all.</t>
+  </si>
+  <si>
+    <t>This goes on for what seems to be days, although it can’t have been, since the sun never set. Your hands and face are black with powder, your throat hoarse from smoke and yelling. You and the other soldiers are running low on ammunition and morale. &lt;br/&gt;&lt;br/&gt;Abruptly, the crack of gunfire from the enemy ranks ceases. Hesitantly, one of the soldiers peeks out from behind his cover, gasps, and stands up to run away. Peering around the corner, you see why: the enemy has regrouped and has begun to charge, whooping and hollering, bayonets aimed at you.&lt;br/&gt;&lt;br/&gt;Just then, an officer rides up on his horse, yelling "retreat!" The soldiers don't need to be told twice.</t>
+  </si>
+  <si>
+    <t>The ambulance wagon stops in front of the field hospital, back at camp.&lt;br/&gt;&lt;br/&gt;The first thing you notice when stepping inside is  the smell of fresh blood and pus. Here, too, it is curiously quiet. Whether this is due more to pain, fear, or anesthetic is unknowable.&lt;br/&gt;&lt;br/&gt;Before taking a seat, another convalescent hands you a cup of liquor, “to help you calm down,” he says.</t>
+  </si>
+  <si>
+    <t>When the surgeon finally reaches you, his decision is, as you feared: amputation. You are given an inhaler of chloroform, a curious device the size of a deck of cards with two tubes poking out, one for air to go in, one for air to go out. Breathing through the device, you begin to feel drowsy, but still awake.&lt;br/&gt;&lt;br/&gt;After moving you to the operating table, the surgeon begins poking the wound with his fingers to find debris and fragments of bullet, and once satisfied begins the procedure.&lt;br/&gt;&lt;br/&gt;By the end, there is a moist bandage wrapped around your foreshortened limb and a new arm on the pile.</t>
+  </si>
+  <si>
+    <t>When the surgeon finally reaches you, his decision is as you feared: amputation. You are given an inhaler of chloroform, a curious device the size of a deck of cards with two tubes poking out, one for air to go in, one for air to go out. Breathing through the device, you begin to feel drowsy, but still awake.&lt;br/&gt;&lt;br/&gt;After moving you to the operating table, the surgeon begins poking the wound with his fingers to find debris and fragments of bullet, and once satisfied begins the procedure.&lt;br/&gt;&lt;br/&gt;By the end, there is a moist bandage wrapped around your foreshortened limb and a new leg on the pile.</t>
+  </si>
+  <si>
+    <t>The men are mostly sullen  on the march back to camp. &lt;br/&gt;&lt;br/&gt;Every so often, a soldier will let out a long sigh, or curse under their breath. The others around him barely notice. &lt;br/&gt;&lt;br/&gt;Everyone is either ashamed of the defeat, mourning a friend, or simply in shock.</t>
+  </si>
+  <si>
+    <t>The shouting, booming, and crackling of musket-fire blend together as you struggle to stay conscious. You close your eyes. Your last thought is of home, and the people you left behind, before everything goes dark.</t>
+  </si>
+  <si>
+    <t>In the late 19th century, industrial plants were more commonly referred to as &lt;b&gt;"mills"&lt;/b&gt; than "factories".</t>
+  </si>
+  <si>
+    <t>Lacking any major manufacturers, the Confederacy imported &lt;b&gt;&lt;a href="http://en.wikipedia.org/wiki/Pattern_1853_Enfield"&gt;Enfield rifled muskets&lt;/a&gt;&lt;/b&gt; from Britain whenever it could.</t>
+  </si>
+  <si>
+    <t>Catridges for the &lt;b&gt;&lt;a href="http://en.wikipedia.org/wiki/Springfield_Model_1861"&gt;Springfield rifled musket&lt;/a&gt;&lt;/b&gt; were not the same as they are today. They consisted of a bullet and premeasured powder wrapped in cloth, which was opened and poured into the barrel of the musket.</t>
+  </si>
+  <si>
+    <t>Until the &lt;b&gt;&lt;a href="http://www.archives.gov/exhibits/featured_documents/emancipation_proclamation/"&gt;Emancipation Proclamation&lt;/a&gt;&lt;/b&gt;, military units could not officially enroll blacks as soldiers.</t>
+  </si>
+  <si>
+    <t>For marches where the soldiers needed to bring all of their possessions, soldiers were given three hours notice. For marches where they would return to the camp later, they were given an hour or even a half-hour notice.</t>
+  </si>
+  <si>
+    <t>ambulance-leg</t>
+  </si>
+  <si>
+    <t>ambulance-arm</t>
+  </si>
+  <si>
+    <t>The shouting, booming, and crackling of musket-fire blend together as you struggle to stay conscious.  Suddenly, you become aware of someone talking to you.&lt;br/&gt;&lt;br/&gt;“— you stand up?”&lt;br/&gt;&lt;br/&gt;You confirm. The tourniquet they put around your arm is extremely tight, but at least it’s a distraction. The medics made a sling for you from part of your uniform.&lt;br/&gt;&lt;br/&gt;The soldiers are expressionless as they tend the wounded; some who shamble along, while others are carried to an ambulance wagon. Stretchers fill the wagons. The less wounded ride on the wagon steps. It’s a bumpy ride, but the only sound from those in pain is a low groan.</t>
+  </si>
+  <si>
+    <t>The shouting, booming, and crackling of musket-fire blend together as you struggle to stay conscious.  Suddenly, you become aware of someone talking to you.&lt;br/&gt;&lt;br/&gt;“— you stand up?”&lt;br/&gt;&lt;br/&gt;You confirm. The tourniquet they put around your leg is extremely tight, but at least it’s a distraction. The medics improvised a splint for you by tying your musket tightly to your leg to prevent it from moving.&lt;br/&gt;&lt;br/&gt;The soldiers are expressionless as they tend the wounded; some who shamble along, while others are carried to an ambulance wagon. Stretchers fill the wagons. The less wounded ride on the wagon steps. It’s a bumpy ride, but the only sound from those in pain is a low groan.</t>
+  </si>
+  <si>
+    <t>This seems to go on for a long time, but in truth it couldn’t have lasted more than a single hour before you feel a searing pain in your arm. Clutching at the pain, you feel moist cloth, and withdraw a red-stained hand. &lt;br/&gt;&lt;br/&gt;You try to roll over, and find that you can not  move your left arm.&lt;br/&gt;&lt;br/&gt;Yelling for help, you are largely ignored or told to be quiet and wait for the stretcher-bearers.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;a href="http://en.wikipedia.org/wiki/Field_artillery_in_the_American_Civil_War#Canister"&gt;Canister shot&lt;/a&gt;&lt;/b&gt; -- many small rounds packed into a contianer that are loaded into field artillery instead of a single large round.</t>
+  </si>
+  <si>
+    <t>Screaming now almost as much with fear as with fury, you raise your bayonet in preparation for plunging into the enemy ranks, but as you crest the ridge, you hear a familiar sound. Your eyes are drawn to its source: an artillery piece's muzzle flash from the left side of the enemies' ranks. &lt;br/&gt;&lt;br/&gt;Less than a second later, your ranks are met with canister shot as they whiz through the air, burrow through the men, and come to rest in small puffs of dirt. You feel something hit your leg, and you collapse forward. Shocked and in pain, you lie still on the ground as the rest of the soldiers charge past.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.loc.gov/pictures/item/cwp2003004958/PP/"&gt;Murfreesboro, Tennessee (vicinity). Monument erected on the battlefield at Stones River. Between 1863 and 1869. Library of Congress, Prints &amp; Photographs Division, LC-DIG-cwpb-02106.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Convalescent&lt;/b&gt; -- a person who is recovering from injury, surgery, or disease.</t>
+  </si>
+  <si>
+    <t>The &lt;b&gt;&lt;a href="http://en.wikipedia.org/wiki/California_Gold_Rush"&gt;California Gold Rush&lt;/a&gt;&lt;/b&gt; had happened years ago in 1849. More recently, the &lt;b&gt;&lt;a href="http://en.wikipedia.org/wiki/Comstock_Lode"&gt;Comstock Lode&lt;/a&gt;&lt;/b&gt; was drawing men, women and their families out west again. But the more gold or silver was pulled out of the ground, the deeper they had to dig to find more.</t>
+  </si>
+  <si>
+    <t>It is a misconception that the war was fought by the North to end slavery. The abolitionists called for an end to slavery, but Lincoln did not make ending slavery a condition of ending the war until the &lt;b&gt;&lt;a href="http://www.archives.gov/exhibits/featured_documents/emancipation_proclamation/"&gt;Emancipation Proclamation&lt;/a&gt;&lt;/b&gt; of 1863.</t>
+  </si>
+  <si>
+    <t>It was believed that excessive pus was a sign of dead tissue being expelled -- we know today it is a sign of serious infection.</t>
+  </si>
+  <si>
+    <t>Later in the day, the soldiers make their way to the commissary depot, where rations are being handed out. Once everyone has their food, the soldiers begin breaking off into groups to share cooking fires. &lt;br/&gt;&lt;br/&gt;Within your group, there is a man who everyone agrees is the best cook, so they all let him cook their meals in exchange for small favors here and there. In some other groups, you can see people cooking for themselves. &lt;br/&gt;&lt;br/&gt;Having never really tried your hand at cooking, you decide to let the group's cook handle your food.</t>
+  </si>
+  <si>
+    <t>He seems sympathetic, and genuinely interested in helping you out. He says he can't give you a gun, but you can tend to the wounded or cook food for the soldiers if you really want to help.</t>
+  </si>
+  <si>
+    <t>The war drags on. More men die, but you still aren't allowed to fight with the soldiers. Then came news of the Emancipation Proclamation.&lt;br/&gt;&lt;br/&gt;Slightly relieved, the officer issues you and other runaway slaves weapons and organizes you into a unit to fight the war as soldiers. Your unit is given a white officer, however.</t>
+  </si>
+  <si>
+    <t>You are brought to a mill, where you are told to pour metal into casts. The casts just make big metal balls; you wonder what they're for, but it isn't your place to ask.&lt;br/&gt;&lt;br/&gt;The masters still seem uneasy until one day a messenger shows up and in a panic, the masters try to get everyone and everything together.&lt;br/&gt;&lt;br/&gt;Frustrated by the sluggishness of the slaves, the masters mount their horses and ride off, abandoning you and the other slaves.</t>
+  </si>
+  <si>
+    <t>Marching down the road is a mass of men in blue uniforms. A man riding a horse comes up to you. &lt;br/&gt;&lt;br/&gt;He says you are all "contraband," something about a man named Lincoln, and that you are all free. There is some disbelief among the former slaves, but some cheers as well.&lt;br/&gt;&lt;br/&gt;He instructs you all to follow him, and after a very long walk, there is a camp, where you are told to wait until you can be moved North.</t>
+  </si>
+  <si>
+    <t>You gather up all your money. Fearing it isn't enough, you gather and sell a few things you can live without. At this point, most of the people willing to go to war already have.&lt;br/&gt;&lt;br/&gt;All that is left are a few unsavory characters who heard about the market for substitutes and -- hoping to cash in -- loiter around outside the town hall. Hopefully, you have enough to hire one of them.</t>
+  </si>
+  <si>
+    <t>Living in the camps is harder than you expected. Up at dawn, roll call, wash, marching drills, then breakfast. More drilling – and any work that needs to be done before dinner at noon. The afternoon is a brief respite to go into town. Then target practice, more drilling, tent inspection, and finally evening parade at half-past five. Then the moon rises, and until ten the camp is aglow with candle- and fire-light.</t>
+  </si>
+  <si>
+    <t>Tonight, some of the fellows are gathering to play cards by candlelight. The officers say gambling isn’t allowed, but there will probably be stakes anyway. They offer you to join in their poker game.</t>
+  </si>
+  <si>
+    <t>You decide to head back to your tent and write a letter home with your free time instead.</t>
+  </si>
+  <si>
+    <t>The letter carrier arrives today. All the men swarm around the back of the mail wagon like pigs to the trough. &lt;br/&gt;&lt;br/&gt;As the mail carrier calls out names one by one, the men whose names are called yelp with excitement.</t>
+  </si>
+  <si>
+    <t>Evidently the enemy is very interested in the specific plot of ground that you  are occupying. Your company's volley of shots is returned immediately by the enemy’s retort  by cannon-fire.&lt;br/&gt;&lt;br/&gt;The approaching shells are distinguished by a distinctive and unnerving whistling, but by the time your realize those shells are aimed at you, there is but a scant moment to react.&lt;br/&gt;&lt;br/&gt;One round screams into your midst, and makes a deafening rumble as it is embedded into the earth behind you. Turning, you see a fellow soldier, covered now by a shower of earth.&lt;br/&gt;&lt;br/&gt;Another shell hits a tree nearby, sending forth a cloud of splinters.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Commissary&lt;/b&gt; -- A place where food and provisions are stored and distributed.</t>
+  </si>
+  <si>
+    <t>The Confederate States: South Carolina, Mississippi, Florida, Alabama, Georgia, Louisiana, Texas, Virginia, Arkansas, Tennessee, and North Carolina. &lt;br/&gt;&lt;br/&gt;The Confederate States have a population of 9,103,332, including  slaves. Only 316,632 people, however, which was less than 10% of the free population, actually  own slaves. Except for the black slaves (and few free blacks), there is very little ethnic diversity, and, there are no big cities except for New Orleans.  &lt;br/&gt;&lt;br/&gt;Everyone you know curses those Yankees for not letting the Southerners be as they are. Many have done the honorable thing and enlisted to fight for home and freedom by driving the Yankees out. Why would any self-respecting man not join them?</t>
+  </si>
+  <si>
+    <t>It is a misconception that the war was fought by the South solely to keep their slaves. The issue of &lt;b&gt;&lt;a href="http://en.wikipedia.org/wiki/States'_rights#Civil_War"&gt;State's rights&lt;/a&gt;&lt;/b&gt; is often cited as another cause of secession.</t>
+  </si>
+  <si>
+    <t>At the very least, it has been an exciting few years since moving out west to work in the mines. You, your family, and all the other miners and their families live in rough plank sheds down the hill from the mine. You and your wife, who emigrated to America with you six years ago, have three children. It would be hard enough to feed them without the scarcity of food and water out here.&lt;br/&gt;&lt;br/&gt;Today, you heard the news that the President is calling for more troops. You wouldn't normally be interested, since you wouldn't earn that much more as a soldier, but everyone else seems so enthused about enlisting, and there has been talk about the mines drying up soon. If you were a soldier, you wouldn't have to deal with cramped tunnels, cave-ins, or pools of scalding hot water, but of course you might be shot. And true, going off to war would mean leaving your wife and children by themselves, but soldiering could be a steady job... if you survive.</t>
+  </si>
+  <si>
+    <t>Life for you here in your hometown is not too easy. Living in an apartment within the city limits, you work at a mill on the river's edge. You and your wife, with whom you have been married only around five years, have two children, and another on the way. Feeding your growing family is hard on a laborer's wage.&lt;br/&gt;&lt;br/&gt;Today, you heard the news that the President is calling for more troops. You wouldn't normally be interested, but everyone else seems so enthused about enlisting, and the signing bonus would help buy some new clothes for your oldest. Of course, going off to war would mean leaving your wife and children by themselves, but a soldier is paid more than a millworker...</t>
+  </si>
+  <si>
+    <t>The Confederacy had trouble supplying food to its soldiers. Between the lack of an organized commissary and the &lt;b&gt;&lt;a href="http://en.wikipedia.org/wiki/Union_blockade"&gt;Union blockade&lt;/a&gt;&lt;/b&gt;, soldiers typically had to make do with less than their Union counterparts.</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2540,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2550,7 +2564,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2600,43 +2622,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2660,6 +2656,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2727,8 +2746,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Table62" displayName="Table62" ref="A4:AM105" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A4:AM105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Table62" displayName="Table62" ref="A4:AM106" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A4:AM106">
+    <filterColumn colId="3"/>
     <filterColumn colId="9"/>
     <filterColumn colId="16"/>
     <filterColumn colId="23"/>
@@ -2745,17 +2765,17 @@
     <tableColumn id="2" uniqueName="type" name="Slide Type">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Content" name="Slide Content" dataDxfId="1">
+    <tableColumn id="3" uniqueName="Content" name="Slide Content" dataDxfId="10">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Content" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="Prompt" name="Prompt Text" dataDxfId="9">
+      <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Prompt" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Image" name="Background Image">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Image" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Attribution" name="Attribution Text">
+    <tableColumn id="5" uniqueName="Attribution" name="Attribution Text" dataDxfId="8">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Attribution" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="Prompt" name="Prompt Text" dataDxfId="0">
-      <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Prompt" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="type" name="Branch Type">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/@type" xmlDataType="string"/>
@@ -2766,7 +2786,7 @@
     <tableColumn id="9" uniqueName="value" name="Path 1 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path1/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="52" uniqueName="weight" name="Path 1 Weight" dataDxfId="9">
+    <tableColumn id="52" uniqueName="weight" name="Path 1 Weight" dataDxfId="7">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path1/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="Text" name="Path 1 Label">
@@ -2787,7 +2807,7 @@
     <tableColumn id="15" uniqueName="value" name="Path 2 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path2/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="53" uniqueName="weight" name="Path 2 Weight" dataDxfId="8">
+    <tableColumn id="53" uniqueName="weight" name="Path 2 Weight" dataDxfId="6">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path2/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="Text" name="Path 2 Label">
@@ -2808,7 +2828,7 @@
     <tableColumn id="21" uniqueName="value" name="Path 3 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path3/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="54" uniqueName="weight" name="Path 3 Weight" dataDxfId="7">
+    <tableColumn id="54" uniqueName="weight" name="Path 3 Weight" dataDxfId="5">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path3/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="22" uniqueName="Text" name="Path 3 Label">
@@ -2829,7 +2849,7 @@
     <tableColumn id="27" uniqueName="value" name="Path 4 Conditional Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path4/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="55" uniqueName="weight" name="Path 4 Weight" dataDxfId="6">
+    <tableColumn id="55" uniqueName="weight" name="Path 4 Weight" dataDxfId="4">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path4/@weight" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="28" uniqueName="Text" name="Path 4 Label">
@@ -2844,16 +2864,16 @@
     <tableColumn id="31" uniqueName="value" name="Path 4 Store Value">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Path4/Store/@value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="Text" name="Default Label" dataDxfId="5">
+    <tableColumn id="38" uniqueName="Text" name="Default Label" dataDxfId="3">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Text" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="Reference" name="Default Slide" dataDxfId="4">
+    <tableColumn id="39" uniqueName="Reference" name="Default Slide" dataDxfId="2">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Reference" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="key" name="Default Store Key" dataDxfId="3">
+    <tableColumn id="40" uniqueName="key" name="Default Store Key" dataDxfId="1">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Store/@key" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="41" uniqueName="value" name="Default Store Value" dataDxfId="2">
+    <tableColumn id="41" uniqueName="value" name="Default Store Value" dataDxfId="0">
       <xmlColumnPr mapId="38" xpath="/ns2:Data/Slide/Branch/Default/Store/@value" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3156,38 +3176,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT105"/>
+  <dimension ref="A1:AT106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="81.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" customWidth="1"/>
-    <col min="14" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="24" width="5.7109375" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" customWidth="1"/>
     <col min="26" max="26" width="16.140625" customWidth="1"/>
-    <col min="27" max="31" width="5.7109375" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" customWidth="1"/>
-    <col min="33" max="33" width="19.28515625" customWidth="1"/>
-    <col min="34" max="35" width="5.7109375" customWidth="1"/>
+    <col min="27" max="27" width="6" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" customWidth="1"/>
+    <col min="29" max="29" width="6" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" customWidth="1"/>
+    <col min="34" max="34" width="6" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
-    <col min="37" max="37" width="14.7109375" customWidth="1"/>
-    <col min="38" max="39" width="5.7109375" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" customWidth="1"/>
+    <col min="38" max="38" width="5.42578125" customWidth="1"/>
+    <col min="39" max="39" width="5.140625" customWidth="1"/>
     <col min="40" max="41" width="12" customWidth="1"/>
     <col min="42" max="42" width="8.140625" customWidth="1"/>
     <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -3196,15 +3230,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="72" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
       <c r="A2" t="s">
@@ -3214,50 +3249,51 @@
         <v>0</v>
       </c>
       <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:46" ht="15" customHeight="1">
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="22" t="s">
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="20" t="s">
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" t="s">
@@ -3269,14 +3305,14 @@
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -3385,16 +3421,16 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="C5" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="17"/>
       <c r="E5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="37"/>
+        <v>303</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3449,16 +3485,16 @@
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>354</v>
-      </c>
+      <c r="C6" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="38"/>
+        <v>294</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3513,16 +3549,16 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F7" s="37"/>
+        <v>299</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3530,7 +3566,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="9"/>
       <c r="K7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>54</v>
@@ -3545,7 +3581,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>53</v>
@@ -3582,16 +3618,18 @@
       <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>390</v>
+      <c r="C8" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" s="37"/>
+        <v>330</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3639,17 +3677,17 @@
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>392</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>173</v>
+        <v>332</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>2</v>
@@ -3700,16 +3738,16 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="37"/>
+        <v>336</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3717,61 +3755,61 @@
       <c r="I10" s="1"/>
       <c r="J10" s="9"/>
       <c r="K10" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="1" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3785,16 +3823,16 @@
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="D11" s="17"/>
       <c r="E11" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>336</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
@@ -3802,31 +3840,31 @@
       <c r="I11" s="1"/>
       <c r="J11" s="9"/>
       <c r="K11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -3849,21 +3887,21 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="F12" s="37"/>
+      <c r="C12" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>333</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>2</v>
       </c>
@@ -3871,7 +3909,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="9"/>
       <c r="K12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>63</v>
@@ -3882,7 +3920,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>61</v>
@@ -3911,21 +3949,21 @@
     </row>
     <row r="13" spans="1:46" s="15" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>386</v>
-      </c>
+      <c r="C13" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>326</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="G13" s="11" t="s">
         <v>2</v>
       </c>
@@ -3936,7 +3974,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -3968,21 +4006,21 @@
     </row>
     <row r="14" spans="1:46" s="15" customFormat="1">
       <c r="A14" s="11" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>386</v>
-      </c>
+      <c r="C14" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="17"/>
       <c r="E14" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F14" s="37"/>
+        <v>326</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="G14" s="11" t="s">
         <v>2</v>
       </c>
@@ -3990,10 +4028,10 @@
       <c r="I14" s="11"/>
       <c r="J14" s="13"/>
       <c r="K14" s="11" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -4001,10 +4039,10 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="11" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -4029,21 +4067,21 @@
     </row>
     <row r="15" spans="1:46" s="15" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="C15" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="17"/>
       <c r="E15" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F15" s="37"/>
+        <v>309</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>2</v>
       </c>
@@ -4054,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -4086,22 +4124,22 @@
     </row>
     <row r="16" spans="1:46" s="15" customFormat="1" ht="45">
       <c r="A16" s="11" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>364</v>
+      <c r="C16" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>380</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>292</v>
+        <v>304</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>2</v>
@@ -4113,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -4145,21 +4183,21 @@
     </row>
     <row r="17" spans="1:39" s="15" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="C17" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="17"/>
       <c r="E17" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F17" s="39"/>
+        <v>304</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="G17" s="12" t="s">
         <v>2</v>
       </c>
@@ -4170,7 +4208,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -4202,21 +4240,21 @@
     </row>
     <row r="18" spans="1:39" s="15" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>387</v>
-      </c>
+      <c r="C18" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="17"/>
       <c r="E18" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="G18" s="11" t="s">
         <v>2</v>
       </c>
@@ -4227,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -4259,21 +4297,21 @@
     </row>
     <row r="19" spans="1:39" s="15" customFormat="1">
       <c r="A19" s="11" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>387</v>
-      </c>
+      <c r="C19" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" s="17"/>
       <c r="E19" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="11" t="s">
+        <v>268</v>
+      </c>
       <c r="G19" s="11" t="s">
         <v>2</v>
       </c>
@@ -4284,7 +4322,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -4316,21 +4354,21 @@
     </row>
     <row r="20" spans="1:39" s="15" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>402</v>
-      </c>
+      <c r="C20" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="17"/>
       <c r="E20" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="F20" s="37"/>
+        <v>342</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>341</v>
+      </c>
       <c r="G20" s="11" t="s">
         <v>2</v>
       </c>
@@ -4374,16 +4412,16 @@
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F21" s="37"/>
+      <c r="C21" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
@@ -4391,7 +4429,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="9"/>
       <c r="K21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>63</v>
@@ -4402,7 +4440,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>61</v>
@@ -4435,17 +4473,17 @@
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>129</v>
+      <c r="C22" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>2</v>
@@ -4454,7 +4492,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="9"/>
       <c r="K22" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>63</v>
@@ -4465,7 +4503,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>61</v>
@@ -4498,17 +4536,17 @@
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>124</v>
+      <c r="C23" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>301</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>2</v>
@@ -4517,7 +4555,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="9"/>
       <c r="K23" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>63</v>
@@ -4528,7 +4566,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>61</v>
@@ -4561,17 +4599,17 @@
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>234</v>
+      <c r="C24" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>340</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>2</v>
@@ -4583,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4614,34 +4652,60 @@
       <c r="AM24" s="1"/>
     </row>
     <row r="25" spans="1:39">
-      <c r="A25" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" t="s">
+      <c r="C25" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="9"/>
-      <c r="K25" t="s">
+      <c r="K25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="9"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
       <c r="X25" s="9"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="1" t="s">
@@ -4650,16 +4714,16 @@
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="C26" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" s="17"/>
       <c r="E26" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F26" s="37"/>
+        <v>338</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>2</v>
       </c>
@@ -4667,7 +4731,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="9"/>
       <c r="K26" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>64</v>
@@ -4678,7 +4742,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>62</v>
@@ -4711,17 +4775,17 @@
       <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>229</v>
+      <c r="C27" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>2</v>
@@ -4730,7 +4794,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="9"/>
       <c r="K27" s="1" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>65</v>
@@ -4741,10 +4805,10 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="1" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -4769,25 +4833,25 @@
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>231</v>
+      <c r="C28" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4796,7 +4860,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4807,7 +4871,7 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -4832,21 +4896,21 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F29" s="39"/>
+      <c r="C29" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
@@ -4857,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -4889,21 +4953,21 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F30" s="37"/>
+      <c r="C30" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4946,21 +5010,21 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F31" s="37"/>
+      <c r="C31" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>262</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>2</v>
       </c>
@@ -5004,17 +5068,17 @@
       <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>388</v>
+      <c r="C32" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>89</v>
+        <v>328</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>2</v>
@@ -5063,17 +5127,17 @@
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>388</v>
+      <c r="C33" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>89</v>
+        <v>328</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>2</v>
@@ -5122,17 +5186,17 @@
       <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>388</v>
+      <c r="C34" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>134</v>
+        <v>328</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>2</v>
@@ -5181,18 +5245,18 @@
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="D35" s="17"/>
       <c r="E35" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F35" s="37"/>
+        <v>304</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="G35" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>43</v>
@@ -5203,7 +5267,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -5216,7 +5280,7 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -5236,29 +5300,29 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" t="s">
-        <v>365</v>
+      <c r="C36" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>379</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>188</v>
+        <v>305</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>2</v>
@@ -5270,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -5302,22 +5366,22 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" t="s">
-        <v>365</v>
+      <c r="C37" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>263</v>
+        <v>305</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>2</v>
@@ -5329,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -5361,43 +5425,64 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="C38" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D38" s="17"/>
       <c r="E38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" t="s">
-        <v>91</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="9">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
-        <v>138</v>
-      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
       <c r="Q38" s="9">
         <v>1</v>
       </c>
-      <c r="S38" t="s">
-        <v>176</v>
-      </c>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
       <c r="X38" s="9">
         <v>1</v>
       </c>
-      <c r="Z38" t="s">
-        <v>101</v>
-      </c>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
@@ -5405,23 +5490,25 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>350</v>
+      <c r="C39" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F39" s="37"/>
+        <v>290</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>43</v>
@@ -5432,7 +5519,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -5445,7 +5532,7 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -5470,25 +5557,25 @@
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>352</v>
+      <c r="C40" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>190</v>
+        <v>292</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -5533,25 +5620,25 @@
     </row>
     <row r="41" spans="1:39" ht="45">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>352</v>
+      <c r="C41" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>410</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>193</v>
+        <v>292</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -5596,21 +5683,21 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="C42" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" s="17"/>
       <c r="E42" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F42" s="37"/>
+        <v>297</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>2</v>
       </c>
@@ -5618,46 +5705,46 @@
       <c r="I42" s="1"/>
       <c r="J42" s="9"/>
       <c r="K42" s="1" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="1" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -5673,23 +5760,23 @@
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="C43" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="17"/>
       <c r="E43" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F43" s="37"/>
+        <v>297</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="G43" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -5734,23 +5821,23 @@
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="C44" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="D44" s="17"/>
       <c r="E44" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>297</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="G44" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -5795,21 +5882,21 @@
     </row>
     <row r="45" spans="1:39" ht="45">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="C45" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="17"/>
       <c r="E45" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F45" s="37"/>
+        <v>306</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>2</v>
       </c>
@@ -5817,10 +5904,10 @@
       <c r="I45" s="1"/>
       <c r="J45" s="9"/>
       <c r="K45" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -5828,16 +5915,16 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -5860,23 +5947,23 @@
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="C46" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="17"/>
       <c r="E46" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F46" s="37"/>
+        <v>306</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -5885,13 +5972,13 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -5900,13 +5987,13 @@
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
@@ -5929,23 +6016,23 @@
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="D47" s="17"/>
       <c r="E47" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F47" s="37"/>
+        <v>306</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -5990,23 +6077,23 @@
     </row>
     <row r="48" spans="1:39" ht="45">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="19" t="s">
         <v>366</v>
       </c>
+      <c r="D48" s="17"/>
       <c r="E48" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F48" s="37"/>
+        <v>306</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -6051,60 +6138,60 @@
     </row>
     <row r="49" spans="1:39" s="15" customFormat="1" ht="30">
       <c r="A49" s="11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="C49" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" s="17"/>
       <c r="E49" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F49" s="37"/>
+        <v>307</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="G49" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q49" s="13"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W49" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
@@ -6117,30 +6204,30 @@
       <c r="AI49" s="11"/>
       <c r="AJ49" s="11"/>
       <c r="AK49" s="11" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="AL49" s="11"/>
       <c r="AM49" s="11"/>
     </row>
     <row r="50" spans="1:39" s="15" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="C50" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="17"/>
       <c r="E50" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F50" s="37"/>
+        <v>307</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="G50" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -6185,23 +6272,23 @@
     </row>
     <row r="51" spans="1:39" s="15" customFormat="1">
       <c r="A51" s="11" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="C51" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="17"/>
       <c r="E51" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F51" s="37"/>
+        <v>307</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="G51" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -6246,23 +6333,23 @@
     </row>
     <row r="52" spans="1:39" s="15" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="C52" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="17"/>
       <c r="E52" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F52" s="37"/>
+        <v>307</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="G52" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -6307,23 +6394,23 @@
     </row>
     <row r="53" spans="1:39" s="15" customFormat="1">
       <c r="A53" s="11" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="C53" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="17"/>
       <c r="E53" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F53" s="37"/>
+        <v>307</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="G53" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -6373,34 +6460,55 @@
       <c r="B54" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>368</v>
+      <c r="C54" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>381</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="G54" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" t="s">
-        <v>269</v>
-      </c>
-      <c r="I54" t="s">
-        <v>270</v>
+        <v>308</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="L54" t="s">
-        <v>149</v>
-      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
       <c r="Q54" s="9"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
       <c r="X54" s="9"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1" t="s">
         <v>68</v>
@@ -6410,21 +6518,21 @@
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="C55" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="17"/>
       <c r="E55" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F55" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>2</v>
       </c>
@@ -6432,31 +6540,31 @@
       <c r="I55" s="1"/>
       <c r="J55" s="9"/>
       <c r="K55" s="1" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="1" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
@@ -6479,21 +6587,21 @@
     </row>
     <row r="56" spans="1:39" ht="45">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="C56" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="17"/>
       <c r="E56" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F56" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>2</v>
       </c>
@@ -6504,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -6536,21 +6644,21 @@
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="C57" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="17"/>
       <c r="E57" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F57" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G57" s="1" t="s">
         <v>2</v>
       </c>
@@ -6561,7 +6669,7 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -6598,16 +6706,16 @@
       <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="C58" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="17"/>
       <c r="E58" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F58" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>2</v>
       </c>
@@ -6615,31 +6723,31 @@
       <c r="I58" s="1"/>
       <c r="J58" s="9"/>
       <c r="K58" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -6662,21 +6770,21 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="C59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="17"/>
       <c r="E59" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F59" s="37"/>
+        <v>309</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>2</v>
       </c>
@@ -6686,8 +6794,8 @@
       <c r="K59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L59" t="s">
-        <v>153</v>
+      <c r="L59" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -6719,21 +6827,21 @@
     </row>
     <row r="60" spans="1:39" ht="30">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="C60" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="17"/>
       <c r="E60" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F60" s="37"/>
+        <v>310</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="G60" s="1" t="s">
         <v>2</v>
       </c>
@@ -6744,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -6776,21 +6884,21 @@
     </row>
     <row r="61" spans="1:39" ht="45">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="C61" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="17"/>
       <c r="E61" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F61" s="37"/>
+        <v>310</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>2</v>
       </c>
@@ -6801,7 +6909,7 @@
         <v>3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -6833,21 +6941,21 @@
     </row>
     <row r="62" spans="1:39" ht="45">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="C62" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="17"/>
       <c r="E62" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F62" s="37"/>
+        <v>311</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="G62" s="1" t="s">
         <v>2</v>
       </c>
@@ -6858,7 +6966,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -6890,21 +6998,21 @@
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="C63" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="17"/>
       <c r="E63" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F63" s="37"/>
+        <v>311</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="G63" s="1" t="s">
         <v>2</v>
       </c>
@@ -6915,7 +7023,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -6952,58 +7060,79 @@
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>370</v>
+      <c r="C64" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>381</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" t="s">
-        <v>269</v>
-      </c>
-      <c r="I64" t="s">
-        <v>270</v>
+        <v>308</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="J64" s="9"/>
-      <c r="L64" t="s">
-        <v>149</v>
-      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
       <c r="Q64" s="9"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
       <c r="X64" s="9"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="C65" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="17"/>
       <c r="E65" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F65" s="37"/>
+        <v>308</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>2</v>
       </c>
@@ -7011,10 +7140,10 @@
       <c r="I65" s="1"/>
       <c r="J65" s="9"/>
       <c r="K65" s="1" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -7022,10 +7151,10 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="1" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
@@ -7050,21 +7179,21 @@
     </row>
     <row r="66" spans="1:39" ht="30">
       <c r="A66" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="C66" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D66" s="17"/>
       <c r="E66" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F66" s="37"/>
+        <v>309</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>2</v>
       </c>
@@ -7075,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -7107,34 +7236,34 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="C67" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="17"/>
       <c r="E67" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F67" s="37"/>
+        <v>344</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="G67" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -7161,28 +7290,28 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="1" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="C68" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="17"/>
       <c r="E68" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F68" s="37"/>
+        <v>344</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="G68" s="1" t="s">
         <v>2</v>
       </c>
@@ -7193,7 +7322,7 @@
         <v>3</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -7225,21 +7354,21 @@
     </row>
     <row r="69" spans="1:39" ht="45">
       <c r="A69" s="1" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="C69" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="17"/>
       <c r="E69" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F69" s="37"/>
+        <v>344</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>2</v>
       </c>
@@ -7250,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -7282,71 +7411,93 @@
     </row>
     <row r="70" spans="1:39">
       <c r="A70" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>372</v>
+      <c r="C70" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" t="s">
+        <v>312</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="9"/>
-      <c r="K70" t="s">
+      <c r="K70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
       <c r="Q70" s="9"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
       <c r="X70" s="9"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
     </row>
-    <row r="71" spans="1:39" s="15" customFormat="1">
+    <row r="71" spans="1:39" s="15" customFormat="1" ht="45">
       <c r="A71" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>373</v>
-      </c>
+      <c r="C71" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D71" s="17"/>
       <c r="E71" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F71" s="37"/>
+        <v>313</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="G71" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -7373,28 +7524,28 @@
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
       <c r="AK71" s="11" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="AL71" s="11"/>
       <c r="AM71" s="11"/>
     </row>
     <row r="72" spans="1:39" s="15" customFormat="1" ht="45">
       <c r="A72" s="11" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>373</v>
-      </c>
+      <c r="C72" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" s="17"/>
       <c r="E72" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F72" s="37"/>
+        <v>313</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="G72" s="11" t="s">
         <v>2</v>
       </c>
@@ -7405,7 +7556,7 @@
         <v>3</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -7437,60 +7588,60 @@
     </row>
     <row r="73" spans="1:39" s="15" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>373</v>
-      </c>
+      <c r="C73" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="17"/>
       <c r="E73" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F73" s="37"/>
+        <v>313</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="G73" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="J73" s="13"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
       <c r="O73" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q73" s="13"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
       <c r="V73" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W73" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="AA73" s="11"/>
       <c r="AB73" s="11"/>
@@ -7503,28 +7654,28 @@
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
       <c r="AK73" s="11" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="AL73" s="11"/>
       <c r="AM73" s="11"/>
     </row>
     <row r="74" spans="1:39" s="15" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="C74" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" s="17"/>
       <c r="E74" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F74" s="37"/>
+        <v>295</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="G74" s="11" t="s">
         <v>2</v>
       </c>
@@ -7535,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -7567,21 +7718,21 @@
     </row>
     <row r="75" spans="1:39" s="15" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="C75" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" s="17"/>
       <c r="E75" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F75" s="37"/>
+        <v>295</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="G75" s="11" t="s">
         <v>2</v>
       </c>
@@ -7592,7 +7743,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -7624,21 +7775,21 @@
     </row>
     <row r="76" spans="1:39" s="15" customFormat="1">
       <c r="A76" s="11" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="C76" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="17"/>
       <c r="E76" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F76" s="37"/>
+        <v>295</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="G76" s="11" t="s">
         <v>2</v>
       </c>
@@ -7649,7 +7800,7 @@
         <v>3</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -7681,21 +7832,21 @@
     </row>
     <row r="77" spans="1:39" s="15" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>355</v>
-      </c>
+      <c r="C77" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="17"/>
       <c r="E77" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F77" s="37"/>
+        <v>295</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="G77" s="11" t="s">
         <v>2</v>
       </c>
@@ -7703,10 +7854,10 @@
       <c r="I77" s="11"/>
       <c r="J77" s="13"/>
       <c r="K77" s="11" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -7738,34 +7889,34 @@
     </row>
     <row r="78" spans="1:39" s="15" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>374</v>
-      </c>
+      <c r="C78" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" s="17"/>
       <c r="E78" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F78" s="37"/>
+        <v>314</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="G78" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J78" s="13"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -7792,28 +7943,28 @@
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
       <c r="AK78" s="11" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="AL78" s="11"/>
       <c r="AM78" s="11"/>
     </row>
     <row r="79" spans="1:39" s="15" customFormat="1" ht="45">
       <c r="A79" s="11" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>374</v>
-      </c>
+      <c r="C79" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="17"/>
       <c r="E79" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="37"/>
+        <v>314</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="G79" s="11" t="s">
         <v>2</v>
       </c>
@@ -7824,7 +7975,7 @@
         <v>3</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -7856,21 +8007,21 @@
     </row>
     <row r="80" spans="1:39" s="15" customFormat="1">
       <c r="A80" s="11" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C80" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>374</v>
-      </c>
+      <c r="C80" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="D80" s="17"/>
       <c r="E80" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="F80" s="37"/>
+        <v>314</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>267</v>
+      </c>
       <c r="G80" s="11" t="s">
         <v>2</v>
       </c>
@@ -7881,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
@@ -7913,21 +8064,21 @@
     </row>
     <row r="81" spans="1:39" s="15" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C81" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>406</v>
-      </c>
+      <c r="C81" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" s="17"/>
       <c r="E81" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="F81" s="37"/>
+        <v>346</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>345</v>
+      </c>
       <c r="G81" s="11" t="s">
         <v>2</v>
       </c>
@@ -7938,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -7970,23 +8121,23 @@
     </row>
     <row r="82" spans="1:39">
       <c r="A82" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>375</v>
-      </c>
+      <c r="C82" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="17"/>
       <c r="E82" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F82" s="37"/>
+        <v>315</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="G82" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -7995,7 +8146,7 @@
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -8006,7 +8157,7 @@
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -8031,23 +8182,23 @@
     </row>
     <row r="83" spans="1:39">
       <c r="A83" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>376</v>
-      </c>
+      <c r="C83" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D83" s="17"/>
       <c r="E83" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F83" s="37"/>
+        <v>316</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="G83" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -8056,7 +8207,7 @@
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -8067,7 +8218,7 @@
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -8092,22 +8243,22 @@
     </row>
     <row r="84" spans="1:39">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>376</v>
+      <c r="C84" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F84" s="37" t="s">
-        <v>211</v>
+        <v>316</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>2</v>
@@ -8119,7 +8270,7 @@
         <v>3</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -8151,25 +8302,25 @@
     </row>
     <row r="85" spans="1:39">
       <c r="A85" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>376</v>
+      <c r="C85" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>387</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F85" s="37" t="s">
-        <v>212</v>
+        <v>316</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -8178,13 +8329,13 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>165</v>
+        <v>382</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -8193,7 +8344,7 @@
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -8218,23 +8369,23 @@
     </row>
     <row r="86" spans="1:39">
       <c r="A86" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>377</v>
-      </c>
+      <c r="C86" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="D86" s="17"/>
       <c r="E86" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F86" s="37"/>
+        <v>317</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -8243,7 +8394,7 @@
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -8254,7 +8405,7 @@
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -8265,7 +8416,7 @@
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
@@ -8283,21 +8434,21 @@
     </row>
     <row r="87" spans="1:39">
       <c r="A87" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>378</v>
-      </c>
+      <c r="C87" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D87" s="17"/>
       <c r="E87" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F87" s="37"/>
+        <v>318</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>2</v>
       </c>
@@ -8308,7 +8459,7 @@
         <v>3</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -8340,23 +8491,23 @@
     </row>
     <row r="88" spans="1:39">
       <c r="A88" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C88" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="C88" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="17"/>
       <c r="E88" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F88" s="37"/>
+        <v>319</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="G88" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -8365,13 +8516,13 @@
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>165</v>
+        <v>383</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -8380,7 +8531,7 @@
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -8405,21 +8556,21 @@
     </row>
     <row r="89" spans="1:39">
       <c r="A89" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="C89" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D89" s="17"/>
       <c r="E89" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F89" s="37"/>
+        <v>319</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>2</v>
       </c>
@@ -8430,7 +8581,7 @@
         <v>3</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -8462,21 +8613,21 @@
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="1" t="s">
-        <v>165</v>
+        <v>383</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="C90" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D90" s="17"/>
       <c r="E90" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F90" s="37"/>
+        <v>319</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>2</v>
       </c>
@@ -8519,48 +8670,40 @@
     </row>
     <row r="91" spans="1:39">
       <c r="A91" s="1" t="s">
-        <v>71</v>
+        <v>382</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="C91" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" s="17"/>
       <c r="E91" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F91" s="37"/>
+        <v>319</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="1"/>
+      <c r="K91" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L91" s="1" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
       <c r="Q91" s="9"/>
       <c r="R91" s="1"/>
-      <c r="S91" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
@@ -8572,7 +8715,7 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
-      <c r="AE91" s="4"/>
+      <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
@@ -8584,43 +8727,49 @@
     </row>
     <row r="92" spans="1:39">
       <c r="A92" s="1" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>380</v>
+      <c r="C92" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>390</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F92" s="37"/>
+        <v>320</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="G92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="9">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J92" s="9"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="9">
-        <v>1</v>
-      </c>
+      <c r="O92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q92" s="9"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
@@ -8633,7 +8782,7 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
+      <c r="AE92" s="4"/>
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
@@ -8645,23 +8794,23 @@
     </row>
     <row r="93" spans="1:39">
       <c r="A93" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C93" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="C93" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D93" s="17"/>
       <c r="E93" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F93" s="37"/>
+        <v>320</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="G93" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -8670,7 +8819,7 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -8681,7 +8830,7 @@
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -8706,40 +8855,44 @@
     </row>
     <row r="94" spans="1:39">
       <c r="A94" s="1" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F94" s="37"/>
-      <c r="G94" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J94" s="9">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="9"/>
+      <c r="Q94" s="9">
+        <v>1</v>
+      </c>
       <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
+      <c r="S94" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
@@ -8751,7 +8904,7 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
-      <c r="AE94" s="4"/>
+      <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -8763,21 +8916,21 @@
     </row>
     <row r="95" spans="1:39">
       <c r="A95" s="1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="C95" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="17"/>
       <c r="E95" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F95" s="37"/>
+        <v>320</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="G95" s="1" t="s">
         <v>2</v>
       </c>
@@ -8788,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -8808,7 +8961,7 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
-      <c r="AE95" s="1"/>
+      <c r="AE95" s="4"/>
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
@@ -8820,22 +8973,20 @@
     </row>
     <row r="96" spans="1:39">
       <c r="A96" s="1" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="C96" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="17"/>
       <c r="E96" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F96" s="37" t="s">
-        <v>220</v>
+        <v>320</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>2</v>
@@ -8847,7 +8998,7 @@
         <v>3</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -8879,29 +9030,35 @@
     </row>
     <row r="97" spans="1:39">
       <c r="A97" s="1" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>381</v>
+        <v>41</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>393</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F97" s="37"/>
+        <v>320</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
+      <c r="K97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -8920,7 +9077,7 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
       <c r="AD97" s="1"/>
-      <c r="AE97" s="4"/>
+      <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
@@ -8930,23 +9087,23 @@
       <c r="AL97" s="1"/>
       <c r="AM97" s="1"/>
     </row>
-    <row r="98" spans="1:39" ht="45">
+    <row r="98" spans="1:39">
       <c r="A98" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C98" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="C98" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="17"/>
       <c r="E98" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F98" s="37"/>
+        <v>321</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="G98" s="1" t="s">
         <v>2</v>
       </c>
@@ -8985,21 +9142,21 @@
     </row>
     <row r="99" spans="1:39" ht="45">
       <c r="A99" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C99" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="C99" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="17"/>
       <c r="E99" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F99" s="37"/>
+        <v>322</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="G99" s="1" t="s">
         <v>2</v>
       </c>
@@ -9036,35 +9193,31 @@
       <c r="AL99" s="1"/>
       <c r="AM99" s="1"/>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" ht="45">
       <c r="A100" s="1" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>383</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D100" s="17"/>
       <c r="E100" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F100" s="37"/>
+        <v>322</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="G100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -9093,31 +9246,35 @@
       <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
     </row>
-    <row r="101" spans="1:39" ht="45">
+    <row r="101" spans="1:39">
       <c r="A101" s="1" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>384</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" s="17"/>
       <c r="E101" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F101" s="37"/>
+        <v>323</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="G101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
+      <c r="K101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -9146,61 +9303,88 @@
       <c r="AL101" s="1"/>
       <c r="AM101" s="1"/>
     </row>
-    <row r="102" spans="1:39">
-      <c r="A102" t="s">
-        <v>171</v>
-      </c>
-      <c r="B102" s="11" t="s">
+    <row r="102" spans="1:39" ht="45">
+      <c r="A102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="4"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+    </row>
+    <row r="103" spans="1:39">
+      <c r="A103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F102" s="39"/>
-      <c r="G102" t="s">
-        <v>2</v>
-      </c>
-      <c r="J102" s="9"/>
-      <c r="K102" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q102" s="9"/>
-      <c r="X102" s="9"/>
-    </row>
-    <row r="103" spans="1:39" ht="45">
-      <c r="A103" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="C103" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D103" s="17"/>
       <c r="E103" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F103" s="37"/>
+        <v>323</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="G103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
+      <c r="K103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -9219,7 +9403,6 @@
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
       <c r="AD103" s="1"/>
-      <c r="AE103" s="4"/>
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
@@ -9230,60 +9413,87 @@
       <c r="AM103" s="1"/>
     </row>
     <row r="104" spans="1:39" ht="45">
-      <c r="A104" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A104" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="17"/>
       <c r="E104" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F104" s="39"/>
-      <c r="G104" t="s">
+        <v>324</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
       <c r="J104" s="9"/>
-      <c r="K104" t="s">
-        <v>3</v>
-      </c>
-      <c r="L104" t="s">
-        <v>74</v>
-      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
       <c r="Q104" s="9"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
       <c r="X104" s="9"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="4"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
     </row>
     <row r="105" spans="1:39" ht="45">
       <c r="A105" s="1" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>384</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" s="17"/>
       <c r="E105" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F105" s="37"/>
+        <v>321</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="G105" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="K105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -9302,7 +9512,6 @@
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
       <c r="AD105" s="1"/>
-      <c r="AE105" s="4"/>
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
@@ -9312,6 +9521,59 @@
       <c r="AL105" s="1"/>
       <c r="AM105" s="1"/>
     </row>
+    <row r="106" spans="1:39" ht="45">
+      <c r="A106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="4"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
@@ -9320,7 +9582,7 @@
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="O3:U3"/>
     <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CivilWarNarrative/bin/SoldierStory.xlsx
+++ b/CivilWarNarrative/bin/SoldierStory.xlsx
@@ -1136,7 +1136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="410">
   <si>
     <t>titleslide</t>
   </si>
@@ -1526,9 +1526,6 @@
   </si>
   <si>
     <t>buy-vest</t>
-  </si>
-  <si>
-    <t>buy-filter</t>
   </si>
   <si>
     <t>poker-playing</t>
@@ -2573,6 +2570,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2620,9 +2620,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3178,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3230,16 +3227,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="72" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="39" t="s">
         <v>116</v>
       </c>
       <c r="D1" s="39"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
       <c r="A2" t="s">
@@ -3252,48 +3249,48 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:46" ht="15" customHeight="1">
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="35" t="s">
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="26" t="s">
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="24" t="s">
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" t="s">
@@ -3422,14 +3419,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
@@ -3486,14 +3483,14 @@
         <v>41</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>2</v>
@@ -3554,10 +3551,10 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
@@ -3619,16 +3616,16 @@
         <v>41</v>
       </c>
       <c r="C8" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>2</v>
@@ -3681,13 +3678,13 @@
         <v>115</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>2</v>
@@ -3743,10 +3740,10 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>2</v>
@@ -3770,7 +3767,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>58</v>
@@ -3828,10 +3825,10 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>2</v>
@@ -3893,14 +3890,14 @@
         <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>2</v>
@@ -3920,7 +3917,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>61</v>
@@ -3955,14 +3952,14 @@
         <v>41</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>2</v>
@@ -3974,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -4006,20 +4003,20 @@
     </row>
     <row r="14" spans="1:46" s="15" customFormat="1">
       <c r="A14" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>2</v>
@@ -4028,10 +4025,10 @@
       <c r="I14" s="11"/>
       <c r="J14" s="13"/>
       <c r="K14" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -4039,10 +4036,10 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
@@ -4067,20 +4064,20 @@
     </row>
     <row r="15" spans="1:46" s="15" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>2</v>
@@ -4092,7 +4089,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -4124,22 +4121,22 @@
     </row>
     <row r="16" spans="1:46" s="15" customFormat="1" ht="45">
       <c r="A16" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>2</v>
@@ -4151,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -4183,20 +4180,20 @@
     </row>
     <row r="17" spans="1:39" s="15" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>2</v>
@@ -4208,7 +4205,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -4240,20 +4237,20 @@
     </row>
     <row r="18" spans="1:39" s="15" customFormat="1">
       <c r="A18" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>2</v>
@@ -4265,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -4297,20 +4294,20 @@
     </row>
     <row r="19" spans="1:39" s="15" customFormat="1">
       <c r="A19" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>2</v>
@@ -4322,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -4354,20 +4351,20 @@
     </row>
     <row r="20" spans="1:39" s="15" customFormat="1">
       <c r="A20" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>2</v>
@@ -4413,14 +4410,14 @@
         <v>41</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>2</v>
@@ -4440,7 +4437,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>61</v>
@@ -4474,16 +4471,16 @@
         <v>41</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>339</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>340</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>2</v>
@@ -4503,7 +4500,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>61</v>
@@ -4537,16 +4534,16 @@
         <v>41</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>300</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>301</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>2</v>
@@ -4566,7 +4563,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>61</v>
@@ -4600,16 +4597,16 @@
         <v>41</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>339</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>340</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>2</v>
@@ -4621,7 +4618,7 @@
         <v>3</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -4653,20 +4650,20 @@
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>339</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>340</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>2</v>
@@ -4715,14 +4712,14 @@
         <v>41</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>2</v>
@@ -4776,16 +4773,16 @@
         <v>41</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>2</v>
@@ -4794,7 +4791,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="9"/>
       <c r="K27" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>65</v>
@@ -4805,7 +4802,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>120</v>
@@ -4839,16 +4836,16 @@
         <v>41</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>88</v>
@@ -4860,7 +4857,7 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -4871,7 +4868,7 @@
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -4896,20 +4893,20 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>2</v>
@@ -4953,20 +4950,20 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>2</v>
@@ -5016,14 +5013,14 @@
         <v>78</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>2</v>
@@ -5069,16 +5066,16 @@
         <v>41</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>2</v>
@@ -5128,16 +5125,16 @@
         <v>41</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>2</v>
@@ -5187,16 +5184,16 @@
         <v>41</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>2</v>
@@ -5250,10 +5247,10 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>89</v>
@@ -5313,16 +5310,16 @@
         <v>41</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>2</v>
@@ -5372,16 +5369,16 @@
         <v>41</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>2</v>
@@ -5431,14 +5428,14 @@
         <v>41</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>88</v>
@@ -5461,7 +5458,7 @@
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -5496,16 +5493,16 @@
         <v>41</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>89</v>
@@ -5563,16 +5560,16 @@
         <v>41</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>88</v>
@@ -5626,16 +5623,16 @@
         <v>41</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>88</v>
@@ -5683,20 +5680,20 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>2</v>
@@ -5705,46 +5702,46 @@
       <c r="I42" s="1"/>
       <c r="J42" s="9"/>
       <c r="K42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="T42" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB42" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
@@ -5766,14 +5763,14 @@
         <v>41</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>88</v>
@@ -5821,20 +5818,20 @@
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>88</v>
@@ -5888,14 +5885,14 @@
         <v>41</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>2</v>
@@ -5907,7 +5904,7 @@
         <v>96</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -5918,13 +5915,13 @@
         <v>106</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T45" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="U45" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -5947,20 +5944,20 @@
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>88</v>
@@ -5972,7 +5969,7 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>98</v>
@@ -5987,7 +5984,7 @@
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>98</v>
@@ -6016,7 +6013,7 @@
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -6026,10 +6023,10 @@
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>88</v>
@@ -6077,20 +6074,20 @@
     </row>
     <row r="48" spans="1:39" ht="45">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>88</v>
@@ -6138,20 +6135,20 @@
     </row>
     <row r="49" spans="1:39" s="15" customFormat="1" ht="30">
       <c r="A49" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>89</v>
@@ -6165,7 +6162,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -6178,7 +6175,7 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
@@ -6191,7 +6188,7 @@
       <c r="X49" s="13"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
@@ -6204,27 +6201,27 @@
       <c r="AI49" s="11"/>
       <c r="AJ49" s="11"/>
       <c r="AK49" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AL49" s="11"/>
       <c r="AM49" s="11"/>
     </row>
     <row r="50" spans="1:39" s="15" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>88</v>
@@ -6272,20 +6269,20 @@
     </row>
     <row r="51" spans="1:39" s="15" customFormat="1">
       <c r="A51" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>88</v>
@@ -6333,20 +6330,20 @@
     </row>
     <row r="52" spans="1:39" s="15" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>88</v>
@@ -6394,20 +6391,20 @@
     </row>
     <row r="53" spans="1:39" s="15" customFormat="1">
       <c r="A53" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>88</v>
@@ -6461,30 +6458,30 @@
         <v>41</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -6518,20 +6515,20 @@
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>2</v>
@@ -6540,13 +6537,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="9"/>
       <c r="K55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>99</v>
@@ -6555,13 +6552,13 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>91</v>
@@ -6587,20 +6584,20 @@
     </row>
     <row r="56" spans="1:39" ht="45">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>2</v>
@@ -6612,7 +6609,7 @@
         <v>3</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -6644,20 +6641,20 @@
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>2</v>
@@ -6669,7 +6666,7 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -6707,14 +6704,14 @@
         <v>41</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>2</v>
@@ -6726,7 +6723,7 @@
         <v>97</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>68</v>
@@ -6741,7 +6738,7 @@
         <v>107</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>68</v>
@@ -6770,7 +6767,7 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>41</v>
@@ -6780,10 +6777,10 @@
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>2</v>
@@ -6795,7 +6792,7 @@
         <v>3</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -6827,20 +6824,20 @@
     </row>
     <row r="60" spans="1:39" ht="30">
       <c r="A60" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>2</v>
@@ -6852,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -6884,20 +6881,20 @@
     </row>
     <row r="61" spans="1:39" ht="45">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>2</v>
@@ -6909,7 +6906,7 @@
         <v>3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -6941,20 +6938,20 @@
     </row>
     <row r="62" spans="1:39" ht="45">
       <c r="A62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>2</v>
@@ -6966,7 +6963,7 @@
         <v>3</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -6998,20 +6995,20 @@
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>2</v>
@@ -7023,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -7061,30 +7058,30 @@
         <v>41</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -7111,27 +7108,27 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>2</v>
@@ -7140,10 +7137,10 @@
       <c r="I65" s="1"/>
       <c r="J65" s="9"/>
       <c r="K65" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -7151,10 +7148,10 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
@@ -7179,20 +7176,20 @@
     </row>
     <row r="66" spans="1:39" ht="30">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>2</v>
@@ -7204,7 +7201,7 @@
         <v>3</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -7236,34 +7233,34 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -7290,27 +7287,27 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>2</v>
@@ -7322,7 +7319,7 @@
         <v>3</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -7354,20 +7351,20 @@
     </row>
     <row r="69" spans="1:39" ht="45">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>2</v>
@@ -7379,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -7411,7 +7408,7 @@
     </row>
     <row r="70" spans="1:39">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>41</v>
@@ -7423,10 +7420,10 @@
         <v>87</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>2</v>
@@ -7476,28 +7473,28 @@
         <v>41</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H71" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I71" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -7524,27 +7521,27 @@
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
       <c r="AK71" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL71" s="11"/>
       <c r="AM71" s="11"/>
     </row>
     <row r="72" spans="1:39" s="15" customFormat="1" ht="45">
       <c r="A72" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>2</v>
@@ -7556,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -7588,20 +7585,20 @@
     </row>
     <row r="73" spans="1:39" s="15" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>89</v>
@@ -7615,7 +7612,7 @@
       <c r="J73" s="13"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -7628,7 +7625,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
@@ -7641,7 +7638,7 @@
       <c r="X73" s="13"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA73" s="11"/>
       <c r="AB73" s="11"/>
@@ -7654,27 +7651,27 @@
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
       <c r="AK73" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL73" s="11"/>
       <c r="AM73" s="11"/>
     </row>
     <row r="74" spans="1:39" s="15" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F74" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>2</v>
@@ -7686,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -7718,20 +7715,20 @@
     </row>
     <row r="75" spans="1:39" s="15" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>2</v>
@@ -7743,7 +7740,7 @@
         <v>3</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -7775,20 +7772,20 @@
     </row>
     <row r="76" spans="1:39" s="15" customFormat="1">
       <c r="A76" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>2</v>
@@ -7800,7 +7797,7 @@
         <v>3</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -7832,20 +7829,20 @@
     </row>
     <row r="77" spans="1:39" s="15" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F77" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>2</v>
@@ -7854,10 +7851,10 @@
       <c r="I77" s="11"/>
       <c r="J77" s="13"/>
       <c r="K77" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -7889,26 +7886,26 @@
     </row>
     <row r="78" spans="1:39" s="15" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>91</v>
@@ -7916,7 +7913,7 @@
       <c r="J78" s="13"/>
       <c r="K78" s="11"/>
       <c r="L78" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -7943,27 +7940,27 @@
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
       <c r="AK78" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL78" s="11"/>
       <c r="AM78" s="11"/>
     </row>
     <row r="79" spans="1:39" s="15" customFormat="1" ht="45">
       <c r="A79" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>2</v>
@@ -7975,7 +7972,7 @@
         <v>3</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -8007,20 +8004,20 @@
     </row>
     <row r="80" spans="1:39" s="15" customFormat="1">
       <c r="A80" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>2</v>
@@ -8032,7 +8029,7 @@
         <v>3</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
@@ -8064,20 +8061,20 @@
     </row>
     <row r="81" spans="1:39" s="15" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>2</v>
@@ -8089,7 +8086,7 @@
         <v>3</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -8121,20 +8118,20 @@
     </row>
     <row r="82" spans="1:39">
       <c r="A82" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>88</v>
@@ -8146,7 +8143,7 @@
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -8157,7 +8154,7 @@
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -8182,20 +8179,20 @@
     </row>
     <row r="83" spans="1:39">
       <c r="A83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>88</v>
@@ -8207,7 +8204,7 @@
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -8218,7 +8215,7 @@
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -8243,22 +8240,22 @@
     </row>
     <row r="84" spans="1:39">
       <c r="A84" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>2</v>
@@ -8270,7 +8267,7 @@
         <v>3</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -8302,22 +8299,22 @@
     </row>
     <row r="85" spans="1:39">
       <c r="A85" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>88</v>
@@ -8329,13 +8326,13 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -8344,7 +8341,7 @@
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -8369,20 +8366,20 @@
     </row>
     <row r="86" spans="1:39">
       <c r="A86" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>88</v>
@@ -8394,7 +8391,7 @@
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -8405,7 +8402,7 @@
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -8416,7 +8413,7 @@
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
@@ -8434,20 +8431,20 @@
     </row>
     <row r="87" spans="1:39">
       <c r="A87" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>2</v>
@@ -8459,7 +8456,7 @@
         <v>3</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -8491,20 +8488,20 @@
     </row>
     <row r="88" spans="1:39">
       <c r="A88" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>88</v>
@@ -8516,13 +8513,13 @@
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M88" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N88" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -8531,7 +8528,7 @@
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -8556,20 +8553,20 @@
     </row>
     <row r="89" spans="1:39">
       <c r="A89" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>2</v>
@@ -8581,7 +8578,7 @@
         <v>3</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -8613,20 +8610,20 @@
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>2</v>
@@ -8670,20 +8667,20 @@
     </row>
     <row r="91" spans="1:39">
       <c r="A91" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>2</v>
@@ -8733,43 +8730,43 @@
         <v>41</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q92" s="9"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
@@ -8794,20 +8791,20 @@
     </row>
     <row r="93" spans="1:39">
       <c r="A93" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>88</v>
@@ -8819,7 +8816,7 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -8830,7 +8827,7 @@
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -8855,20 +8852,20 @@
     </row>
     <row r="94" spans="1:39">
       <c r="A94" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>88</v>
@@ -8880,7 +8877,7 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -8891,7 +8888,7 @@
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
@@ -8916,7 +8913,7 @@
     </row>
     <row r="95" spans="1:39">
       <c r="A95" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>41</v>
@@ -8926,10 +8923,10 @@
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>2</v>
@@ -8973,20 +8970,20 @@
     </row>
     <row r="96" spans="1:39">
       <c r="A96" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>2</v>
@@ -9030,22 +9027,22 @@
     </row>
     <row r="97" spans="1:39">
       <c r="A97" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>2</v>
@@ -9095,14 +9092,14 @@
         <v>78</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>2</v>
@@ -9148,14 +9145,14 @@
         <v>78</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>2</v>
@@ -9201,14 +9198,14 @@
         <v>78</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>2</v>
@@ -9248,20 +9245,20 @@
     </row>
     <row r="101" spans="1:39">
       <c r="A101" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>2</v>
@@ -9311,14 +9308,14 @@
         <v>78</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>2</v>
@@ -9358,20 +9355,20 @@
     </row>
     <row r="103" spans="1:39">
       <c r="A103" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>2</v>
@@ -9420,14 +9417,14 @@
         <v>78</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>2</v>
@@ -9467,20 +9464,20 @@
     </row>
     <row r="105" spans="1:39" ht="45">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>2</v>
@@ -9529,14 +9526,14 @@
         <v>78</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>2</v>
